--- a/on_trucks/Processed_Stand_Alone/20_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/20_455-55R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>131</v>
       </c>
       <c r="E2">
-        <v>0.0221322637217325</v>
+        <v>0.02210712904845834</v>
       </c>
       <c r="F2">
         <v>0.5264957013346799</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>135</v>
       </c>
       <c r="E3">
-        <v>0.03030736684116471</v>
+        <v>0.0288971309636744</v>
       </c>
       <c r="F3">
         <v>0.5231903494692349</v>
       </c>
       <c r="G3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>130</v>
       </c>
       <c r="E4">
-        <v>0.0227649655693725</v>
+        <v>0.0227047591095743</v>
       </c>
       <c r="F4">
         <v>0.5008861404730721</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>106</v>
       </c>
       <c r="E5">
-        <v>0.04335183578786216</v>
+        <v>0.04152797746471708</v>
       </c>
       <c r="F5">
         <v>0.5302819537592843</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>106</v>
       </c>
       <c r="E6">
-        <v>0.00555889997962929</v>
+        <v>0.005482234257371558</v>
       </c>
       <c r="F6">
         <v>0.5072883356650816</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>147</v>
       </c>
       <c r="E2">
-        <v>0.0221322637217325</v>
+        <v>0.02210712904845834</v>
       </c>
       <c r="F2">
         <v>0.7011126795647953</v>
       </c>
       <c r="G2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>151</v>
       </c>
       <c r="E3">
-        <v>0.03030736684116471</v>
+        <v>0.0288971309636744</v>
       </c>
       <c r="F3">
         <v>0.730997956777947</v>
       </c>
       <c r="G3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>150</v>
       </c>
       <c r="E4">
-        <v>0.0227649655693725</v>
+        <v>0.0227047591095743</v>
       </c>
       <c r="F4">
         <v>0.7157558126481864</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.04335183578786216</v>
+        <v>0.04152797746471708</v>
       </c>
       <c r="F5">
         <v>0.7210274926315243</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>147</v>
       </c>
       <c r="E6">
-        <v>0.00555889997962929</v>
+        <v>0.005482234257371558</v>
       </c>
       <c r="F6">
         <v>0.7038089879817371</v>
       </c>
       <c r="G6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>160</v>
       </c>
       <c r="E2">
-        <v>0.0221322637217325</v>
+        <v>0.02210712904845834</v>
       </c>
       <c r="F2">
         <v>0.810195182014701</v>
       </c>
       <c r="G2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>154</v>
       </c>
       <c r="E3">
-        <v>0.03030736684116471</v>
+        <v>0.0288971309636744</v>
       </c>
       <c r="F3">
         <v>0.8045324181185537</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>164</v>
       </c>
       <c r="E4">
-        <v>0.0227649655693725</v>
+        <v>0.0227047591095743</v>
       </c>
       <c r="F4">
         <v>0.8007400885668742</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>151</v>
       </c>
       <c r="E5">
-        <v>0.04335183578786216</v>
+        <v>0.04152797746471708</v>
       </c>
       <c r="F5">
         <v>0.8045985156899542</v>
       </c>
       <c r="G5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>159</v>
       </c>
       <c r="E6">
-        <v>0.00555889997962929</v>
+        <v>0.005482234257371558</v>
       </c>
       <c r="F6">
         <v>0.8057827289447663</v>
       </c>
       <c r="G6">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>174</v>
       </c>
       <c r="E2">
-        <v>0.0221322637217325</v>
+        <v>0.02210712904845834</v>
       </c>
       <c r="F2">
         <v>0.9000497797538717</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>173</v>
       </c>
       <c r="E3">
-        <v>0.03030736684116471</v>
+        <v>0.0288971309636744</v>
       </c>
       <c r="F3">
         <v>0.9028724680909898</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>187</v>
       </c>
       <c r="E4">
-        <v>0.0227649655693725</v>
+        <v>0.0227047591095743</v>
       </c>
       <c r="F4">
         <v>0.9150944379700101</v>
       </c>
       <c r="G4">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>167</v>
       </c>
       <c r="E5">
-        <v>0.04335183578786216</v>
+        <v>0.04152797746471708</v>
       </c>
       <c r="F5">
         <v>0.9034054278313645</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>170</v>
       </c>
       <c r="E6">
-        <v>0.00555889997962929</v>
+        <v>0.005482234257371558</v>
       </c>
       <c r="F6">
         <v>0.9113721047542724</v>
       </c>
       <c r="G6">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>20</v>

--- a/on_trucks/Processed_Stand_Alone/20_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/20_455-55R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0008076482766766606</v>
+        <v>0.0007783924887043356</v>
       </c>
       <c r="C2">
-        <v>0.0008103983765972429</v>
+        <v>0.000781159831162324</v>
       </c>
       <c r="D2">
-        <v>0.00052477813484541</v>
+        <v>0.0004937488116771138</v>
       </c>
       <c r="E2">
-        <v>0.0003191309707841072</v>
+        <v>0.000286812283948606</v>
       </c>
       <c r="F2">
-        <v>0.0002341527632381155</v>
+        <v>0.0002013012812443919</v>
       </c>
       <c r="G2">
-        <v>0.0001431941258648272</v>
+        <v>0.0001097723526989256</v>
       </c>
       <c r="H2">
-        <v>3.880862487928105E-05</v>
+        <v>4.732376982506737E-06</v>
       </c>
       <c r="I2">
-        <v>1.151449866748328E-06</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.940302115089692E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3.410573401509155E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0001184573565791778</v>
+        <v>8.488048916869217E-05</v>
       </c>
       <c r="M2">
-        <v>0.0003306442104516268</v>
+        <v>0.0002983977091626022</v>
       </c>
       <c r="N2">
-        <v>0.0005092575252936154</v>
+        <v>0.0004781308912280827</v>
       </c>
       <c r="O2">
-        <v>0.0006404026815063939</v>
+        <v>0.0006100982994778516</v>
       </c>
       <c r="P2">
-        <v>0.0006826730502857064</v>
+        <v>0.0006526336944147199</v>
       </c>
       <c r="Q2">
-        <v>0.0006290353818346598</v>
+        <v>0.0005986597292721528</v>
       </c>
       <c r="R2">
-        <v>0.0005845840831183284</v>
+        <v>0.0005539297304347351</v>
       </c>
       <c r="S2">
-        <v>0.0003242292306368792</v>
+        <v>0.000291942508798562</v>
       </c>
       <c r="T2">
-        <v>0.0002547165126442736</v>
+        <v>0.0002219939609543879</v>
       </c>
       <c r="U2">
-        <v>0.0002138130438254877</v>
+        <v>0.0001808340361479965</v>
       </c>
       <c r="V2">
-        <v>0.0001091758268472107</v>
+        <v>7.554076623349214E-05</v>
       </c>
       <c r="W2">
-        <v>6.476517412970548E-05</v>
+        <v>3.085166823660665E-05</v>
       </c>
       <c r="X2">
-        <v>7.132724494020543E-07</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>5.580019538859695E-06</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>5.65324583674506E-05</v>
+        <v>2.256733511004367E-05</v>
       </c>
       <c r="AA2">
-        <v>0.0001199280965367057</v>
+        <v>8.636045035070807E-05</v>
       </c>
       <c r="AB2">
-        <v>0.0003509782198644195</v>
+        <v>0.0003188592084586866</v>
       </c>
       <c r="AC2">
-        <v>0.0004778859261995673</v>
+        <v>0.0004465625989277917</v>
       </c>
       <c r="AD2">
-        <v>0.0005862838830692415</v>
+        <v>0.0005556401877672281</v>
       </c>
       <c r="AE2">
-        <v>0.0007985151369404082</v>
+        <v>0.000769202086138337</v>
       </c>
       <c r="AF2">
-        <v>0.0008682798149257377</v>
+        <v>0.0008394041737104173</v>
       </c>
       <c r="AG2">
-        <v>0.0006803003803542246</v>
+        <v>0.0006502461483510147</v>
       </c>
       <c r="AH2">
-        <v>0.0007143402293712188</v>
+        <v>0.0006844994199297058</v>
       </c>
       <c r="AI2">
-        <v>0.0005344198845669746</v>
+        <v>0.0005034510131040838</v>
       </c>
       <c r="AJ2">
-        <v>0.0002860661117389571</v>
+        <v>0.0002535401153200309</v>
       </c>
       <c r="AK2">
-        <v>0.0002931962615330521</v>
+        <v>0.0002607149696259931</v>
       </c>
       <c r="AL2">
-        <v>0.0001791432248266859</v>
+        <v>0.0001459468448106571</v>
       </c>
       <c r="AM2">
-        <v>5.086630853107818E-05</v>
+        <v>1.68656597279371E-05</v>
       </c>
       <c r="AN2">
-        <v>1.901299345094107E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>2.37274973147952E-06</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.266091434559608E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0001317914061941159</v>
+        <v>9.829814041844341E-05</v>
       </c>
       <c r="AR2">
-        <v>0.0001842782646783957</v>
+        <v>0.0001511140802622657</v>
       </c>
       <c r="AS2">
-        <v>0.0003365305202816414</v>
+        <v>0.0003043209248943508</v>
       </c>
       <c r="AT2">
-        <v>0.0005698723835431742</v>
+        <v>0.0005391257916546223</v>
       </c>
       <c r="AU2">
-        <v>0.0005591521438527542</v>
+        <v>0.0005283383383577144</v>
       </c>
       <c r="AV2">
-        <v>0.0005931870328698917</v>
+        <v>0.0005625866188384122</v>
       </c>
       <c r="AW2">
-        <v>0.0004841202060195332</v>
+        <v>0.0004528359663467904</v>
       </c>
       <c r="AX2">
-        <v>0.0004105640281436951</v>
+        <v>0.000378818606992061</v>
       </c>
       <c r="AY2">
-        <v>0.0002012783141874668</v>
+        <v>0.0001682207164401962</v>
       </c>
       <c r="AZ2">
-        <v>0.000177344694878624</v>
+        <v>0.000144137038465082</v>
       </c>
       <c r="BA2">
-        <v>0.0001692837651114083</v>
+        <v>0.000136025568394949</v>
       </c>
       <c r="BB2">
-        <v>0.0001108660667983998</v>
+        <v>7.72416036271107E-05</v>
       </c>
       <c r="BC2">
-        <v>3.410573401509155E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>1.984034942704861E-06</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>1.240759464169237E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>8.189656763498358E-05</v>
+        <v>4.809047190946534E-05</v>
       </c>
       <c r="BG2">
-        <v>0.0001656054952176296</v>
+        <v>0.0001323242365368547</v>
       </c>
       <c r="BH2">
-        <v>0.000238114713123702</v>
+        <v>0.0002052880717070759</v>
       </c>
       <c r="BI2">
-        <v>0.0003983659184959533</v>
+        <v>0.0003665440178097718</v>
       </c>
       <c r="BJ2">
-        <v>0.0005570050439147584</v>
+        <v>0.0005261777765630353</v>
       </c>
       <c r="BK2">
-        <v>0.0004480708570605696</v>
+        <v>0.0004165605956919465</v>
       </c>
       <c r="BL2">
-        <v>0.0003913214886993829</v>
+        <v>0.0003594554209473567</v>
       </c>
       <c r="BM2">
-        <v>0.0003099855610482091</v>
+        <v>0.0002776095344526923</v>
       </c>
       <c r="BN2">
-        <v>0.0003843399089009976</v>
+        <v>0.0003524300681391523</v>
       </c>
       <c r="BO2">
-        <v>0.00031282921096609</v>
+        <v>0.000280471013446423</v>
       </c>
       <c r="BP2">
-        <v>0.0001887589145490031</v>
+        <v>0.0001556228228477667</v>
       </c>
       <c r="BQ2">
-        <v>0.0001502201756619283</v>
+        <v>0.0001168424543232119</v>
       </c>
       <c r="BR2">
-        <v>0.0001389832759864285</v>
+        <v>0.000105535101693791</v>
       </c>
       <c r="BS2">
-        <v>7.282936789682698E-05</v>
+        <v>3.896642277122567E-05</v>
       </c>
       <c r="BT2">
-        <v>2.20786383624111E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>2.524019627111135E-06</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>3.890996487635454E-06</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>1.414705359146012E-05</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>6.924945800020795E-05</v>
+        <v>3.536406760640351E-05</v>
       </c>
       <c r="BY2">
-        <v>7.583572781000906E-05</v>
+        <v>4.199163191707426E-05</v>
       </c>
       <c r="BZ2">
-        <v>0.0001156678066597347</v>
+        <v>8.207344936880063E-05</v>
       </c>
       <c r="CA2">
-        <v>8.597692751715057E-05</v>
+        <v>5.2196414774044E-05</v>
       </c>
       <c r="CB2">
-        <v>7.141163793776831E-05</v>
+        <v>3.753980394901412E-05</v>
       </c>
       <c r="CC2">
-        <v>9.082479737715336E-05</v>
+        <v>5.707467973961197E-05</v>
       </c>
       <c r="CD2">
-        <v>8.44892275601125E-05</v>
+        <v>5.069938725695391E-05</v>
       </c>
       <c r="CE2">
-        <v>4.677332464927573E-05</v>
+        <v>1.274701371394946E-05</v>
       </c>
       <c r="CF2">
-        <v>6.347482816696821E-05</v>
+        <v>2.955323208108665E-05</v>
       </c>
       <c r="CG2">
-        <v>3.467271899871811E-05</v>
+        <v>5.705398580206482E-07</v>
       </c>
       <c r="CH2">
-        <v>5.221287849219181E-05</v>
+        <v>1.822067239425961E-05</v>
       </c>
       <c r="CI2">
-        <v>2.869295117140238E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>4.974644356341774E-06</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>1.439053358442888E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>1.074413968972977E-05</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.001429666758713955</v>
+        <v>0.00140431089338209</v>
       </c>
       <c r="CN2">
-        <v>0.1555052355093058</v>
+        <v>0.1564459004556772</v>
       </c>
       <c r="CO2">
-        <v>0.07609620780248688</v>
+        <v>0.0765389951552595</v>
       </c>
       <c r="CP2">
-        <v>0.0589698352970638</v>
+        <v>0.05930524396284937</v>
       </c>
       <c r="CQ2">
-        <v>0.003770609091112012</v>
+        <v>0.003759930432753526</v>
       </c>
       <c r="CR2">
-        <v>0.01476906057349774</v>
+        <v>0.01482733984996728</v>
       </c>
       <c r="CS2">
-        <v>0.006795454103760267</v>
+        <v>0.006803740575682268</v>
       </c>
       <c r="CT2">
-        <v>0.00123680066428356</v>
+        <v>0.001210235569853255</v>
       </c>
       <c r="CU2">
-        <v>0.0001397442059644543</v>
+        <v>0.000106300802539781</v>
       </c>
       <c r="CV2">
-        <v>0.01270730363303735</v>
+        <v>0.01275265613513694</v>
       </c>
       <c r="CW2">
-        <v>0.01599930353797068</v>
+        <v>0.01606529617429843</v>
       </c>
       <c r="CX2">
-        <v>0.0008305413360155528</v>
+        <v>0.0008014290826213849</v>
       </c>
       <c r="CY2">
-        <v>0.0232209333294238</v>
+        <v>0.02333220403760636</v>
       </c>
       <c r="CZ2">
-        <v>0.01138143067132602</v>
+        <v>0.01141847023396952</v>
       </c>
       <c r="DA2">
-        <v>0.01484357157134601</v>
+        <v>0.01490231801581113</v>
       </c>
       <c r="DB2">
-        <v>0.01114943867802551</v>
+        <v>0.01118502370056577</v>
       </c>
       <c r="DC2">
-        <v>0.0004630803166271251</v>
+        <v>0.000431664161354824</v>
       </c>
       <c r="DD2">
-        <v>0.0001864722546150375</v>
+        <v>0.000153321826045838</v>
       </c>
       <c r="DE2">
-        <v>9.840339715829787E-05</v>
+        <v>6.470079571798049E-05</v>
       </c>
       <c r="DF2">
-        <v>2.296879333670512E-05</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.003508174198690631</v>
+        <v>0.003495850129772561</v>
       </c>
       <c r="DH2">
-        <v>0.006681693507045455</v>
+        <v>0.00668926672439459</v>
       </c>
       <c r="DI2">
-        <v>6.864591801763702E-06</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.000478463886182877</v>
+        <v>0.0004471441825963925</v>
       </c>
       <c r="DK2">
-        <v>0.008060412767230678</v>
+        <v>0.008076630259007194</v>
       </c>
       <c r="DL2">
-        <v>0.0004632050866235219</v>
+        <v>0.0004317897136323714</v>
       </c>
       <c r="DM2">
-        <v>0.005801267332470482</v>
+        <v>0.005803320466300182</v>
       </c>
       <c r="DN2">
-        <v>0.004484276170502671</v>
+        <v>0.004478072051858102</v>
       </c>
       <c r="DO2">
-        <v>0.000103585143008659</v>
+        <v>6.99150300048471E-05</v>
       </c>
       <c r="DP2">
-        <v>9.915637713655324E-06</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.001298762962494207</v>
+        <v>0.001272586358400806</v>
       </c>
       <c r="DR2">
-        <v>0.0002277854734219907</v>
+        <v>0.0001948940698850503</v>
       </c>
       <c r="DS2">
-        <v>0.0006397340815257019</v>
+        <v>0.0006094255075185007</v>
       </c>
       <c r="DT2">
-        <v>5.799573632519393E-05</v>
+        <v>2.403978750713485E-05</v>
       </c>
       <c r="DU2">
-        <v>0.006990296798133583</v>
+        <v>0.006999804892012259</v>
       </c>
       <c r="DV2">
-        <v>0.0007428906185467381</v>
+        <v>0.0007132288139296072</v>
       </c>
       <c r="DW2">
-        <v>0.0003070532611328884</v>
+        <v>0.0002746588496450273</v>
       </c>
       <c r="DX2">
-        <v>0.0002425213129964478</v>
+        <v>0.0002097223000170908</v>
       </c>
       <c r="DY2">
-        <v>0.006415219314740722</v>
+        <v>0.006421121795985259</v>
       </c>
       <c r="DZ2">
-        <v>0.003509739498645428</v>
+        <v>0.003497425243822774</v>
       </c>
       <c r="EA2">
-        <v>0.01079497968826161</v>
+        <v>0.01082834232886433</v>
       </c>
       <c r="EB2">
-        <v>0.03392253902038188</v>
+        <v>0.03410090650386722</v>
       </c>
       <c r="EC2">
-        <v>0.02408923330434896</v>
+        <v>0.02420594806737669</v>
       </c>
       <c r="ED2">
-        <v>0.000170199105084975</v>
+        <v>0.000136946647354076</v>
       </c>
       <c r="EE2">
-        <v>0.01476052357374428</v>
+        <v>0.01481874932505406</v>
       </c>
       <c r="EF2">
-        <v>0.01860460446273456</v>
+        <v>0.01868693177778185</v>
       </c>
       <c r="EG2">
-        <v>0.005555556439566143</v>
+        <v>0.0055560690187308</v>
       </c>
       <c r="EH2">
-        <v>0.002314381433165085</v>
+        <v>0.002294572539328243</v>
       </c>
       <c r="EI2">
-        <v>0.001221186464734468</v>
+        <v>0.001194523472617692</v>
       </c>
       <c r="EJ2">
-        <v>0.001980366142810809</v>
+        <v>0.001958463044652504</v>
       </c>
       <c r="EK2">
-        <v>0.0008428279756607382</v>
+        <v>0.0008137927568652376</v>
       </c>
       <c r="EL2">
-        <v>0.00107916246883585</v>
+        <v>0.001051609016687598</v>
       </c>
       <c r="EM2">
-        <v>0.005374489244795017</v>
+        <v>0.00537386657143467</v>
       </c>
       <c r="EN2">
-        <v>0.04455849371323582</v>
+        <v>0.04480354635432886</v>
       </c>
       <c r="EO2">
-        <v>0.008232032762274619</v>
+        <v>0.008249326274657525</v>
       </c>
       <c r="EP2">
-        <v>1.676627151582211E-07</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.001042424769896764</v>
+        <v>0.001014640980245707</v>
       </c>
       <c r="ER2">
-        <v>0.04479132870651199</v>
+        <v>0.04503784117313754</v>
       </c>
       <c r="ES2">
-        <v>0.04512617269684233</v>
+        <v>0.04537478456356069</v>
       </c>
       <c r="ET2">
-        <v>0.01604082953677148</v>
+        <v>0.01610708253221647</v>
       </c>
       <c r="EU2">
-        <v>0.008989008740414599</v>
+        <v>0.009011048330029428</v>
       </c>
       <c r="EV2">
-        <v>0.001182085765863621</v>
+        <v>0.001155177620740644</v>
       </c>
       <c r="EW2">
-        <v>0.004289651676123054</v>
+        <v>0.00428222730358903</v>
       </c>
       <c r="EX2">
-        <v>0.002228370135648927</v>
+        <v>0.002208021969401047</v>
       </c>
       <c r="EY2">
-        <v>0.001652183952288083</v>
+        <v>0.001628223222094757</v>
       </c>
       <c r="EZ2">
-        <v>0.0016443331525148</v>
+        <v>0.001620323199488607</v>
       </c>
       <c r="FA2">
-        <v>0.003275463005410886</v>
+        <v>0.003261679887159768</v>
       </c>
       <c r="FB2">
-        <v>0.001045548769806549</v>
+        <v>0.001017784566965738</v>
       </c>
       <c r="FC2">
-        <v>0.001190766665612933</v>
+        <v>0.001163912947871858</v>
       </c>
       <c r="FD2">
-        <v>0.006626012808653408</v>
+        <v>0.006633236919950928</v>
       </c>
       <c r="FE2">
-        <v>0.01579207554395503</v>
+        <v>0.01585676890515038</v>
       </c>
       <c r="FF2">
-        <v>0.02658066123240128</v>
+        <v>0.02671299671485178</v>
       </c>
       <c r="FG2">
-        <v>0.0009746981418525797</v>
+        <v>0.0009464897207513345</v>
       </c>
       <c r="FH2">
-        <v>3.508765898673543E-05</v>
+        <v>9.880814308789861E-07</v>
       </c>
       <c r="FI2">
-        <v>0.003290235904984273</v>
+        <v>0.003276545409648993</v>
       </c>
       <c r="FJ2">
-        <v>0.01596743953889085</v>
+        <v>0.01603323239476992</v>
       </c>
       <c r="FK2">
-        <v>0.0135798386078402</v>
+        <v>0.01363066171732703</v>
       </c>
       <c r="FL2">
-        <v>0.003167541408527455</v>
+        <v>0.003153081644981648</v>
       </c>
       <c r="FM2">
-        <v>9.040735738920822E-06</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.009781317717534229</v>
+        <v>0.009808324914715939</v>
       </c>
       <c r="FO2">
-        <v>0.01319879361884405</v>
+        <v>0.01324722765787312</v>
       </c>
       <c r="FP2">
-        <v>0.0008558082752858918</v>
+        <v>0.0008268544401885448</v>
       </c>
       <c r="FQ2">
-        <v>0.0003982501684992959</v>
+        <v>0.0003664275420854301</v>
       </c>
       <c r="FR2">
-        <v>3.981898685010373E-05</v>
+        <v>5.749073706457915E-06</v>
       </c>
       <c r="FS2">
-        <v>0.001976065742934996</v>
+        <v>0.001954135682190654</v>
       </c>
       <c r="FT2">
-        <v>0.000454108156886224</v>
+        <v>0.0004226357480942642</v>
       </c>
       <c r="FU2">
-        <v>0.0003008725113113766</v>
+        <v>0.0002684393478461065</v>
       </c>
       <c r="FV2">
-        <v>0.0004192160478938414</v>
+        <v>0.0003875248730527008</v>
       </c>
       <c r="FW2">
-        <v>0.0009658437021082789</v>
+        <v>0.000937579765566537</v>
       </c>
       <c r="FX2">
-        <v>1.330857961567364E-06</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.000569241633561389</v>
+        <v>0.0005384910870055634</v>
       </c>
       <c r="FZ2">
-        <v>0.000358151289657275</v>
+        <v>0.0003260772518626077</v>
       </c>
       <c r="GA2">
-        <v>0.0001156678066597347</v>
+        <v>8.207344936880063E-05</v>
       </c>
       <c r="GB2">
-        <v>0.004063025882667574</v>
+        <v>0.004054180614953854</v>
       </c>
       <c r="GC2">
-        <v>0.005178269850461458</v>
+        <v>0.005176416923530587</v>
       </c>
       <c r="GD2">
-        <v>0.005097416552796348</v>
+        <v>0.005095056693008615</v>
       </c>
       <c r="GE2">
-        <v>0.01054199069556745</v>
+        <v>0.01057376714937848</v>
       </c>
       <c r="GF2">
-        <v>0.003633350295075785</v>
+        <v>0.003621811053468212</v>
       </c>
       <c r="GG2">
-        <v>0.00224388493520089</v>
+        <v>0.002223634043422791</v>
       </c>
       <c r="GH2">
-        <v>0.002620290224331024</v>
+        <v>0.002602399313086397</v>
       </c>
       <c r="GI2">
-        <v>7.55673428177595E-06</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.001755943949291693</v>
+        <v>0.001732633772053262</v>
       </c>
       <c r="GK2">
-        <v>0.0007402576786227724</v>
+        <v>0.0007105793660363175</v>
       </c>
       <c r="GL2">
-        <v>0.001480065857258525</v>
+        <v>0.001455025983478597</v>
       </c>
       <c r="GM2">
-        <v>0.002546284226468176</v>
+        <v>0.002527929313469694</v>
       </c>
       <c r="GN2">
-        <v>0.0006535185811276318</v>
+        <v>0.0006232964329801718</v>
       </c>
       <c r="GO2">
-        <v>0.001972943443025163</v>
+        <v>0.00195099380612921</v>
       </c>
       <c r="GP2">
-        <v>0.003899979487376042</v>
+        <v>0.003890111953689838</v>
       </c>
       <c r="GQ2">
-        <v>0.005842630131276004</v>
+        <v>0.005844942600993933</v>
       </c>
       <c r="GR2">
-        <v>0.01532575955742134</v>
+        <v>0.01538752921727018</v>
       </c>
       <c r="GS2">
-        <v>0.02916262015783924</v>
+        <v>0.02931114396967357</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0002349283729089567</v>
+        <v>0.0002174107880984895</v>
       </c>
       <c r="C3">
-        <v>0.0002941008561603947</v>
+        <v>0.0002767878014079423</v>
       </c>
       <c r="D3">
-        <v>0.0004396911241603585</v>
+        <v>0.0004228813030787646</v>
       </c>
       <c r="E3">
-        <v>0.0004707862958689909</v>
+        <v>0.0004540839554426624</v>
       </c>
       <c r="F3">
-        <v>0.0001834904600825217</v>
+        <v>0.0001657950798050322</v>
       </c>
       <c r="G3">
-        <v>6.770551772031522E-05</v>
+        <v>4.960992606623095E-05</v>
       </c>
       <c r="H3">
-        <v>1.826647800371518E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>7.155104893162131E-07</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.10902596093929E-07</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3.157128773479424E-05</v>
+        <v>1.335079788903098E-05</v>
       </c>
       <c r="L3">
-        <v>0.0001376548975639272</v>
+        <v>0.000119801086378253</v>
       </c>
       <c r="M3">
-        <v>5.219902286825691E-05</v>
+        <v>3.404983291784592E-05</v>
       </c>
       <c r="N3">
-        <v>0.0002071125413805191</v>
+        <v>0.0001894988109746056</v>
       </c>
       <c r="O3">
-        <v>0.0006385423850869328</v>
+        <v>0.0006224198946309748</v>
       </c>
       <c r="P3">
-        <v>0.0003301619881418991</v>
+        <v>0.0003129735789174182</v>
       </c>
       <c r="Q3">
-        <v>0.0004260168834089798</v>
+        <v>0.0004091597972288044</v>
       </c>
       <c r="R3">
-        <v>0.000717943839449922</v>
+        <v>0.0007020958006169983</v>
       </c>
       <c r="S3">
-        <v>0.0004366681639942514</v>
+        <v>0.0004198478940319586</v>
       </c>
       <c r="T3">
-        <v>0.0005112407280919004</v>
+        <v>0.0004946782186632732</v>
       </c>
       <c r="U3">
-        <v>0.0003355791184395622</v>
+        <v>0.0003184094335597964</v>
       </c>
       <c r="V3">
-        <v>0.000104746139755641</v>
+        <v>8.677857924301826E-05</v>
       </c>
       <c r="W3">
-        <v>6.608289963115483E-05</v>
+        <v>4.798169938750873E-05</v>
       </c>
       <c r="X3">
-        <v>3.927095215787909E-05</v>
+        <v>2.107707625029477E-05</v>
       </c>
       <c r="Y3">
-        <v>8.012753440288615E-07</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0001299590571410525</v>
+        <v>0.00011207864523488</v>
       </c>
       <c r="AA3">
-        <v>0.0003502488492456415</v>
+        <v>0.0003331298703820503</v>
       </c>
       <c r="AB3">
-        <v>0.0001976477108604411</v>
+        <v>0.0001800012652087072</v>
       </c>
       <c r="AC3">
-        <v>0.0002441184634139383</v>
+        <v>0.0002266326442087128</v>
       </c>
       <c r="AD3">
-        <v>9.460327919830631E-05</v>
+        <v>7.660065982480366E-05</v>
       </c>
       <c r="AE3">
-        <v>0.0001202987326102324</v>
+        <v>0.0001023849297319701</v>
       </c>
       <c r="AF3">
-        <v>0.000181666829982316</v>
+        <v>0.0001639651463159928</v>
       </c>
       <c r="AG3">
-        <v>0.0004442307644098048</v>
+        <v>0.0004274366346230926</v>
       </c>
       <c r="AH3">
-        <v>0.0005633762309566671</v>
+        <v>0.0005469939282193875</v>
       </c>
       <c r="AI3">
-        <v>0.0005430608298403666</v>
+        <v>0.0005266083067922162</v>
       </c>
       <c r="AJ3">
-        <v>0.000225103882369116</v>
+        <v>0.0002075523391457232</v>
       </c>
       <c r="AK3">
-        <v>8.168747448860247E-05</v>
+        <v>6.364021155543443E-05</v>
       </c>
       <c r="AL3">
-        <v>8.095722044847613E-05</v>
+        <v>6.290743338765642E-05</v>
       </c>
       <c r="AM3">
-        <v>1.10902596093929E-07</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.760907751707682E-05</v>
+        <v>9.374892266943696E-06</v>
       </c>
       <c r="AO3">
-        <v>9.773321537029155E-09</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>5.663110311179298E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>7.145404392629103E-05</v>
+        <v>5.337140907645512E-05</v>
       </c>
       <c r="AR3">
-        <v>0.00016728342919197</v>
+        <v>0.0001495320292109604</v>
       </c>
       <c r="AS3">
-        <v>0.0002856678456970136</v>
+        <v>0.0002683256421912127</v>
       </c>
       <c r="AT3">
-        <v>0.0004204637931038459</v>
+        <v>0.0004035875126323401</v>
       </c>
       <c r="AU3">
-        <v>0.0003953888217260144</v>
+        <v>0.0003784258694592953</v>
       </c>
       <c r="AV3">
-        <v>0.0004056524422899847</v>
+        <v>0.0003887249662918628</v>
       </c>
       <c r="AW3">
-        <v>0.0003980770218737269</v>
+        <v>0.0003811233613876118</v>
       </c>
       <c r="AX3">
-        <v>0.0005428406598282686</v>
+        <v>0.000526387375761096</v>
       </c>
       <c r="AY3">
-        <v>0.0005670017911558861</v>
+        <v>0.0005506320201900843</v>
       </c>
       <c r="AZ3">
-        <v>0.0005210523686310351</v>
+        <v>0.0005045237731992258</v>
       </c>
       <c r="BA3">
-        <v>0.0003435372988768521</v>
+        <v>0.0003263951214974833</v>
       </c>
       <c r="BB3">
-        <v>0.0002721451649539629</v>
+        <v>0.0002547562202176961</v>
       </c>
       <c r="BC3">
-        <v>0.0001351329874253521</v>
+        <v>0.0001172704592415293</v>
       </c>
       <c r="BD3">
-        <v>0.0001937395706456947</v>
+        <v>0.000176079616482894</v>
       </c>
       <c r="BE3">
-        <v>0.0002902482359486991</v>
+        <v>0.0002729218645904173</v>
       </c>
       <c r="BF3">
-        <v>0.0001729159195014668</v>
+        <v>0.0001551839882583987</v>
       </c>
       <c r="BG3">
-        <v>6.196361040480615E-07</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>9.096340499830075E-05</v>
+        <v>7.294820437688714E-05</v>
       </c>
       <c r="BI3">
-        <v>0.0004262119734196997</v>
+        <v>0.0004093555615693651</v>
       </c>
       <c r="BJ3">
-        <v>0.0005736737315224991</v>
+        <v>0.0005573270221602548</v>
       </c>
       <c r="BK3">
-        <v>0.0004184460529929742</v>
+        <v>0.0004015627981901701</v>
       </c>
       <c r="BL3">
-        <v>0.0004643659555162029</v>
+        <v>0.0004476414231433365</v>
       </c>
       <c r="BM3">
-        <v>0.001178556864759907</v>
+        <v>0.001164300937726462</v>
       </c>
       <c r="BN3">
-        <v>0.0004837592965818375</v>
+        <v>0.0004671017974135166</v>
       </c>
       <c r="BO3">
-        <v>0.0005324200892556741</v>
+        <v>0.000515930786421219</v>
       </c>
       <c r="BP3">
-        <v>0.0008099283845043328</v>
+        <v>0.000794398290826026</v>
       </c>
       <c r="BQ3">
-        <v>0.0004837592965818375</v>
+        <v>0.0004671017974135166</v>
       </c>
       <c r="BR3">
-        <v>0.0004661125656121765</v>
+        <v>0.0004493940704080181</v>
       </c>
       <c r="BS3">
-        <v>0.000342212838804075</v>
+        <v>0.0003250660834201907</v>
       </c>
       <c r="BT3">
-        <v>6.011981730349252E-06</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>1.493295882054337E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>5.988838729077578E-06</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0001307757871859306</v>
+        <v>0.0001128981983122603</v>
       </c>
       <c r="BX3">
-        <v>0.000383668891082022</v>
+        <v>0.0003666654288018164</v>
       </c>
       <c r="BY3">
-        <v>0.0003852566811692687</v>
+        <v>0.0003682587070954187</v>
       </c>
       <c r="BZ3">
-        <v>0.000747903341096151</v>
+        <v>0.0007321588574678273</v>
       </c>
       <c r="CA3">
-        <v>0.0008548196469710394</v>
+        <v>0.0008394447202218889</v>
       </c>
       <c r="CB3">
-        <v>0.0007754656426106576</v>
+        <v>0.0007598164282497033</v>
       </c>
       <c r="CC3">
-        <v>0.0007672192721575321</v>
+        <v>0.0007515415541655906</v>
       </c>
       <c r="CD3">
-        <v>0.0009134010501899984</v>
+        <v>0.000898228610427038</v>
       </c>
       <c r="CE3">
-        <v>0.0006815318374491379</v>
+        <v>0.0006655579403038292</v>
       </c>
       <c r="CF3">
-        <v>0.000687180877759544</v>
+        <v>0.0006712265065573583</v>
       </c>
       <c r="CG3">
-        <v>0.0005548554804884647</v>
+        <v>0.0005384437257239618</v>
       </c>
       <c r="CH3">
-        <v>0.0002602551143006227</v>
+        <v>0.0002428250715299944</v>
       </c>
       <c r="CI3">
-        <v>7.84630543114255E-05</v>
+        <v>6.040464614977178E-05</v>
       </c>
       <c r="CJ3">
-        <v>0.0001155069163469294</v>
+        <v>9.757655052581798E-05</v>
       </c>
       <c r="CK3">
-        <v>2.151228818206752E-06</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0002803776454063251</v>
+        <v>0.000263017156290171</v>
       </c>
       <c r="CM3">
-        <v>0.000447650824597732</v>
+        <v>0.0004308685162704248</v>
       </c>
       <c r="CN3">
-        <v>0.0003143425772726465</v>
+        <v>0.0002970994881556706</v>
       </c>
       <c r="CO3">
-        <v>0.000653188035891689</v>
+        <v>0.0006371161682192304</v>
       </c>
       <c r="CP3">
-        <v>0.0007570478415986274</v>
+        <v>0.0007413349659934173</v>
       </c>
       <c r="CQ3">
-        <v>0.01580944186870479</v>
+        <v>0.01584575768708804</v>
       </c>
       <c r="CR3">
-        <v>0.06574426361254729</v>
+        <v>0.06595317945423583</v>
       </c>
       <c r="CS3">
-        <v>0.1301022071489184</v>
+        <v>0.1305335766244907</v>
       </c>
       <c r="CT3">
-        <v>0.04247045033368665</v>
+        <v>0.04259892009438303</v>
       </c>
       <c r="CU3">
-        <v>0.005350245893987874</v>
+        <v>0.005350409436144903</v>
       </c>
       <c r="CV3">
-        <v>0.01702085993527036</v>
+        <v>0.01706136302776855</v>
       </c>
       <c r="CW3">
-        <v>0.001603124488089252</v>
+        <v>0.00159033608169816</v>
       </c>
       <c r="CX3">
-        <v>0.0119046006541397</v>
+        <v>0.01192741936447088</v>
       </c>
       <c r="CY3">
-        <v>0.003052488367729593</v>
+        <v>0.003044709696642795</v>
       </c>
       <c r="CZ3">
-        <v>0.01482737381474164</v>
+        <v>0.01486029510876129</v>
       </c>
       <c r="DA3">
-        <v>0.01939679106582417</v>
+        <v>0.01944550657911778</v>
       </c>
       <c r="DB3">
-        <v>0.004010545820373393</v>
+        <v>0.004006078680856737</v>
       </c>
       <c r="DC3">
-        <v>0.05034629876645254</v>
+        <v>0.05050199144645796</v>
       </c>
       <c r="DD3">
-        <v>0.000190745570481179</v>
+        <v>0.0001730752675381058</v>
       </c>
       <c r="DE3">
-        <v>0.03298886181268778</v>
+        <v>0.03308455840342892</v>
       </c>
       <c r="DF3">
-        <v>7.031775386385362E-05</v>
+        <v>5.223119142031839E-05</v>
       </c>
       <c r="DG3">
-        <v>0.01273741769990173</v>
+        <v>0.01276311504755428</v>
       </c>
       <c r="DH3">
-        <v>0.0001169619714268824</v>
+        <v>9.903663501274477E-05</v>
       </c>
       <c r="DI3">
-        <v>4.219919231878143E-05</v>
+        <v>2.401543789160627E-05</v>
       </c>
       <c r="DJ3">
-        <v>3.335672083290107E-06</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.00143282237873141</v>
+        <v>0.001419445322035429</v>
       </c>
       <c r="DL3">
-        <v>0.0005063697778242491</v>
+        <v>0.0004897904319255924</v>
       </c>
       <c r="DM3">
-        <v>0.0007042678386984466</v>
+        <v>0.00068837252868349</v>
       </c>
       <c r="DN3">
-        <v>0.0005192056285295596</v>
+        <v>0.0005026706498290526</v>
       </c>
       <c r="DO3">
-        <v>0.001291068770942265</v>
+        <v>0.001277201742015412</v>
       </c>
       <c r="DP3">
-        <v>0.0009524368523349564</v>
+        <v>0.0009373993400659705</v>
       </c>
       <c r="DQ3">
-        <v>0.003863792612309527</v>
+        <v>0.003858818219412417</v>
       </c>
       <c r="DR3">
-        <v>0.004069478223611638</v>
+        <v>0.004065214784314932</v>
       </c>
       <c r="DS3">
-        <v>0.003697830503190162</v>
+        <v>0.003692282461226098</v>
       </c>
       <c r="DT3">
-        <v>0.001063809458454712</v>
+        <v>0.001049156906294534</v>
       </c>
       <c r="DU3">
-        <v>0.000461259155345489</v>
+        <v>0.000444523884298424</v>
       </c>
       <c r="DV3">
-        <v>0.001077942259231288</v>
+        <v>0.001063338557185283</v>
       </c>
       <c r="DW3">
-        <v>0.002698048648253669</v>
+        <v>0.002689044854062283</v>
       </c>
       <c r="DX3">
-        <v>0.0009235038807451336</v>
+        <v>0.0009083663614791004</v>
       </c>
       <c r="DY3">
-        <v>0.002031162511609291</v>
+        <v>0.002019853621320491</v>
       </c>
       <c r="DZ3">
-        <v>0.0002261783324281553</v>
+        <v>0.0002086305030481038</v>
       </c>
       <c r="EA3">
-        <v>2.457696935046709E-05</v>
+        <v>6.332303599514204E-06</v>
       </c>
       <c r="EB3">
-        <v>0.0007398053406511781</v>
+        <v>0.0007240328662337274</v>
       </c>
       <c r="EC3">
-        <v>0.003580028196717104</v>
+        <v>0.003574072970344794</v>
       </c>
       <c r="ED3">
-        <v>0.0001965109207979762</v>
+        <v>0.0001788605458242898</v>
       </c>
       <c r="EE3">
-        <v>0.008631136474267821</v>
+        <v>0.008642640435211629</v>
       </c>
       <c r="EF3">
-        <v>0.02640321645081659</v>
+        <v>0.02647614971722325</v>
       </c>
       <c r="EG3">
-        <v>0.01102994760607885</v>
+        <v>0.01104974307268537</v>
       </c>
       <c r="EH3">
-        <v>0.0004997103274583224</v>
+        <v>0.0004831079631278737</v>
       </c>
       <c r="EI3">
-        <v>0.02347453128988979</v>
+        <v>0.02353734153774193</v>
       </c>
       <c r="EJ3">
-        <v>0.0238190433088202</v>
+        <v>0.02388304436461797</v>
       </c>
       <c r="EK3">
-        <v>0.01398830776863624</v>
+        <v>0.0140183288256258</v>
       </c>
       <c r="EL3">
-        <v>0.002980808663790902</v>
+        <v>0.00297278223135965</v>
       </c>
       <c r="EM3">
-        <v>0.0005840645320934576</v>
+        <v>0.0005677537385982992</v>
       </c>
       <c r="EN3">
-        <v>0.0001217835766918223</v>
+        <v>0.000103874906186404</v>
       </c>
       <c r="EO3">
-        <v>0.0001926140905838513</v>
+        <v>0.0001749502461921859</v>
       </c>
       <c r="EP3">
-        <v>0.00133015547309002</v>
+        <v>0.001316423547593319</v>
       </c>
       <c r="EQ3">
-        <v>0.02451137134686257</v>
+        <v>0.02457776543884888</v>
       </c>
       <c r="ER3">
-        <v>0.04229069032380911</v>
+        <v>0.04241853874290837</v>
       </c>
       <c r="ES3">
-        <v>0.003854822211816617</v>
+        <v>0.003849816812674163</v>
       </c>
       <c r="ET3">
-        <v>0.0008189023849974404</v>
+        <v>0.0008034033100078996</v>
       </c>
       <c r="EU3">
-        <v>0.003203441376024231</v>
+        <v>0.003196184474953622</v>
       </c>
       <c r="EV3">
-        <v>0.05510741302806853</v>
+        <v>0.05527956252926237</v>
       </c>
       <c r="EW3">
-        <v>0.04848834766436096</v>
+        <v>0.0486376183247752</v>
       </c>
       <c r="EX3">
-        <v>0.01863507502396903</v>
+        <v>0.01868115766100546</v>
       </c>
       <c r="EY3">
-        <v>0.006411038652276822</v>
+        <v>0.006414868831229752</v>
       </c>
       <c r="EZ3">
-        <v>7.52332891339548E-05</v>
+        <v>5.716371726878851E-05</v>
       </c>
       <c r="FA3">
-        <v>0.002010534410475808</v>
+        <v>0.001999154219026574</v>
       </c>
       <c r="FB3">
-        <v>0.000225103882369116</v>
+        <v>0.0002075523391457232</v>
       </c>
       <c r="FC3">
-        <v>2.248254323538155E-05</v>
+        <v>4.230638087477795E-06</v>
       </c>
       <c r="FD3">
-        <v>6.770551772031522E-05</v>
+        <v>4.960992606623095E-05</v>
       </c>
       <c r="FE3">
-        <v>0.009251265508342968</v>
+        <v>0.009264912949167065</v>
       </c>
       <c r="FF3">
-        <v>0.001676352692113031</v>
+        <v>0.00166381739946661</v>
       </c>
       <c r="FG3">
-        <v>0.0005864479822244247</v>
+        <v>0.0005701454271395336</v>
       </c>
       <c r="FH3">
-        <v>0.0039917647193414</v>
+        <v>0.003987232662831699</v>
       </c>
       <c r="FI3">
-        <v>0.01393727276583194</v>
+        <v>0.01396711742001549</v>
       </c>
       <c r="FJ3">
-        <v>0.0190450240464951</v>
+        <v>0.01909252367488888</v>
       </c>
       <c r="FK3">
-        <v>2.286814325656969E-05</v>
+        <v>4.617570937548047E-06</v>
       </c>
       <c r="FL3">
-        <v>5.494167801896164E-06</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.00460244785289751</v>
+        <v>0.004600026626453943</v>
       </c>
       <c r="FN3">
-        <v>0.01126936061923423</v>
+        <v>0.01128998361841635</v>
       </c>
       <c r="FO3">
-        <v>0.005479350101081954</v>
+        <v>0.00547995989273733</v>
       </c>
       <c r="FP3">
-        <v>1.089098359844298E-06</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.001698139293310171</v>
+        <v>0.001685679306186892</v>
       </c>
       <c r="FR3">
-        <v>0.02437211333921056</v>
+        <v>0.02443802608502346</v>
       </c>
       <c r="FS3">
-        <v>0.01477483181185454</v>
+        <v>0.01480757149411297</v>
       </c>
       <c r="FT3">
-        <v>0.002619620543944164</v>
+        <v>0.002610345662520285</v>
       </c>
       <c r="FU3">
-        <v>0.004568907251054504</v>
+        <v>0.004566370091311135</v>
       </c>
       <c r="FV3">
-        <v>4.167479228996645E-05</v>
+        <v>2.348922527081571E-05</v>
       </c>
       <c r="FW3">
-        <v>9.251460508353684E-05</v>
+        <v>7.450476619490833E-05</v>
       </c>
       <c r="FX3">
-        <v>0.003450403889594446</v>
+        <v>0.003444000615994791</v>
       </c>
       <c r="FY3">
-        <v>0.0002017098010836468</v>
+        <v>0.0001840773960721457</v>
       </c>
       <c r="FZ3">
-        <v>2.982909063906316E-05</v>
+        <v>1.160257887815482E-05</v>
       </c>
       <c r="GA3">
-        <v>0.0001875345003047355</v>
+        <v>0.0001698530982775376</v>
       </c>
       <c r="GB3">
-        <v>1.857347402058415E-05</v>
+        <v>3.080571505191056E-07</v>
       </c>
       <c r="GC3">
-        <v>0.0007045186787122299</v>
+        <v>0.000688624235727348</v>
       </c>
       <c r="GD3">
-        <v>0.0002637504144926841</v>
+        <v>0.0002463324532490051</v>
       </c>
       <c r="GE3">
-        <v>0.000692391538045862</v>
+        <v>0.0006764551775235074</v>
       </c>
       <c r="GF3">
-        <v>0.009147707502652614</v>
+        <v>0.009160996994583103</v>
       </c>
       <c r="GG3">
-        <v>0.008746875480627503</v>
+        <v>0.008758779494169826</v>
       </c>
       <c r="GH3">
-        <v>0.01284227370566341</v>
+        <v>0.01286833348875492</v>
       </c>
       <c r="GI3">
-        <v>0.01401497477010155</v>
+        <v>0.01404508800174827</v>
       </c>
       <c r="GJ3">
-        <v>0.005031347276464881</v>
+        <v>0.005030408543558251</v>
       </c>
       <c r="GK3">
-        <v>0.007103084090303667</v>
+        <v>0.007109306328636412</v>
       </c>
       <c r="GL3">
-        <v>0.005539455804384671</v>
+        <v>0.005540273351778999</v>
       </c>
       <c r="GM3">
-        <v>4.296539236088296E-05</v>
+        <v>2.478428630893985E-05</v>
       </c>
       <c r="GN3">
-        <v>0.0004537536549330732</v>
+        <v>0.0004369924410769451</v>
       </c>
       <c r="GO3">
-        <v>0.0002990514164324205</v>
+        <v>0.000281755473322475</v>
       </c>
       <c r="GP3">
-        <v>0.001438601079048941</v>
+        <v>0.001425243996466707</v>
       </c>
       <c r="GQ3">
-        <v>0.001231636467676551</v>
+        <v>0.00121756401062218</v>
       </c>
       <c r="GR3">
-        <v>0.0004474509045867467</v>
+        <v>0.0004306679052346726</v>
       </c>
       <c r="GS3">
-        <v>0.003142093972653285</v>
+        <v>0.00313462502389968</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>6.534987938599184E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>7.426484671148653E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.056649675090411E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6.659698243152486E-08</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.000228411538339542</v>
+        <v>0.0001920335234776634</v>
       </c>
       <c r="G4">
-        <v>0.0005515252201367575</v>
+        <v>0.0005172436561415265</v>
       </c>
       <c r="H4">
-        <v>0.0005695424207945841</v>
+        <v>0.000535377757376647</v>
       </c>
       <c r="I4">
-        <v>0.0005515252201367575</v>
+        <v>0.0005172436561415265</v>
       </c>
       <c r="J4">
-        <v>0.0008691564317338022</v>
+        <v>0.0008369357468233662</v>
       </c>
       <c r="K4">
-        <v>0.000619256372609692</v>
+        <v>0.00058541426705061</v>
       </c>
       <c r="L4">
-        <v>0.0006545925238998515</v>
+        <v>0.0006209796890562162</v>
       </c>
       <c r="M4">
-        <v>0.001044096238121036</v>
+        <v>0.001013010611022673</v>
       </c>
       <c r="N4">
-        <v>0.0008477511909522747</v>
+        <v>0.0008153916229238673</v>
       </c>
       <c r="O4">
-        <v>0.0003951075344257856</v>
+        <v>0.0003598110892564</v>
       </c>
       <c r="P4">
-        <v>8.172708798394069E-05</v>
+        <v>4.439734386887389E-05</v>
       </c>
       <c r="Q4">
-        <v>3.76159493733973E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>2.168573079176851E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.435822052423351E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0002113034377149075</v>
+        <v>0.0001748144207679989</v>
       </c>
       <c r="U4">
-        <v>0.0004228619154391269</v>
+        <v>0.0003877455483642529</v>
       </c>
       <c r="V4">
-        <v>0.0007299240266502827</v>
+        <v>0.0006967999634159106</v>
       </c>
       <c r="W4">
-        <v>0.0007589928277116149</v>
+        <v>0.000726057370892293</v>
       </c>
       <c r="X4">
-        <v>0.0002284529283410532</v>
+        <v>0.0001920751820289434</v>
       </c>
       <c r="Y4">
-        <v>0.0001158118442284105</v>
+        <v>7.870325143188499E-05</v>
       </c>
       <c r="Z4">
-        <v>0.000307466511225921</v>
+        <v>0.0002716014268766057</v>
       </c>
       <c r="AA4">
-        <v>0.0005437533198529973</v>
+        <v>0.0005094213296208</v>
       </c>
       <c r="AB4">
-        <v>0.0003585346430904715</v>
+        <v>0.0003230009028944276</v>
       </c>
       <c r="AC4">
-        <v>0.0007014228256096744</v>
+        <v>0.0006681138387060546</v>
       </c>
       <c r="AD4">
-        <v>0.0007929093289499415</v>
+        <v>0.0007601939317641803</v>
       </c>
       <c r="AE4">
-        <v>0.0005652570606381212</v>
+        <v>0.0005310645926191411</v>
       </c>
       <c r="AF4">
-        <v>0.0004612545468408816</v>
+        <v>0.0004263872817691399</v>
       </c>
       <c r="AG4">
-        <v>0.0002064639775382138</v>
+        <v>0.0001699435608361939</v>
       </c>
       <c r="AH4">
-        <v>3.885731541872086E-07</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1.726000863018081E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>9.826606358779583E-06</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>3.085585712657932E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>9.726321355118073E-05</v>
+        <v>6.003427211252375E-05</v>
       </c>
       <c r="AM4">
-        <v>0.0002931764907041776</v>
+        <v>0.0002572186887523745</v>
       </c>
       <c r="AN4">
-        <v>0.0007522232774644516</v>
+        <v>0.0007192438979322209</v>
       </c>
       <c r="AO4">
-        <v>0.0007078143758430365</v>
+        <v>0.0006745468590837678</v>
       </c>
       <c r="AP4">
-        <v>0.0006694739844431891</v>
+        <v>0.0006359577046283583</v>
       </c>
       <c r="AQ4">
-        <v>0.001311086647869132</v>
+        <v>0.001281733328337536</v>
       </c>
       <c r="AR4">
-        <v>0.0005885874214899369</v>
+        <v>0.0005545463272999911</v>
       </c>
       <c r="AS4">
-        <v>0.0001599609258403392</v>
+        <v>0.0001231387844868235</v>
       </c>
       <c r="AT4">
-        <v>0.0003263829119165784</v>
+        <v>0.0002906405624028826</v>
       </c>
       <c r="AU4">
-        <v>4.095135549517643E-06</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>4.224895154255301E-06</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>1.571475357376194E-07</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>4.8180828759132E-05</v>
+        <v>1.063342724301223E-05</v>
       </c>
       <c r="AY4">
-        <v>1.810414166100098E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>8.104964295920646E-06</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>8.396857306577965E-05</v>
+        <v>4.665337232540457E-05</v>
       </c>
       <c r="BB4">
-        <v>0.0002974084108586893</v>
+        <v>0.0002614780667744274</v>
       </c>
       <c r="BC4">
-        <v>0.0002657506697028324</v>
+        <v>0.0002296149214446799</v>
       </c>
       <c r="BD4">
-        <v>7.085651258704471E-05</v>
+        <v>3.345623717449455E-05</v>
       </c>
       <c r="BE4">
-        <v>5.723350008965441E-05</v>
+        <v>1.974483480701999E-05</v>
       </c>
       <c r="BF4">
-        <v>0.0002916617806488739</v>
+        <v>0.0002556941508396106</v>
       </c>
       <c r="BG4">
-        <v>0.0003220473417582823</v>
+        <v>0.0002862768618671749</v>
       </c>
       <c r="BH4">
-        <v>0.0004770786174186349</v>
+        <v>0.0004423140232901107</v>
       </c>
       <c r="BI4">
-        <v>0.0003522222528599995</v>
+        <v>0.0003166475561315808</v>
       </c>
       <c r="BJ4">
-        <v>0.0001313713747965051</v>
+        <v>9.436373653450342E-05</v>
       </c>
       <c r="BK4">
-        <v>7.781095284095854E-07</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>5.107667886486249E-07</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>6.659698243152486E-08</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>7.240230764348331E-05</v>
+        <v>3.501206177647176E-05</v>
       </c>
       <c r="BO4">
-        <v>1.220713044569499E-07</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>1.878356768580752E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>3.952333744303802E-05</v>
+        <v>1.919763730582683E-06</v>
       </c>
       <c r="BR4">
-        <v>1.072633339162955E-06</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0001064781838876289</v>
+        <v>6.930903172326236E-05</v>
       </c>
       <c r="BT4">
-        <v>0.0001519779955488742</v>
+        <v>0.0001151040587373796</v>
       </c>
       <c r="BU4">
-        <v>0.0001673596461104742</v>
+        <v>0.0001305855096988605</v>
       </c>
       <c r="BV4">
-        <v>0.000284896240401857</v>
+        <v>0.0002488847138976741</v>
       </c>
       <c r="BW4">
-        <v>0.0002042436074571458</v>
+        <v>0.0001677087843803948</v>
       </c>
       <c r="BX4">
-        <v>7.658198879608778E-05</v>
+        <v>3.921886185553564E-05</v>
       </c>
       <c r="BY4">
-        <v>2.645919896605278E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>4.282574556361236E-05</v>
+        <v>5.243598787732081E-06</v>
       </c>
       <c r="CA4">
-        <v>6.905142252113901E-05</v>
+        <v>3.163943518536729E-05</v>
       </c>
       <c r="CB4">
-        <v>2.232760681520407E-07</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>2.318727284659137E-06</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>1.571475357376194E-07</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>1.529583155846667E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>4.608655868266803E-06</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>1.627414059418574E-05</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0001948229871131892</v>
+        <v>0.0001582270404480633</v>
       </c>
       <c r="CI4">
-        <v>0.0004147633351434393</v>
+        <v>0.0003795944222413968</v>
       </c>
       <c r="CJ4">
-        <v>0.0003837482540110465</v>
+        <v>0.0003483781066909581</v>
       </c>
       <c r="CK4">
-        <v>0.0001221197644587192</v>
+        <v>8.505209919197215E-05</v>
       </c>
       <c r="CL4">
-        <v>5.405477197359575E-05</v>
+        <v>1.654548222443709E-05</v>
       </c>
       <c r="CM4">
-        <v>6.151687824604498E-06</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.0001323886748336478</v>
+        <v>9.538763709543897E-05</v>
       </c>
       <c r="CO4">
-        <v>0.08316523903644908</v>
+        <v>0.08366697807970219</v>
       </c>
       <c r="CP4">
-        <v>0.0001352373849376571</v>
+        <v>9.825483041790309E-05</v>
       </c>
       <c r="CQ4">
-        <v>0.09990898864778074</v>
+        <v>0.1005193657659936</v>
       </c>
       <c r="CR4">
-        <v>0.002076583775818226</v>
+        <v>0.002052197213213724</v>
       </c>
       <c r="CS4">
-        <v>0.009084034331667509</v>
+        <v>0.009105114044923219</v>
       </c>
       <c r="CT4">
-        <v>0.0273674589992143</v>
+        <v>0.02750716662471553</v>
       </c>
       <c r="CU4">
-        <v>0.003149159114979063</v>
+        <v>0.003131731717603411</v>
       </c>
       <c r="CV4">
-        <v>0.001566103957180079</v>
+        <v>0.001538405260430599</v>
       </c>
       <c r="CW4">
-        <v>0.001228750544862956</v>
+        <v>0.001198863005939771</v>
       </c>
       <c r="CX4">
-        <v>0.01386426550619871</v>
+        <v>0.01391636068043051</v>
       </c>
       <c r="CY4">
-        <v>0.01778971464952092</v>
+        <v>0.01786727922267364</v>
       </c>
       <c r="CZ4">
-        <v>0.0108926323977013</v>
+        <v>0.01092544679505291</v>
       </c>
       <c r="DA4">
-        <v>0.03353247522430543</v>
+        <v>0.03371218317890477</v>
       </c>
       <c r="DB4">
-        <v>0.0007430674271301619</v>
+        <v>0.0007100286419105538</v>
       </c>
       <c r="DC4">
-        <v>0.07238921264300519</v>
+        <v>0.07282103384883991</v>
       </c>
       <c r="DD4">
-        <v>0.01322309148278878</v>
+        <v>0.01327102654275499</v>
       </c>
       <c r="DE4">
-        <v>0.03444159525749834</v>
+        <v>0.03462720183412715</v>
       </c>
       <c r="DF4">
-        <v>0.01075616439271871</v>
+        <v>0.01078809334793824</v>
       </c>
       <c r="DG4">
-        <v>0.004686936871124923</v>
+        <v>0.004679487000827826</v>
       </c>
       <c r="DH4">
-        <v>1.590781558081084E-05</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>9.726321355118073E-05</v>
+        <v>6.003427211252375E-05</v>
       </c>
       <c r="DJ4">
-        <v>0.005933887216652373</v>
+        <v>0.005934527904817571</v>
       </c>
       <c r="DK4">
-        <v>0.002174822079405008</v>
+        <v>0.002151072914064364</v>
       </c>
       <c r="DL4">
-        <v>0.0004592365167672013</v>
+        <v>0.0004243561581586171</v>
       </c>
       <c r="DM4">
-        <v>1.162865242457415E-05</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.001671419461025257</v>
+        <v>0.001644404080370841</v>
       </c>
       <c r="DO4">
-        <v>0.0002400579487647645</v>
+        <v>0.0002037554990324511</v>
       </c>
       <c r="DP4">
-        <v>0.005605374204658022</v>
+        <v>0.005603883409610036</v>
       </c>
       <c r="DQ4">
-        <v>0.004726617172573692</v>
+        <v>0.004719424759038866</v>
       </c>
       <c r="DR4">
-        <v>0.0001673596461104742</v>
+        <v>0.0001305855096988605</v>
       </c>
       <c r="DS4">
-        <v>0.0002448404689393793</v>
+        <v>0.0002085690495197071</v>
       </c>
       <c r="DT4">
-        <v>0.0001569300257296779</v>
+        <v>0.0001200882190585924</v>
       </c>
       <c r="DU4">
-        <v>0.005319666194226526</v>
+        <v>0.005316321646645545</v>
       </c>
       <c r="DV4">
-        <v>0.001243638545406532</v>
+        <v>0.001213847603945481</v>
       </c>
       <c r="DW4">
-        <v>0.0003101411713235757</v>
+        <v>0.0002742934409081715</v>
       </c>
       <c r="DX4">
-        <v>0.003377077123300586</v>
+        <v>0.003361128520952778</v>
       </c>
       <c r="DY4">
-        <v>0.000366067013365486</v>
+        <v>0.0003305821452695127</v>
       </c>
       <c r="DZ4">
-        <v>0.002255176782338842</v>
+        <v>0.002231948980518516</v>
       </c>
       <c r="EA4">
-        <v>0.003610963331840014</v>
+        <v>0.0035965322478525</v>
       </c>
       <c r="EB4">
-        <v>0.002243497081912404</v>
+        <v>0.002220193498967785</v>
       </c>
       <c r="EC4">
-        <v>0.009688545353738833</v>
+        <v>0.009713547301574863</v>
       </c>
       <c r="ED4">
-        <v>0.01453129553055266</v>
+        <v>0.01458771857993001</v>
       </c>
       <c r="EE4">
-        <v>0.00474966657341525</v>
+        <v>0.004742623710763263</v>
       </c>
       <c r="EF4">
-        <v>6.217185226995877E-05</v>
+        <v>2.47152283810859E-05</v>
       </c>
       <c r="EG4">
-        <v>0.007161689761480717</v>
+        <v>0.007170296771885382</v>
       </c>
       <c r="EH4">
-        <v>0.015626699570547</v>
+        <v>0.01569022990407339</v>
       </c>
       <c r="EI4">
-        <v>0.01614464358945767</v>
+        <v>0.01621153448692329</v>
       </c>
       <c r="EJ4">
-        <v>0.0003550845529645051</v>
+        <v>0.0003195284276302202</v>
       </c>
       <c r="EK4">
-        <v>0.0001247951645564008</v>
+        <v>8.774485802488967E-05</v>
       </c>
       <c r="EL4">
-        <v>0.0004469835663198333</v>
+        <v>0.0004120237071823905</v>
       </c>
       <c r="EM4">
-        <v>0.000517113968880367</v>
+        <v>0.0004826091351767238</v>
       </c>
       <c r="EN4">
-        <v>0.005433703198390136</v>
+        <v>0.005431098554408651</v>
       </c>
       <c r="EO4">
-        <v>0.01988629872606938</v>
+        <v>0.01997746651614511</v>
       </c>
       <c r="EP4">
-        <v>0.01728181063097682</v>
+        <v>0.01735607978248745</v>
       </c>
       <c r="EQ4">
-        <v>0.005030823583680584</v>
+        <v>0.005025604945414752</v>
       </c>
       <c r="ER4">
-        <v>0.0001880839868671413</v>
+        <v>0.000151444315705957</v>
       </c>
       <c r="ES4">
-        <v>0.009875208360554093</v>
+        <v>0.009901421429566524</v>
       </c>
       <c r="ET4">
-        <v>0.03523653528652243</v>
+        <v>0.03542729965375766</v>
       </c>
       <c r="EU4">
-        <v>0.05028502183595827</v>
+        <v>0.05057342494288668</v>
       </c>
       <c r="EV4">
-        <v>0.02576503394070809</v>
+        <v>0.02589434458956644</v>
       </c>
       <c r="EW4">
-        <v>0.004732898172803019</v>
+        <v>0.004725746512133565</v>
       </c>
       <c r="EX4">
-        <v>0.0005790257211408292</v>
+        <v>0.0005449225879964447</v>
       </c>
       <c r="EY4">
-        <v>1.011496536930787E-05</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>1.203807843952272E-05</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>9.688236353727552E-10</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>2.47648049041887E-05</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.006605932241189433</v>
+        <v>0.006610933343207366</v>
       </c>
       <c r="FD4">
-        <v>0.001358911249615258</v>
+        <v>0.001329868229317108</v>
       </c>
       <c r="FE4">
-        <v>0.002747872100327659</v>
+        <v>0.002727841041896983</v>
       </c>
       <c r="FF4">
-        <v>0.01313921297972629</v>
+        <v>0.01318660381278308</v>
       </c>
       <c r="FG4">
-        <v>0.01875664768482465</v>
+        <v>0.01884048598674236</v>
       </c>
       <c r="FH4">
-        <v>0.01005171436699851</v>
+        <v>0.01007907265576184</v>
       </c>
       <c r="FI4">
-        <v>0.001200108643817211</v>
+        <v>0.001170035268324259</v>
       </c>
       <c r="FJ4">
-        <v>2.477843690468642E-05</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.004448306862412294</v>
+        <v>0.004439308694668333</v>
       </c>
       <c r="FL4">
-        <v>0.009823849358678924</v>
+        <v>0.009849729196293065</v>
       </c>
       <c r="FM4">
-        <v>0.004377530559828179</v>
+        <v>0.004368073175872556</v>
       </c>
       <c r="FN4">
-        <v>7.543494275420794E-08</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.008856531323361139</v>
+        <v>0.008876134934223798</v>
       </c>
       <c r="FP4">
-        <v>0.02516313691873221</v>
+        <v>0.02528854229336528</v>
       </c>
       <c r="FQ4">
-        <v>0.01372839550123795</v>
+        <v>0.01377960911332708</v>
       </c>
       <c r="FR4">
-        <v>0.002197723180241151</v>
+        <v>0.002174122603571925</v>
       </c>
       <c r="FS4">
-        <v>0.001444480352739475</v>
+        <v>0.001415992528431186</v>
       </c>
       <c r="FT4">
-        <v>5.053314184501739E-05</v>
+        <v>1.300100278630921E-05</v>
       </c>
       <c r="FU4">
-        <v>0.0004297756956915561</v>
+        <v>0.0003947041871337261</v>
       </c>
       <c r="FV4">
-        <v>0.000445697316272871</v>
+        <v>0.0004107291115896416</v>
       </c>
       <c r="FW4">
-        <v>0.0001489906154398018</v>
+        <v>0.0001120972956805353</v>
       </c>
       <c r="FX4">
-        <v>0.0007102460659318201</v>
+        <v>0.0006769943266498953</v>
       </c>
       <c r="FY4">
-        <v>0.0002592944794671102</v>
+        <v>0.0002231168416624066</v>
       </c>
       <c r="FZ4">
-        <v>3.170711815765975E-05</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.001423627051978099</v>
+        <v>0.00139500392569123</v>
       </c>
       <c r="GB4">
-        <v>0.001047049138228849</v>
+        <v>0.001015982670362481</v>
       </c>
       <c r="GC4">
-        <v>0.002382564486989899</v>
+        <v>0.002360163211803576</v>
       </c>
       <c r="GD4">
-        <v>0.009963130363764217</v>
+        <v>0.009989913895032537</v>
       </c>
       <c r="GE4">
-        <v>0.01063966838846532</v>
+        <v>0.01067084148541318</v>
       </c>
       <c r="GF4">
-        <v>0.01675725761182485</v>
+        <v>0.01682812331837614</v>
       </c>
       <c r="GG4">
-        <v>0.01394290950907008</v>
+        <v>0.0139955149473274</v>
       </c>
       <c r="GH4">
-        <v>0.01163531792481752</v>
+        <v>0.01167295107112556</v>
       </c>
       <c r="GI4">
-        <v>0.006056236821119484</v>
+        <v>0.006057671347332308</v>
       </c>
       <c r="GJ4">
-        <v>0.002270976082915691</v>
+        <v>0.002247850791323971</v>
       </c>
       <c r="GK4">
-        <v>0.0005790257211408292</v>
+        <v>0.0005449225879964447</v>
       </c>
       <c r="GL4">
-        <v>0.0006253999528340005</v>
+        <v>0.0005915977085213192</v>
       </c>
       <c r="GM4">
-        <v>0.00136462874982401</v>
+        <v>0.001335622826247364</v>
       </c>
       <c r="GN4">
-        <v>0.003207662917115098</v>
+        <v>0.003190615108576439</v>
       </c>
       <c r="GO4">
-        <v>0.004275594556106389</v>
+        <v>0.004265475783186497</v>
       </c>
       <c r="GP4">
-        <v>0.003401888424206473</v>
+        <v>0.003386100804436058</v>
       </c>
       <c r="GQ4">
-        <v>0.007107693259509248</v>
+        <v>0.007115949925686074</v>
       </c>
       <c r="GR4">
-        <v>0.009605098350692096</v>
+        <v>0.009629558871310055</v>
       </c>
       <c r="GS4">
-        <v>0.02083312976063916</v>
+        <v>0.02093044085214351</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001846810922177881</v>
+        <v>0.0001341190805581669</v>
       </c>
       <c r="C5">
-        <v>5.187763381394655E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3.045254171677101E-06</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2.826793880882722E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001880459920759958</v>
+        <v>0.0001375173149157449</v>
       </c>
       <c r="G5">
-        <v>0.0001532294035431198</v>
+        <v>0.0001023558146180519</v>
       </c>
       <c r="H5">
-        <v>0.0003197342065268322</v>
+        <v>0.0002705101033172704</v>
       </c>
       <c r="I5">
-        <v>0.0001398030841088868</v>
+        <v>8.879648687581971E-05</v>
       </c>
       <c r="J5">
-        <v>0.0002986461874154529</v>
+        <v>0.0002492131749992542</v>
       </c>
       <c r="K5">
-        <v>0.0004789231798188238</v>
+        <v>0.000431276087799365</v>
       </c>
       <c r="L5">
-        <v>0.0006678366018582672</v>
+        <v>0.0006220609873309738</v>
       </c>
       <c r="M5">
-        <v>0.0008979420121619359</v>
+        <v>0.0008544459450143881</v>
       </c>
       <c r="N5">
-        <v>0.0008335446648755531</v>
+        <v>0.0007894106431311295</v>
       </c>
       <c r="O5">
-        <v>0.0005001528789242329</v>
+        <v>0.0004527160996692791</v>
       </c>
       <c r="P5">
-        <v>0.0004253856820748217</v>
+        <v>0.0003772082189417962</v>
       </c>
       <c r="Q5">
-        <v>0.000699986570503511</v>
+        <v>0.0006545294507768719</v>
       </c>
       <c r="R5">
-        <v>0.0003867244637039532</v>
+        <v>0.0003381640018447406</v>
       </c>
       <c r="S5">
-        <v>5.192515281194416E-05</v>
+        <v>4.798974663073363E-08</v>
       </c>
       <c r="T5">
-        <v>1.948221817904563E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0001664113629876498</v>
+        <v>0.0001156683616097066</v>
       </c>
       <c r="V5">
-        <v>8.904958624757065E-05</v>
+        <v>3.754019769416913E-05</v>
       </c>
       <c r="W5">
-        <v>0.0002712097885715857</v>
+        <v>0.0002215049765005608</v>
       </c>
       <c r="X5">
-        <v>0.00115060735151496</v>
+        <v>0.001109614322481616</v>
       </c>
       <c r="Y5">
-        <v>0.001142484451857248</v>
+        <v>0.001101410953031359</v>
       </c>
       <c r="Z5">
-        <v>0.0014979573368781</v>
+        <v>0.001460405342751082</v>
       </c>
       <c r="AA5">
-        <v>0.001204107449260538</v>
+        <v>0.001163644420836355</v>
       </c>
       <c r="AB5">
-        <v>0.000400874543107688</v>
+        <v>0.000352454259510192</v>
       </c>
       <c r="AC5">
-        <v>0.0002643402188610601</v>
+        <v>0.000214567353154908</v>
       </c>
       <c r="AD5">
-        <v>0.0002872425878959851</v>
+        <v>0.0002376966053181116</v>
       </c>
       <c r="AE5">
-        <v>0.0004421094813701033</v>
+        <v>0.0003940976931458627</v>
       </c>
       <c r="AF5">
-        <v>0.0003315191260302316</v>
+        <v>0.0002824117705422424</v>
       </c>
       <c r="AG5">
-        <v>0.0001664113629876498</v>
+        <v>0.0001156683616097066</v>
       </c>
       <c r="AH5">
-        <v>0.0001859056421661872</v>
+        <v>0.0001353557615539089</v>
       </c>
       <c r="AI5">
-        <v>3.083974570045475E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>8.812104628669809E-07</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>8.602527637501099E-05</v>
+        <v>3.448592738896934E-05</v>
       </c>
       <c r="AL5">
-        <v>0.0003510275452081732</v>
+        <v>0.0003021134505642526</v>
       </c>
       <c r="AM5">
-        <v>0.000466535900340807</v>
+        <v>0.000418766093299398</v>
       </c>
       <c r="AN5">
-        <v>0.0005116183784410922</v>
+        <v>0.0004642951825623252</v>
       </c>
       <c r="AO5">
-        <v>0.0002833022280620266</v>
+        <v>0.0002337172101701946</v>
       </c>
       <c r="AP5">
-        <v>0.000401006583102124</v>
+        <v>0.0003525876075634996</v>
       </c>
       <c r="AQ5">
-        <v>0.0005991796747513775</v>
+        <v>0.0005527239079491709</v>
       </c>
       <c r="AR5">
-        <v>0.0008979420121619359</v>
+        <v>0.0008544459450143881</v>
       </c>
       <c r="AS5">
-        <v>0.000947120330089628</v>
+        <v>0.000904111449686731</v>
       </c>
       <c r="AT5">
-        <v>0.001148797651591218</v>
+        <v>0.00110778669470162</v>
       </c>
       <c r="AU5">
-        <v>0.001132593452274041</v>
+        <v>0.001091421967911206</v>
       </c>
       <c r="AV5">
-        <v>0.0004088508827715758</v>
+        <v>0.0003605096170648664</v>
       </c>
       <c r="AW5">
-        <v>0.0004272431119965521</v>
+        <v>0.0003790840495586931</v>
       </c>
       <c r="AX5">
-        <v>0.0001951014517786882</v>
+        <v>0.0001446426697793419</v>
       </c>
       <c r="AY5">
-        <v>5.568605765346471E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.000121901199863248</v>
+        <v>7.071725698119862E-05</v>
       </c>
       <c r="BA5">
-        <v>0.0001904302719755254</v>
+        <v>0.0001399252147683664</v>
       </c>
       <c r="BB5">
-        <v>0.0002551581592479796</v>
+        <v>0.0002052943311437507</v>
       </c>
       <c r="BC5">
-        <v>0.000400874543107688</v>
+        <v>0.000352454259510192</v>
       </c>
       <c r="BD5">
-        <v>0.0004966583790714864</v>
+        <v>0.000449186981430236</v>
       </c>
       <c r="BE5">
-        <v>0.0006553264423854284</v>
+        <v>0.0006094268955211732</v>
       </c>
       <c r="BF5">
-        <v>0.00115671835125745</v>
+        <v>0.001115785861059036</v>
       </c>
       <c r="BG5">
-        <v>0.001000243857851074</v>
+        <v>0.0009577612475534807</v>
       </c>
       <c r="BH5">
-        <v>0.0006408224729966062</v>
+        <v>0.0005947792420469895</v>
       </c>
       <c r="BI5">
-        <v>0.0007449396386092494</v>
+        <v>0.0006999278480405677</v>
       </c>
       <c r="BJ5">
-        <v>0.000628734573505974</v>
+        <v>0.0005825715933528329</v>
       </c>
       <c r="BK5">
-        <v>0.0008905710624725377</v>
+        <v>0.0008470019747513818</v>
       </c>
       <c r="BL5">
-        <v>0.0009748017589231699</v>
+        <v>0.0009320671055733519</v>
       </c>
       <c r="BM5">
-        <v>0.0004389625815027094</v>
+        <v>0.0003909196184037121</v>
       </c>
       <c r="BN5">
-        <v>0.000199219291605168</v>
+        <v>0.0001488013031315988</v>
       </c>
       <c r="BO5">
-        <v>6.97125470624074E-08</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>4.748660799897845E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>5.257541978454279E-05</v>
+        <v>7.04698611975671E-07</v>
       </c>
       <c r="BR5">
-        <v>5.611182963552326E-05</v>
+        <v>4.276142032131545E-06</v>
       </c>
       <c r="BS5">
-        <v>0.0001839564322483243</v>
+        <v>0.000133387241719104</v>
       </c>
       <c r="BT5">
-        <v>0.0001466207938215977</v>
+        <v>9.568173647075665E-05</v>
       </c>
       <c r="BU5">
-        <v>0.000200584451547642</v>
+        <v>0.0001501799870792914</v>
       </c>
       <c r="BV5">
-        <v>0.0006678366018582672</v>
+        <v>0.0006220609873309738</v>
       </c>
       <c r="BW5">
-        <v>0.0009078535017442792</v>
+        <v>0.0008644556231185787</v>
       </c>
       <c r="BX5">
-        <v>0.001060122255327879</v>
+        <v>0.001018232832491161</v>
       </c>
       <c r="BY5">
-        <v>0.0009443537602062075</v>
+        <v>0.000901317472680982</v>
       </c>
       <c r="BZ5">
-        <v>0.001387741941522428</v>
+        <v>0.001349098094685997</v>
       </c>
       <c r="CA5">
-        <v>0.001049409555779298</v>
+        <v>0.001007414007205885</v>
       </c>
       <c r="CB5">
-        <v>0.0004645948404226007</v>
+        <v>0.0004168058042025095</v>
       </c>
       <c r="CC5">
-        <v>0.0003316392360251703</v>
+        <v>0.000282533070411091</v>
       </c>
       <c r="CD5">
-        <v>0.0002683629486915476</v>
+        <v>0.0002186299343006359</v>
       </c>
       <c r="CE5">
-        <v>6.35299473229338E-05</v>
+        <v>1.176774756458956E-05</v>
       </c>
       <c r="CF5">
-        <v>2.402975198741869E-06</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>8.596410637758861E-05</v>
+        <v>3.442415140880558E-05</v>
       </c>
       <c r="CH5">
-        <v>0.0001432921539618621</v>
+        <v>9.23201213226071E-05</v>
       </c>
       <c r="CI5">
-        <v>0.0002143082309693405</v>
+        <v>0.0001640397216068679</v>
       </c>
       <c r="CJ5">
-        <v>0.0004541703208618759</v>
+        <v>0.0004062780137703244</v>
       </c>
       <c r="CK5">
-        <v>0.0007473970685056967</v>
+        <v>0.0007024096225531366</v>
       </c>
       <c r="CL5">
-        <v>0.001429131639778322</v>
+        <v>0.001390897821450491</v>
       </c>
       <c r="CM5">
-        <v>0.001823858323145073</v>
+        <v>0.001789534878656765</v>
       </c>
       <c r="CN5">
-        <v>0.001635609631077618</v>
+        <v>0.001599421294268107</v>
       </c>
       <c r="CO5">
-        <v>0.02160893308942873</v>
+        <v>0.02177061118737279</v>
       </c>
       <c r="CP5">
-        <v>0.1371845942192264</v>
+        <v>0.1384912266889217</v>
       </c>
       <c r="CQ5">
-        <v>0.1049653255769029</v>
+        <v>0.1059527767230734</v>
       </c>
       <c r="CR5">
-        <v>0.02797556582114743</v>
+        <v>0.02820031519126296</v>
       </c>
       <c r="CS5">
-        <v>0.0006206552238464268</v>
+        <v>0.0005744122053303364</v>
       </c>
       <c r="CT5">
-        <v>0.02278931503968903</v>
+        <v>0.02296268663314136</v>
       </c>
       <c r="CU5">
-        <v>0.01056228055491976</v>
+        <v>0.01061452459911094</v>
       </c>
       <c r="CV5">
-        <v>0.0235275430085811</v>
+        <v>0.02370822788349831</v>
       </c>
       <c r="CW5">
-        <v>0.006796698713596293</v>
+        <v>0.006811638888190154</v>
       </c>
       <c r="CX5">
-        <v>0.01169690750710811</v>
+        <v>0.01176039177330205</v>
       </c>
       <c r="CY5">
-        <v>0.02214559406681457</v>
+        <v>0.02231258861569821</v>
       </c>
       <c r="CZ5">
-        <v>0.0002913227577240523</v>
+        <v>0.0002418171954927853</v>
       </c>
       <c r="DA5">
-        <v>0.03642565646507202</v>
+        <v>0.03673411695680156</v>
       </c>
       <c r="DB5">
-        <v>0.0005094367485330233</v>
+        <v>0.0004620919402604671</v>
       </c>
       <c r="DC5">
-        <v>0.05819467954775477</v>
+        <v>0.05871879563603141</v>
       </c>
       <c r="DD5">
-        <v>0.004653080203925482</v>
+        <v>0.004646784545991783</v>
       </c>
       <c r="DE5">
-        <v>0.006500328126084949</v>
+        <v>0.006512332294979059</v>
       </c>
       <c r="DF5">
-        <v>0.00369382384434725</v>
+        <v>0.003678025279384572</v>
       </c>
       <c r="DG5">
-        <v>0.002231421105970927</v>
+        <v>0.002201135196595099</v>
       </c>
       <c r="DH5">
-        <v>0.0003028062172401548</v>
+        <v>0.0002534144163064418</v>
       </c>
       <c r="DI5">
-        <v>0.006651624719709515</v>
+        <v>0.006665127713655614</v>
       </c>
       <c r="DJ5">
-        <v>0.001170240250687656</v>
+        <v>0.001129441715663849</v>
       </c>
       <c r="DK5">
-        <v>0.0001971086816941063</v>
+        <v>0.0001466697843888581</v>
       </c>
       <c r="DL5">
-        <v>8.375428647070745E-05</v>
+        <v>3.219243984291565E-05</v>
       </c>
       <c r="DM5">
-        <v>0.001734067126928752</v>
+        <v>0.001698854162781655</v>
       </c>
       <c r="DN5">
-        <v>1.210782048979279E-06</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.0006266460135939829</v>
+        <v>0.0005804623430482582</v>
       </c>
       <c r="DP5">
-        <v>0.001429381239767805</v>
+        <v>0.001391149894111091</v>
       </c>
       <c r="DQ5">
-        <v>6.650132719772385E-07</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.0003554121250234129</v>
+        <v>0.0003065414663743954</v>
       </c>
       <c r="DS5">
-        <v>0.006189833139168788</v>
+        <v>0.006198761378501247</v>
       </c>
       <c r="DT5">
-        <v>0.0003386549257295387</v>
+        <v>0.0002896182612934699</v>
       </c>
       <c r="DU5">
-        <v>3.056777471191525E-06</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>5.016417088614957E-05</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.008897857625056292</v>
+        <v>0.008933613004667397</v>
       </c>
       <c r="DX5">
-        <v>0.001779311725022206</v>
+        <v>0.001744546978085193</v>
       </c>
       <c r="DY5">
-        <v>0.0009645303593559929</v>
+        <v>0.0009216939520233424</v>
       </c>
       <c r="DZ5">
-        <v>0.002238196705685412</v>
+        <v>0.002207977919027625</v>
       </c>
       <c r="EA5">
-        <v>0.005783856756276085</v>
+        <v>0.005788763176223071</v>
       </c>
       <c r="EB5">
-        <v>0.0002052832813496397</v>
+        <v>0.0001549253660047925</v>
       </c>
       <c r="EC5">
-        <v>0.01367182842388761</v>
+        <v>0.01375487731394289</v>
       </c>
       <c r="ED5">
-        <v>0.02949530175710781</v>
+        <v>0.02973510644498467</v>
       </c>
       <c r="EE5">
-        <v>0.01308226744873091</v>
+        <v>0.01315947583214906</v>
       </c>
       <c r="EF5">
-        <v>0.0001090866554032356</v>
+        <v>5.777576478359107E-05</v>
       </c>
       <c r="EG5">
-        <v>0.007725767974446567</v>
+        <v>0.007749912006508962</v>
       </c>
       <c r="EH5">
-        <v>0.008586654638169967</v>
+        <v>0.008619327074392695</v>
       </c>
       <c r="EI5">
-        <v>0.003337937059343839</v>
+        <v>0.003318612889367485</v>
       </c>
       <c r="EJ5">
-        <v>8.076276659676604E-05</v>
+        <v>2.917128437161432E-05</v>
       </c>
       <c r="EK5">
-        <v>0.004386992515138058</v>
+        <v>0.0043780608501111</v>
       </c>
       <c r="EL5">
-        <v>0.002211634206804721</v>
+        <v>0.002181152277812977</v>
       </c>
       <c r="EM5">
-        <v>0.001765702825595667</v>
+        <v>0.001730803261615508</v>
       </c>
       <c r="EN5">
-        <v>6.234051137305501E-05</v>
+        <v>1.056652842543529E-05</v>
       </c>
       <c r="EO5">
-        <v>0.01416632140305034</v>
+        <v>0.01425426900528047</v>
       </c>
       <c r="EP5">
-        <v>0.03598062548382502</v>
+        <v>0.03628467726041019</v>
       </c>
       <c r="EQ5">
-        <v>0.004070717828465447</v>
+        <v>0.004058652977076929</v>
       </c>
       <c r="ER5">
-        <v>0.0003464245654021365</v>
+        <v>0.0002974648711760852</v>
       </c>
       <c r="ES5">
-        <v>0.0009722009590327641</v>
+        <v>0.0009294405407669122</v>
       </c>
       <c r="ET5">
-        <v>0.03383630857418364</v>
+        <v>0.03411911759951726</v>
       </c>
       <c r="EU5">
-        <v>0.03324321159917595</v>
+        <v>0.03352014508836494</v>
       </c>
       <c r="EV5">
-        <v>0.01110215953216999</v>
+        <v>0.01115975190653014</v>
       </c>
       <c r="EW5">
-        <v>0.003324472159911232</v>
+        <v>0.003305014599432761</v>
       </c>
       <c r="EX5">
-        <v>2.253416405044075E-05</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.006088802743426073</v>
+        <v>0.006096730121572409</v>
       </c>
       <c r="EZ5">
-        <v>0.001159779951128439</v>
+        <v>0.001118877790777352</v>
       </c>
       <c r="FA5">
-        <v>0.003172002566336094</v>
+        <v>0.003151034560440167</v>
       </c>
       <c r="FB5">
-        <v>0.003166938066549505</v>
+        <v>0.003145919889007449</v>
       </c>
       <c r="FC5">
-        <v>0.003897016835784972</v>
+        <v>0.003883231209373383</v>
       </c>
       <c r="FD5">
-        <v>0.0009872181583999598</v>
+        <v>0.000944606508550389</v>
       </c>
       <c r="FE5">
-        <v>0.001670968029587663</v>
+        <v>0.001635129972002657</v>
       </c>
       <c r="FF5">
-        <v>0.00689041820964708</v>
+        <v>0.006906286819740879</v>
       </c>
       <c r="FG5">
-        <v>0.0146703963818093</v>
+        <v>0.01476333762063193</v>
       </c>
       <c r="FH5">
-        <v>0.02484721595297187</v>
+        <v>0.02504097421455364</v>
       </c>
       <c r="FI5">
-        <v>6.419613729486145E-05</v>
+        <v>1.244053717101914E-05</v>
       </c>
       <c r="FJ5">
-        <v>0.0004988125789807114</v>
+        <v>0.0004513625219969972</v>
       </c>
       <c r="FK5">
-        <v>0.007292437092706546</v>
+        <v>0.007312288317073852</v>
       </c>
       <c r="FL5">
-        <v>0.02105370311282537</v>
+        <v>0.02120988080538282</v>
       </c>
       <c r="FM5">
-        <v>0.01407090240707117</v>
+        <v>0.01415790473764525</v>
       </c>
       <c r="FN5">
-        <v>0.001624979431525561</v>
+        <v>0.001588685786268485</v>
       </c>
       <c r="FO5">
-        <v>0.0002061434513133933</v>
+        <v>0.0001557940572726928</v>
       </c>
       <c r="FP5">
-        <v>0.01219174348625639</v>
+        <v>0.01226012986256666</v>
       </c>
       <c r="FQ5">
-        <v>0.01084702354292107</v>
+        <v>0.01090208840358651</v>
       </c>
       <c r="FR5">
-        <v>0.0001561308834208554</v>
+        <v>0.0001052860381087427</v>
       </c>
       <c r="FS5">
-        <v>0.0006370327031563019</v>
+        <v>0.0005909519287178211</v>
       </c>
       <c r="FT5">
-        <v>0.0001116065752970496</v>
+        <v>6.032064835289416E-05</v>
       </c>
       <c r="FU5">
-        <v>0.0006371991231492892</v>
+        <v>0.0005911199973563507</v>
       </c>
       <c r="FV5">
-        <v>0.00221837980652047</v>
+        <v>0.002187964703050719</v>
       </c>
       <c r="FW5">
-        <v>0.0004339508817138957</v>
+        <v>0.000385858270033813</v>
       </c>
       <c r="FX5">
-        <v>9.782783587766707E-06</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.000200584451547642</v>
+        <v>0.0001501799870792914</v>
       </c>
       <c r="FZ5">
-        <v>0.0005223774779877184</v>
+        <v>0.0004751608675088668</v>
       </c>
       <c r="GA5">
-        <v>0.0001584701333222825</v>
+        <v>0.000107648461871994</v>
       </c>
       <c r="GB5">
-        <v>0.000987010858408695</v>
+        <v>0.0009443971549344342</v>
       </c>
       <c r="GC5">
-        <v>0.000161420573197955</v>
+        <v>0.0001106281303845716</v>
       </c>
       <c r="GD5">
-        <v>0.003989281431897067</v>
+        <v>0.003976409827967754</v>
       </c>
       <c r="GE5">
-        <v>0.004013940830857952</v>
+        <v>0.004001313516135978</v>
       </c>
       <c r="GF5">
-        <v>0.005716141059129533</v>
+        <v>0.005720376651129473</v>
       </c>
       <c r="GG5">
-        <v>0.00811326465811798</v>
+        <v>0.008141247439772389</v>
       </c>
       <c r="GH5">
-        <v>0.003644780346413877</v>
+        <v>0.003628495930305587</v>
       </c>
       <c r="GI5">
-        <v>0.004050118829333461</v>
+        <v>0.004037849913232016</v>
       </c>
       <c r="GJ5">
-        <v>0.003172374466320423</v>
+        <v>0.003151410144664835</v>
       </c>
       <c r="GK5">
-        <v>6.497209726216353E-05</v>
+        <v>1.322418421316191E-05</v>
       </c>
       <c r="GL5">
-        <v>0.0009176195213327522</v>
+        <v>0.0008743183901252636</v>
       </c>
       <c r="GM5">
-        <v>0.0005445391770538542</v>
+        <v>0.0004975421122300583</v>
       </c>
       <c r="GN5">
-        <v>0.001529456835550754</v>
+        <v>0.001492216892320617</v>
       </c>
       <c r="GO5">
-        <v>0.001417817940255066</v>
+        <v>0.00137947204236305</v>
       </c>
       <c r="GP5">
-        <v>3.841600338120148E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.001731570627033952</v>
+        <v>0.001696332931222413</v>
       </c>
       <c r="GR5">
-        <v>0.004289780119234457</v>
+        <v>0.00427988541617172</v>
       </c>
       <c r="GS5">
-        <v>0.00818575965506314</v>
+        <v>0.008214460610966963</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001153634933973446</v>
+        <v>7.533885741862704E-05</v>
       </c>
       <c r="C6">
-        <v>0.0001344388739590963</v>
+        <v>9.454043796616985E-05</v>
       </c>
       <c r="D6">
-        <v>9.154721269597791E-05</v>
+        <v>5.136501161514461E-05</v>
       </c>
       <c r="E6">
-        <v>2.988493688008282E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>4.232453424641707E-05</v>
+        <v>1.816682974709501E-06</v>
       </c>
       <c r="G6">
-        <v>0.0001279452437678651</v>
+        <v>8.800384684762122E-05</v>
       </c>
       <c r="H6">
-        <v>0.0001938886457098353</v>
+        <v>0.0001543835208923236</v>
       </c>
       <c r="I6">
-        <v>4.692106938178064E-05</v>
+        <v>6.443628128205774E-06</v>
       </c>
       <c r="J6">
-        <v>4.051979119326911E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>3.923194615534331E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.156868234068664E-06</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>5.416619559514269E-05</v>
+        <v>1.373668705893726E-05</v>
       </c>
       <c r="N6">
-        <v>0.0001202778035420663</v>
+        <v>8.028567993543118E-05</v>
       </c>
       <c r="O6">
-        <v>2.636376077638755E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>6.809629200537071E-05</v>
+        <v>2.775894299192543E-05</v>
       </c>
       <c r="Q6">
-        <v>0.0001507995844409036</v>
+        <v>0.0001110093885653186</v>
       </c>
       <c r="R6">
-        <v>3.151084592796429E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>3.875436714127907E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1.151386333907227E-07</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1.628851747968127E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1.487990343819893E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>1.151386333907227E-07</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>5.62956576578533E-05</v>
+        <v>1.588023733766992E-05</v>
       </c>
       <c r="Y6">
-        <v>0.00013771007405543</v>
+        <v>9.783327985383459E-05</v>
       </c>
       <c r="Z6">
-        <v>0.000173590795112083</v>
+        <v>0.0001339513826221061</v>
       </c>
       <c r="AA6">
-        <v>0.0001072951031597382</v>
+        <v>6.721708786677597E-05</v>
       </c>
       <c r="AB6">
-        <v>0.0001107554932616434</v>
+        <v>7.070037141399296E-05</v>
       </c>
       <c r="AC6">
-        <v>2.673274778725387E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>5.841939672039539E-05</v>
+        <v>1.80180267536846E-05</v>
       </c>
       <c r="AE6">
-        <v>6.441127189685038E-05</v>
+        <v>2.40495433181414E-05</v>
       </c>
       <c r="AF6">
-        <v>0.0002397097770592238</v>
+        <v>0.0002005077982841464</v>
       </c>
       <c r="AG6">
-        <v>0.0001383090440730691</v>
+        <v>9.843621257132498E-05</v>
       </c>
       <c r="AH6">
-        <v>8.25127124299205E-05</v>
+        <v>4.227074038926205E-05</v>
       </c>
       <c r="AI6">
-        <v>1.637190548213697E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>6.013464577090783E-06</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>4.284202126165657E-06</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>2.463497572547648E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>9.388616276485775E-06</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>9.047225266432136E-07</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>2.443022871944688E-06</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.10911173266228E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1.234315936349425E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>2.024365659615634E-06</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>3.247737195642756E-06</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>5.523730762668591E-06</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>1.360635940069428E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>3.884509714395098E-06</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>5.523730762668591E-06</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>2.463497572547648E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>2.006129459078595E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>2.636376077638755E-06</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>1.07606923168921E-06</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>2.315623868192909E-06</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>9.07586126727544E-05</v>
+        <v>5.057119432711197E-05</v>
       </c>
       <c r="BD6">
-        <v>0.0003064688490252147</v>
+        <v>0.0002677085387089269</v>
       </c>
       <c r="BE6">
-        <v>0.0003245807395585925</v>
+        <v>0.0002859402549160607</v>
       </c>
       <c r="BF6">
-        <v>6.253461184158454E-05</v>
+        <v>2.216046754872807E-05</v>
       </c>
       <c r="BG6">
-        <v>9.388616276485775E-06</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>4.897837344236628E-06</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>1.76535475198801E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>4.4568747312507E-06</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>6.70985819759891E-05</v>
+        <v>2.675463225588301E-05</v>
       </c>
       <c r="BL6">
-        <v>0.0002385271170243956</v>
+        <v>0.0001993173139399102</v>
       </c>
       <c r="BM6">
-        <v>4.4568747312507E-06</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>4.286361126229238E-05</v>
+        <v>2.359326446914397E-06</v>
       </c>
       <c r="BO6">
-        <v>0.000135920914002741</v>
+        <v>9.603228297448322E-05</v>
       </c>
       <c r="BP6">
-        <v>7.817143230207395E-05</v>
+        <v>3.790073897385451E-05</v>
       </c>
       <c r="BQ6">
-        <v>0.0001312070138639212</v>
+        <v>9.1287196347477E-05</v>
       </c>
       <c r="BR6">
-        <v>0.0002088045061490931</v>
+        <v>0.000169398062527975</v>
       </c>
       <c r="BS6">
-        <v>5.27199895525533E-05</v>
+        <v>1.228091312429796E-05</v>
       </c>
       <c r="BT6">
-        <v>4.644032536762319E-05</v>
+        <v>5.95970358050356E-06</v>
       </c>
       <c r="BU6">
-        <v>0.0002166122663790242</v>
+        <v>0.0001772574777813478</v>
       </c>
       <c r="BV6">
-        <v>0.0001181179574784609</v>
+        <v>7.811154463960545E-05</v>
       </c>
       <c r="BW6">
-        <v>4.696298638301506E-05</v>
+        <v>6.485822446316938E-06</v>
       </c>
       <c r="BX6">
-        <v>5.998863876660806E-05</v>
+        <v>1.959765068052575E-05</v>
       </c>
       <c r="BY6">
-        <v>1.712203650422761E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>1.261332037145023E-05</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>2.998982088317156E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>3.34027379836787E-06</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>2.289534167424593E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>9.064936766953722E-08</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>1.068004631451716E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>3.266610396198553E-05</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>2.006129459078595E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>4.832849842322808E-05</v>
+        <v>7.860368518617268E-06</v>
       </c>
       <c r="CI6">
-        <v>0.0002556602075289487</v>
+        <v>0.0002165637545174138</v>
       </c>
       <c r="CJ6">
-        <v>8.315311244877968E-05</v>
+        <v>4.291537720292692E-05</v>
       </c>
       <c r="CK6">
-        <v>3.384216099661929E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>4.282356126111294E-05</v>
+        <v>2.319011480663178E-06</v>
       </c>
       <c r="CM6">
-        <v>0.0001882504955437971</v>
+        <v>0.0001487080695322915</v>
       </c>
       <c r="CN6">
-        <v>0.1733194751040929</v>
+        <v>0.1744253440639702</v>
       </c>
       <c r="CO6">
-        <v>0.02917794385926256</v>
+        <v>0.02933019309259676</v>
       </c>
       <c r="CP6">
-        <v>0.07744913228080291</v>
+        <v>0.07792073678325989</v>
       </c>
       <c r="CQ6">
-        <v>0.003585590105592201</v>
+        <v>0.003568523991868551</v>
       </c>
       <c r="CR6">
-        <v>0.01511698444518074</v>
+        <v>0.0151762083848637</v>
       </c>
       <c r="CS6">
-        <v>0.0175761325176003</v>
+        <v>0.01765162582872741</v>
       </c>
       <c r="CT6">
-        <v>0.00502358514793978</v>
+        <v>0.00501603260346443</v>
       </c>
       <c r="CU6">
-        <v>0.004096859120648584</v>
+        <v>0.00408317548950381</v>
       </c>
       <c r="CV6">
-        <v>0.0002448684272111411</v>
+        <v>0.000205700577326639</v>
       </c>
       <c r="CW6">
-        <v>0.03634610107035793</v>
+        <v>0.03654577380516621</v>
       </c>
       <c r="CX6">
-        <v>0.003866839113874716</v>
+        <v>0.003851633703308945</v>
       </c>
       <c r="CY6">
-        <v>0.01816144453483718</v>
+        <v>0.01824081018644103</v>
       </c>
       <c r="CZ6">
-        <v>0.01930935756864212</v>
+        <v>0.01939631764847175</v>
       </c>
       <c r="DA6">
-        <v>0.05679773667263906</v>
+        <v>0.05713271449947719</v>
       </c>
       <c r="DB6">
-        <v>0.02063956360781542</v>
+        <v>0.02073532414028606</v>
       </c>
       <c r="DC6">
-        <v>0.02082957161341097</v>
+        <v>0.02092658921163339</v>
       </c>
       <c r="DD6">
-        <v>0.0002838037083577479</v>
+        <v>0.0002448934487169407</v>
       </c>
       <c r="DE6">
-        <v>0.005300581156097049</v>
+        <v>0.005294861177539872</v>
       </c>
       <c r="DF6">
-        <v>0.0005309078156347277</v>
+        <v>0.0004936323613770331</v>
       </c>
       <c r="DG6">
-        <v>0.00294674588677885</v>
+        <v>0.002925453271199786</v>
       </c>
       <c r="DH6">
-        <v>4.182843123180732E-05</v>
+        <v>1.317297813607724E-06</v>
       </c>
       <c r="DI6">
-        <v>0.001690310949778042</v>
+        <v>0.001660705940604332</v>
       </c>
       <c r="DJ6">
-        <v>0.0032955534970509</v>
+        <v>0.003276568542664631</v>
       </c>
       <c r="DK6">
-        <v>0.0006704822197450604</v>
+        <v>0.0006341301697548981</v>
       </c>
       <c r="DL6">
-        <v>0.0004870681143436903</v>
+        <v>0.000449502622901044</v>
       </c>
       <c r="DM6">
-        <v>1.298032438225814E-06</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.001370829940369631</v>
+        <v>0.001339111290594239</v>
       </c>
       <c r="DO6">
-        <v>0.002071534561004713</v>
+        <v>0.002044451672643444</v>
       </c>
       <c r="DP6">
-        <v>0.001466844243197161</v>
+        <v>0.001435760810297959</v>
       </c>
       <c r="DQ6">
-        <v>0.001969281157993448</v>
+        <v>0.001941521775762747</v>
       </c>
       <c r="DR6">
-        <v>0.001924288056668444</v>
+        <v>0.001896231006523358</v>
       </c>
       <c r="DS6">
-        <v>5.583371664424958E-07</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.002519257174189716</v>
+        <v>0.002495136354513755</v>
       </c>
       <c r="DU6">
-        <v>0.001834770054032224</v>
+        <v>0.001806120765602605</v>
       </c>
       <c r="DV6">
-        <v>0.002162743463690728</v>
+        <v>0.00213626400036655</v>
       </c>
       <c r="DW6">
-        <v>0.00235907316947245</v>
+        <v>0.002333892595363081</v>
       </c>
       <c r="DX6">
-        <v>0.0002589316076252883</v>
+        <v>0.0002198567977282558</v>
       </c>
       <c r="DY6">
-        <v>0.001938853857097393</v>
+        <v>0.001910893172201809</v>
       </c>
       <c r="DZ6">
-        <v>0.001513847144581351</v>
+        <v>0.001483074676145879</v>
       </c>
       <c r="EA6">
-        <v>0.005324737756808437</v>
+        <v>0.005319177594861821</v>
       </c>
       <c r="EB6">
-        <v>0.01694315149895962</v>
+        <v>0.01701445709832392</v>
       </c>
       <c r="EC6">
-        <v>0.02529290974485201</v>
+        <v>0.02541945614890586</v>
       </c>
       <c r="ED6">
-        <v>0.003597813105952157</v>
+        <v>0.003580827857848291</v>
       </c>
       <c r="EE6">
-        <v>0.003849420313361749</v>
+        <v>0.003834099662506532</v>
       </c>
       <c r="EF6">
-        <v>0.01429702742103379</v>
+        <v>0.01435082664248051</v>
       </c>
       <c r="EG6">
-        <v>0.00883600426021188</v>
+        <v>0.00885367413456277</v>
       </c>
       <c r="EH6">
-        <v>0.002160372763620913</v>
+        <v>0.002133877616084609</v>
       </c>
       <c r="EI6">
-        <v>0.003033171989324016</v>
+        <v>0.003012451156461311</v>
       </c>
       <c r="EJ6">
-        <v>0.002623969577273396</v>
+        <v>0.002600541519859165</v>
       </c>
       <c r="EK6">
-        <v>0.0004400114829579176</v>
+        <v>0.0004021346715815464</v>
       </c>
       <c r="EL6">
-        <v>1.79763525293864E-05</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.005355961157727937</v>
+        <v>0.00535060756532994</v>
       </c>
       <c r="EN6">
-        <v>0.0348026950249061</v>
+        <v>0.03499215680636666</v>
       </c>
       <c r="EO6">
-        <v>0.01056164031103021</v>
+        <v>0.01059072674634506</v>
       </c>
       <c r="EP6">
-        <v>4.886164743892881E-05</v>
+        <v>8.397044771847446E-06</v>
       </c>
       <c r="EQ6">
-        <v>1.046617630821889E-07</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.02269543066835874</v>
+        <v>0.02280479252285748</v>
       </c>
       <c r="ES6">
-        <v>0.05114361150613047</v>
+        <v>0.05144118245065952</v>
       </c>
       <c r="ET6">
-        <v>0.0235404076932425</v>
+        <v>0.02365535979471896</v>
       </c>
       <c r="EU6">
-        <v>0.003382466399610402</v>
+        <v>0.003364056448539667</v>
       </c>
       <c r="EV6">
-        <v>0.0001440642442425543</v>
+        <v>0.0001042294883208628</v>
       </c>
       <c r="EW6">
-        <v>0.003986650117403035</v>
+        <v>0.003972237359277091</v>
       </c>
       <c r="EX6">
-        <v>0.002402610470754582</v>
+        <v>0.002377717933195016</v>
       </c>
       <c r="EY6">
-        <v>0.001305332038440781</v>
+        <v>0.001273180063926938</v>
       </c>
       <c r="EZ6">
-        <v>0.003631164106934312</v>
+        <v>0.003614399504276362</v>
       </c>
       <c r="FA6">
-        <v>0.001493325343977004</v>
+        <v>0.001462417106247897</v>
       </c>
       <c r="FB6">
-        <v>0.003832420112861109</v>
+        <v>0.003816986991114175</v>
       </c>
       <c r="FC6">
-        <v>0.0003575277305288499</v>
+        <v>0.0003191052184598584</v>
       </c>
       <c r="FD6">
-        <v>0.00675416119890359</v>
+        <v>0.006758057897725643</v>
       </c>
       <c r="FE6">
-        <v>0.01218086635871487</v>
+        <v>0.01222066536165314</v>
       </c>
       <c r="FF6">
-        <v>0.02135904162900336</v>
+        <v>0.02145956212501742</v>
       </c>
       <c r="FG6">
-        <v>0.001089422632082455</v>
+        <v>0.001055842231859024</v>
       </c>
       <c r="FH6">
-        <v>0.0006112772180015297</v>
+        <v>0.000574533476199264</v>
       </c>
       <c r="FI6">
-        <v>0.004071183119892451</v>
+        <v>0.004057329620004029</v>
       </c>
       <c r="FJ6">
-        <v>0.01910880656273609</v>
+        <v>0.01919443982583387</v>
       </c>
       <c r="FK6">
-        <v>0.0199567495877072</v>
+        <v>0.02004799272041448</v>
       </c>
       <c r="FL6">
-        <v>0.007712504227125877</v>
+        <v>0.00772274118616728</v>
       </c>
       <c r="FM6">
-        <v>0.0002569826075678922</v>
+        <v>0.0002178949033656187</v>
       </c>
       <c r="FN6">
-        <v>0.006595866494241963</v>
+        <v>0.006598715937969186</v>
       </c>
       <c r="FO6">
-        <v>0.0126466753724325</v>
+        <v>0.01268955610109164</v>
       </c>
       <c r="FP6">
-        <v>0.00131548343873973</v>
+        <v>0.001283398624436366</v>
       </c>
       <c r="FQ6">
-        <v>0.0001603377247217927</v>
+        <v>0.0001206106318162389</v>
       </c>
       <c r="FR6">
-        <v>0.0002471716772789696</v>
+        <v>0.0002080190653670413</v>
       </c>
       <c r="FS6">
-        <v>0.0002898482585357542</v>
+        <v>0.0002509779887732148</v>
       </c>
       <c r="FT6">
-        <v>0.0008382709546862783</v>
+        <v>0.0008030289709355253</v>
       </c>
       <c r="FU6">
-        <v>0.0007066026608087729</v>
+        <v>0.0006704895784834628</v>
       </c>
       <c r="FV6">
-        <v>6.613720894767758E-09</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0002472678672818023</v>
+        <v>0.0002081158917491562</v>
       </c>
       <c r="FX6">
-        <v>0.0005086828749802244</v>
+        <v>0.00047126038369825</v>
       </c>
       <c r="FY6">
-        <v>9.643412283989272E-06</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0005911250174080667</v>
+        <v>0.0005542479515329039</v>
       </c>
       <c r="GA6">
-        <v>0.0008763375258073025</v>
+        <v>0.0008413473850391332</v>
       </c>
       <c r="GB6">
-        <v>0.001609791047406807</v>
+        <v>0.001579653330091194</v>
       </c>
       <c r="GC6">
-        <v>0.00330287529726652</v>
+        <v>0.003283938782861838</v>
       </c>
       <c r="GD6">
-        <v>0.0056093467651899</v>
+        <v>0.005605669535680593</v>
       </c>
       <c r="GE6">
-        <v>0.008017714236114021</v>
+        <v>0.00802997042086224</v>
       </c>
       <c r="GF6">
-        <v>0.007652173525349196</v>
+        <v>0.0076620113451083</v>
       </c>
       <c r="GG6">
-        <v>0.004074437119988278</v>
+        <v>0.004060605148098448</v>
       </c>
       <c r="GH6">
-        <v>0.002909499085681967</v>
+        <v>0.00288796005060139</v>
       </c>
       <c r="GI6">
-        <v>0.0006354634187137903</v>
+        <v>0.0005988796893514519</v>
       </c>
       <c r="GJ6">
-        <v>0.0002945372386738401</v>
+        <v>0.0002556979905323313</v>
       </c>
       <c r="GK6">
-        <v>0.0006508246491661638</v>
+        <v>0.0006143425475044392</v>
       </c>
       <c r="GL6">
-        <v>0.0002427824871497122</v>
+        <v>0.0002036008369845152</v>
       </c>
       <c r="GM6">
-        <v>0.001788114352658258</v>
+        <v>0.00175915639679045</v>
       </c>
       <c r="GN6">
-        <v>0.0005467433561010691</v>
+        <v>0.0005095726675111093</v>
       </c>
       <c r="GO6">
-        <v>0.00064175121889896</v>
+        <v>0.0006052090887220982</v>
       </c>
       <c r="GP6">
-        <v>0.001796748852912536</v>
+        <v>0.001767848021661764</v>
       </c>
       <c r="GQ6">
-        <v>0.004378955428956052</v>
+        <v>0.004367138106584769</v>
       </c>
       <c r="GR6">
-        <v>0.01112706832768153</v>
+        <v>0.01115989555377306</v>
       </c>
       <c r="GS6">
-        <v>0.02755829081156532</v>
+        <v>0.02769982465230517</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0008076482766766606</v>
+        <v>0.0007783924887043356</v>
       </c>
       <c r="C2">
-        <v>0.001618046653273903</v>
+        <v>0.00155955231986666</v>
       </c>
       <c r="D2">
-        <v>0.002142824788119314</v>
+        <v>0.002053301131543774</v>
       </c>
       <c r="E2">
-        <v>0.002461955758903421</v>
+        <v>0.00234011341549238</v>
       </c>
       <c r="F2">
-        <v>0.002696108522141536</v>
+        <v>0.002541414696736772</v>
       </c>
       <c r="G2">
-        <v>0.002839302648006364</v>
+        <v>0.002651187049435697</v>
       </c>
       <c r="H2">
-        <v>0.002878111272885645</v>
+        <v>0.002655919426418204</v>
       </c>
       <c r="I2">
-        <v>0.002879262722752393</v>
+        <v>0.002655919426418204</v>
       </c>
       <c r="J2">
-        <v>0.002882203024867483</v>
+        <v>0.002655919426418204</v>
       </c>
       <c r="K2">
-        <v>0.002916308758882575</v>
+        <v>0.002655919426418204</v>
       </c>
       <c r="L2">
-        <v>0.003034766115461753</v>
+        <v>0.002740799915586897</v>
       </c>
       <c r="M2">
-        <v>0.003365410325913379</v>
+        <v>0.003039197624749499</v>
       </c>
       <c r="N2">
-        <v>0.003874667851206995</v>
+        <v>0.003517328515977582</v>
       </c>
       <c r="O2">
-        <v>0.004515070532713389</v>
+        <v>0.004127426815455433</v>
       </c>
       <c r="P2">
-        <v>0.005197743582999095</v>
+        <v>0.004780060509870153</v>
       </c>
       <c r="Q2">
-        <v>0.005826778964833754</v>
+        <v>0.005378720239142306</v>
       </c>
       <c r="R2">
-        <v>0.006411363047952082</v>
+        <v>0.005932649969577041</v>
       </c>
       <c r="S2">
-        <v>0.006735592278588961</v>
+        <v>0.006224592478375603</v>
       </c>
       <c r="T2">
-        <v>0.006990308791233235</v>
+        <v>0.006446586439329991</v>
       </c>
       <c r="U2">
-        <v>0.007204121835058723</v>
+        <v>0.006627420475477988</v>
       </c>
       <c r="V2">
-        <v>0.007313297661905934</v>
+        <v>0.00670296124171148</v>
       </c>
       <c r="W2">
-        <v>0.007378062836035639</v>
+        <v>0.006733812909948087</v>
       </c>
       <c r="X2">
-        <v>0.00737877610848504</v>
+        <v>0.006733812909948087</v>
       </c>
       <c r="Y2">
-        <v>0.0073843561280239</v>
+        <v>0.006733812909948087</v>
       </c>
       <c r="Z2">
-        <v>0.007440888586391351</v>
+        <v>0.00675638024505813</v>
       </c>
       <c r="AA2">
-        <v>0.007560816682928057</v>
+        <v>0.006842740695408838</v>
       </c>
       <c r="AB2">
-        <v>0.007911794902792476</v>
+        <v>0.007161599903867524</v>
       </c>
       <c r="AC2">
-        <v>0.008389680828992043</v>
+        <v>0.007608162502795316</v>
       </c>
       <c r="AD2">
-        <v>0.008975964712061284</v>
+        <v>0.008163802690562544</v>
       </c>
       <c r="AE2">
-        <v>0.009774479849001693</v>
+        <v>0.008933004776700882</v>
       </c>
       <c r="AF2">
-        <v>0.01064275966392743</v>
+        <v>0.0097724089504113</v>
       </c>
       <c r="AG2">
-        <v>0.01132306004428165</v>
+        <v>0.01042265509876231</v>
       </c>
       <c r="AH2">
-        <v>0.01203740027365287</v>
+        <v>0.01110715451869202</v>
       </c>
       <c r="AI2">
-        <v>0.01257182015821985</v>
+        <v>0.0116106055317961</v>
       </c>
       <c r="AJ2">
-        <v>0.0128578862699588</v>
+        <v>0.01186414564711613</v>
       </c>
       <c r="AK2">
-        <v>0.01315108253149186</v>
+        <v>0.01212486061674213</v>
       </c>
       <c r="AL2">
-        <v>0.01333022575631854</v>
+        <v>0.01227080746155278</v>
       </c>
       <c r="AM2">
-        <v>0.01338109206484962</v>
+        <v>0.01228767312128072</v>
       </c>
       <c r="AN2">
-        <v>0.01340010505830056</v>
+        <v>0.01228767312128072</v>
       </c>
       <c r="AO2">
-        <v>0.01340247780803204</v>
+        <v>0.01228767312128072</v>
       </c>
       <c r="AP2">
-        <v>0.01342513872237764</v>
+        <v>0.01228767312128072</v>
       </c>
       <c r="AQ2">
-        <v>0.01355693012857175</v>
+        <v>0.01238597126169916</v>
       </c>
       <c r="AR2">
-        <v>0.01374120839325015</v>
+        <v>0.01253708534196143</v>
       </c>
       <c r="AS2">
-        <v>0.01407773891353179</v>
+        <v>0.01284140626685578</v>
       </c>
       <c r="AT2">
-        <v>0.01464761129707496</v>
+        <v>0.0133805320585104</v>
       </c>
       <c r="AU2">
-        <v>0.01520676344092772</v>
+        <v>0.01390887039686812</v>
       </c>
       <c r="AV2">
-        <v>0.01579995047379761</v>
+        <v>0.01447145701570653</v>
       </c>
       <c r="AW2">
-        <v>0.01628407067981714</v>
+        <v>0.01492429298205332</v>
       </c>
       <c r="AX2">
-        <v>0.01669463470796084</v>
+        <v>0.01530311158904538</v>
       </c>
       <c r="AY2">
-        <v>0.0168959130221483</v>
+        <v>0.01547133230548558</v>
       </c>
       <c r="AZ2">
-        <v>0.01707325771702693</v>
+        <v>0.01561546934395066</v>
       </c>
       <c r="BA2">
-        <v>0.01724254148213833</v>
+        <v>0.01575149491234561</v>
       </c>
       <c r="BB2">
-        <v>0.01735340754893673</v>
+        <v>0.01582873651597272</v>
       </c>
       <c r="BC2">
-        <v>0.01738751328295183</v>
+        <v>0.01582873651597272</v>
       </c>
       <c r="BD2">
-        <v>0.01738949731789453</v>
+        <v>0.01582873651597272</v>
       </c>
       <c r="BE2">
-        <v>0.01740190491253622</v>
+        <v>0.01582873651597272</v>
       </c>
       <c r="BF2">
-        <v>0.01748380148017121</v>
+        <v>0.01587682698788219</v>
       </c>
       <c r="BG2">
-        <v>0.01764940697538884</v>
+        <v>0.01600915122441904</v>
       </c>
       <c r="BH2">
-        <v>0.01788752168851254</v>
+        <v>0.01621443929612612</v>
       </c>
       <c r="BI2">
-        <v>0.01828588760700849</v>
+        <v>0.01658098331393589</v>
       </c>
       <c r="BJ2">
-        <v>0.01884289265092325</v>
+        <v>0.01710716109049892</v>
       </c>
       <c r="BK2">
-        <v>0.01929096350798382</v>
+        <v>0.01752372168619087</v>
       </c>
       <c r="BL2">
-        <v>0.01968228499668321</v>
+        <v>0.01788317710713823</v>
       </c>
       <c r="BM2">
-        <v>0.01999227055773142</v>
+        <v>0.01816078664159092</v>
       </c>
       <c r="BN2">
-        <v>0.02037661046663241</v>
+        <v>0.01851321670973007</v>
       </c>
       <c r="BO2">
-        <v>0.0206894396775985</v>
+        <v>0.01879368772317649</v>
       </c>
       <c r="BP2">
-        <v>0.02087819859214751</v>
+        <v>0.01894931054602426</v>
       </c>
       <c r="BQ2">
-        <v>0.02102841876780943</v>
+        <v>0.01906615300034747</v>
       </c>
       <c r="BR2">
-        <v>0.02116740204379586</v>
+        <v>0.01917168810204127</v>
       </c>
       <c r="BS2">
-        <v>0.02124023141169269</v>
+        <v>0.01921065452481249</v>
       </c>
       <c r="BT2">
-        <v>0.0212623100500551</v>
+        <v>0.01921065452481249</v>
       </c>
       <c r="BU2">
-        <v>0.02126483406968221</v>
+        <v>0.01921065452481249</v>
       </c>
       <c r="BV2">
-        <v>0.02126872506616985</v>
+        <v>0.01921065452481249</v>
       </c>
       <c r="BW2">
-        <v>0.02128287211976131</v>
+        <v>0.01921065452481249</v>
       </c>
       <c r="BX2">
-        <v>0.02135212157776151</v>
+        <v>0.0192460185924189</v>
       </c>
       <c r="BY2">
-        <v>0.02142795730557152</v>
+        <v>0.01928801022433597</v>
       </c>
       <c r="BZ2">
-        <v>0.02154362511223126</v>
+        <v>0.01937008367370477</v>
       </c>
       <c r="CA2">
-        <v>0.02162960203974841</v>
+        <v>0.01942228008847881</v>
       </c>
       <c r="CB2">
-        <v>0.02170101367768618</v>
+        <v>0.01945981989242783</v>
       </c>
       <c r="CC2">
-        <v>0.02179183847506333</v>
+        <v>0.01951689457216744</v>
       </c>
       <c r="CD2">
-        <v>0.02187632770262345</v>
+        <v>0.0195675939594244</v>
       </c>
       <c r="CE2">
-        <v>0.02192310102727272</v>
+        <v>0.01958034097313835</v>
       </c>
       <c r="CF2">
-        <v>0.02198657585543969</v>
+        <v>0.01960989420521943</v>
       </c>
       <c r="CG2">
-        <v>0.02202124857443841</v>
+        <v>0.01961046474507745</v>
       </c>
       <c r="CH2">
-        <v>0.0220734614529306</v>
+        <v>0.01962868541747171</v>
       </c>
       <c r="CI2">
-        <v>0.022102154404102</v>
+        <v>0.01962868541747171</v>
       </c>
       <c r="CJ2">
-        <v>0.02210712904845834</v>
+        <v>0.01962868541747171</v>
       </c>
       <c r="CK2">
-        <v>0.02212151958204277</v>
+        <v>0.01962868541747171</v>
       </c>
       <c r="CL2">
-        <v>0.0221322637217325</v>
+        <v>0.01962868541747171</v>
       </c>
       <c r="CM2">
-        <v>0.02356193048044646</v>
+        <v>0.0210329963108538</v>
       </c>
       <c r="CN2">
-        <v>0.1790671659897523</v>
+        <v>0.177478896766531</v>
       </c>
       <c r="CO2">
-        <v>0.2551633737922392</v>
+        <v>0.2540178919217905</v>
       </c>
       <c r="CP2">
-        <v>0.314133209089303</v>
+        <v>0.3133231358846399</v>
       </c>
       <c r="CQ2">
-        <v>0.317903818180415</v>
+        <v>0.3170830663173934</v>
       </c>
       <c r="CR2">
-        <v>0.3326728787539127</v>
+        <v>0.3319104061673607</v>
       </c>
       <c r="CS2">
-        <v>0.339468332857673</v>
+        <v>0.338714146743043</v>
       </c>
       <c r="CT2">
-        <v>0.3407051335219565</v>
+        <v>0.3399243823128962</v>
       </c>
       <c r="CU2">
-        <v>0.340844877727921</v>
+        <v>0.340030683115436</v>
       </c>
       <c r="CV2">
-        <v>0.3535521813609583</v>
+        <v>0.3527833392505729</v>
       </c>
       <c r="CW2">
-        <v>0.369551484898929</v>
+        <v>0.3688486354248713</v>
       </c>
       <c r="CX2">
-        <v>0.3703820262349446</v>
+        <v>0.3696500645074927</v>
       </c>
       <c r="CY2">
-        <v>0.3936029595643684</v>
+        <v>0.3929822685450991</v>
       </c>
       <c r="CZ2">
-        <v>0.4049843902356944</v>
+        <v>0.4044007387790686</v>
       </c>
       <c r="DA2">
-        <v>0.4198279618070405</v>
+        <v>0.4193030567948798</v>
       </c>
       <c r="DB2">
-        <v>0.430977400485066</v>
+        <v>0.4304880804954456</v>
       </c>
       <c r="DC2">
-        <v>0.4314404808016931</v>
+        <v>0.4309197446568004</v>
       </c>
       <c r="DD2">
-        <v>0.4316269530563082</v>
+        <v>0.4310730664828462</v>
       </c>
       <c r="DE2">
-        <v>0.4317253564534664</v>
+        <v>0.4311377672785642</v>
       </c>
       <c r="DF2">
-        <v>0.4317483252468031</v>
+        <v>0.4311377672785642</v>
       </c>
       <c r="DG2">
-        <v>0.4352564994454938</v>
+        <v>0.4346336174083367</v>
       </c>
       <c r="DH2">
-        <v>0.4419381929525392</v>
+        <v>0.4413228841327313</v>
       </c>
       <c r="DI2">
-        <v>0.441945057544341</v>
+        <v>0.4413228841327313</v>
       </c>
       <c r="DJ2">
-        <v>0.4424235214305239</v>
+        <v>0.4417700283153277</v>
       </c>
       <c r="DK2">
-        <v>0.4504839341977546</v>
+        <v>0.4498466585743349</v>
       </c>
       <c r="DL2">
-        <v>0.4509471392843781</v>
+        <v>0.4502784482879673</v>
       </c>
       <c r="DM2">
-        <v>0.4567484066168486</v>
+        <v>0.4560817687542674</v>
       </c>
       <c r="DN2">
-        <v>0.4612326827873512</v>
+        <v>0.4605598408061256</v>
       </c>
       <c r="DO2">
-        <v>0.4613362679303599</v>
+        <v>0.4606297558361304</v>
       </c>
       <c r="DP2">
-        <v>0.4613461835680736</v>
+        <v>0.4606297558361304</v>
       </c>
       <c r="DQ2">
-        <v>0.4626449465305678</v>
+        <v>0.4619023421945312</v>
       </c>
       <c r="DR2">
-        <v>0.4628727320039898</v>
+        <v>0.4620972362644163</v>
       </c>
       <c r="DS2">
-        <v>0.4635124660855154</v>
+        <v>0.4627066617719348</v>
       </c>
       <c r="DT2">
-        <v>0.4635704618218406</v>
+        <v>0.462730701559442</v>
       </c>
       <c r="DU2">
-        <v>0.4705607586199742</v>
+        <v>0.4697305064514542</v>
       </c>
       <c r="DV2">
-        <v>0.471303649238521</v>
+        <v>0.4704437352653838</v>
       </c>
       <c r="DW2">
-        <v>0.4716107024996539</v>
+        <v>0.4707183941150288</v>
       </c>
       <c r="DX2">
-        <v>0.4718532238126503</v>
+        <v>0.4709281164150459</v>
       </c>
       <c r="DY2">
-        <v>0.478268443127391</v>
+        <v>0.4773492382110311</v>
       </c>
       <c r="DZ2">
-        <v>0.4817781826260364</v>
+        <v>0.4808466634548539</v>
       </c>
       <c r="EA2">
-        <v>0.492573162314298</v>
+        <v>0.4916750057837183</v>
       </c>
       <c r="EB2">
-        <v>0.5264957013346799</v>
+        <v>0.5257759122875855</v>
       </c>
       <c r="EC2">
-        <v>0.5505849346390289</v>
+        <v>0.5499818603549621</v>
       </c>
       <c r="ED2">
-        <v>0.5507551337441139</v>
+        <v>0.5501188070023162</v>
       </c>
       <c r="EE2">
-        <v>0.5655156573178581</v>
+        <v>0.5649375563273702</v>
       </c>
       <c r="EF2">
-        <v>0.5841202617805927</v>
+        <v>0.583624488105152</v>
       </c>
       <c r="EG2">
-        <v>0.5896758182201589</v>
+        <v>0.5891805571238828</v>
       </c>
       <c r="EH2">
-        <v>0.591990199653324</v>
+        <v>0.591475129663211</v>
       </c>
       <c r="EI2">
-        <v>0.5932113861180585</v>
+        <v>0.5926696531358288</v>
       </c>
       <c r="EJ2">
-        <v>0.5951917522608693</v>
+        <v>0.5946281161804813</v>
       </c>
       <c r="EK2">
-        <v>0.59603458023653</v>
+        <v>0.5954419089373465</v>
       </c>
       <c r="EL2">
-        <v>0.5971137427053659</v>
+        <v>0.596493517954034</v>
       </c>
       <c r="EM2">
-        <v>0.6024882319501609</v>
+        <v>0.6018673845254687</v>
       </c>
       <c r="EN2">
-        <v>0.6470467256633967</v>
+        <v>0.6466709308797975</v>
       </c>
       <c r="EO2">
-        <v>0.6552787584256713</v>
+        <v>0.6549202571544551</v>
       </c>
       <c r="EP2">
-        <v>0.6552789260883864</v>
+        <v>0.6549202571544551</v>
       </c>
       <c r="EQ2">
-        <v>0.6563213508582832</v>
+        <v>0.6559348981347009</v>
       </c>
       <c r="ER2">
-        <v>0.7011126795647953</v>
+        <v>0.7009727393078384</v>
       </c>
       <c r="ES2">
-        <v>0.7462388522616377</v>
+        <v>0.7463475238713991</v>
       </c>
       <c r="ET2">
-        <v>0.7622796817984091</v>
+        <v>0.7624546064036156</v>
       </c>
       <c r="EU2">
-        <v>0.7712686905388237</v>
+        <v>0.771465654733645</v>
       </c>
       <c r="EV2">
-        <v>0.7724507763046874</v>
+        <v>0.7726208323543857</v>
       </c>
       <c r="EW2">
-        <v>0.7767404279808104</v>
+        <v>0.7769030596579748</v>
       </c>
       <c r="EX2">
-        <v>0.7789687981164594</v>
+        <v>0.7791110816273759</v>
       </c>
       <c r="EY2">
-        <v>0.7806209820687474</v>
+        <v>0.7807393048494706</v>
       </c>
       <c r="EZ2">
-        <v>0.7822653152212622</v>
+        <v>0.7823596280489592</v>
       </c>
       <c r="FA2">
-        <v>0.7855407782266731</v>
+        <v>0.785621307936119</v>
       </c>
       <c r="FB2">
-        <v>0.7865863269964797</v>
+        <v>0.7866390925030847</v>
       </c>
       <c r="FC2">
-        <v>0.7877770936620926</v>
+        <v>0.7878030054509566</v>
       </c>
       <c r="FD2">
-        <v>0.794403106470746</v>
+        <v>0.7944362423709075</v>
       </c>
       <c r="FE2">
-        <v>0.810195182014701</v>
+        <v>0.8102930112760579</v>
       </c>
       <c r="FF2">
-        <v>0.8367758432471023</v>
+        <v>0.8370060079909097</v>
       </c>
       <c r="FG2">
-        <v>0.8377505413889549</v>
+        <v>0.837952497711661</v>
       </c>
       <c r="FH2">
-        <v>0.8377856290479416</v>
+        <v>0.8379534857930919</v>
       </c>
       <c r="FI2">
-        <v>0.8410758649529259</v>
+        <v>0.8412300312027409</v>
       </c>
       <c r="FJ2">
-        <v>0.8570433044918166</v>
+        <v>0.8572632635975108</v>
       </c>
       <c r="FK2">
-        <v>0.8706231430996568</v>
+        <v>0.8708939253148379</v>
       </c>
       <c r="FL2">
-        <v>0.8737906845081843</v>
+        <v>0.8740470069598195</v>
       </c>
       <c r="FM2">
-        <v>0.8737997252439232</v>
+        <v>0.8740470069598195</v>
       </c>
       <c r="FN2">
-        <v>0.8835810429614575</v>
+        <v>0.8838553318745355</v>
       </c>
       <c r="FO2">
-        <v>0.8967798365803015</v>
+        <v>0.8971025595324086</v>
       </c>
       <c r="FP2">
-        <v>0.8976356448555873</v>
+        <v>0.8979294139725972</v>
       </c>
       <c r="FQ2">
-        <v>0.8980338950240866</v>
+        <v>0.8982958415146826</v>
       </c>
       <c r="FR2">
-        <v>0.8980737140109367</v>
+        <v>0.898301590588389</v>
       </c>
       <c r="FS2">
-        <v>0.9000497797538717</v>
+        <v>0.9002557262705796</v>
       </c>
       <c r="FT2">
-        <v>0.9005038879107579</v>
+        <v>0.9006783620186739</v>
       </c>
       <c r="FU2">
-        <v>0.9008047604220693</v>
+        <v>0.9009468013665201</v>
       </c>
       <c r="FV2">
-        <v>0.9012239764699631</v>
+        <v>0.9013343262395728</v>
       </c>
       <c r="FW2">
-        <v>0.9021898201720714</v>
+        <v>0.9022719060051393</v>
       </c>
       <c r="FX2">
-        <v>0.902191151030033</v>
+        <v>0.9022719060051393</v>
       </c>
       <c r="FY2">
-        <v>0.9027603926635944</v>
+        <v>0.9028103970921448</v>
       </c>
       <c r="FZ2">
-        <v>0.9031185439532518</v>
+        <v>0.9031364743440075</v>
       </c>
       <c r="GA2">
-        <v>0.9032342117599115</v>
+        <v>0.9032185477933763</v>
       </c>
       <c r="GB2">
-        <v>0.9072972376425791</v>
+        <v>0.9072727284083302</v>
       </c>
       <c r="GC2">
-        <v>0.9124755074930405</v>
+        <v>0.9124491453318607</v>
       </c>
       <c r="GD2">
-        <v>0.9175729240458369</v>
+        <v>0.9175442020248693</v>
       </c>
       <c r="GE2">
-        <v>0.9281149147414044</v>
+        <v>0.9281179691742478</v>
       </c>
       <c r="GF2">
-        <v>0.9317482650364802</v>
+        <v>0.9317397802277161</v>
       </c>
       <c r="GG2">
-        <v>0.9339921499716811</v>
+        <v>0.9339634142711388</v>
       </c>
       <c r="GH2">
-        <v>0.9366124401960122</v>
+        <v>0.9365658135842252</v>
       </c>
       <c r="GI2">
-        <v>0.936619996930294</v>
+        <v>0.9365658135842252</v>
       </c>
       <c r="GJ2">
-        <v>0.9383759408795856</v>
+        <v>0.9382984473562784</v>
       </c>
       <c r="GK2">
-        <v>0.9391161985582084</v>
+        <v>0.9390090267223148</v>
       </c>
       <c r="GL2">
-        <v>0.940596264415467</v>
+        <v>0.9404640527057934</v>
       </c>
       <c r="GM2">
-        <v>0.9431425486419351</v>
+        <v>0.942991982019263</v>
       </c>
       <c r="GN2">
-        <v>0.9437960672230628</v>
+        <v>0.9436152784522432</v>
       </c>
       <c r="GO2">
-        <v>0.9457690106660879</v>
+        <v>0.9455662722583724</v>
       </c>
       <c r="GP2">
-        <v>0.949668990153464</v>
+        <v>0.9494563842120622</v>
       </c>
       <c r="GQ2">
-        <v>0.9555116202847399</v>
+        <v>0.9553013268130561</v>
       </c>
       <c r="GR2">
-        <v>0.9708373798421612</v>
+        <v>0.9706888560303263</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0002349283729089567</v>
+        <v>0.0002174107880984895</v>
       </c>
       <c r="C3">
-        <v>0.0005290292290693515</v>
+        <v>0.0004941985895064318</v>
       </c>
       <c r="D3">
-        <v>0.00096872035322971</v>
+        <v>0.0009170798925851964</v>
       </c>
       <c r="E3">
-        <v>0.001439506649098701</v>
+        <v>0.001371163848027859</v>
       </c>
       <c r="F3">
-        <v>0.001622997109181223</v>
+        <v>0.001536958927832891</v>
       </c>
       <c r="G3">
-        <v>0.001690702626901538</v>
+        <v>0.001586568853899122</v>
       </c>
       <c r="H3">
-        <v>0.001708969104905253</v>
+        <v>0.001586568853899122</v>
       </c>
       <c r="I3">
-        <v>0.001709684615394569</v>
+        <v>0.001586568853899122</v>
       </c>
       <c r="J3">
-        <v>0.001709795517990663</v>
+        <v>0.001586568853899122</v>
       </c>
       <c r="K3">
-        <v>0.001741366805725458</v>
+        <v>0.001599919651788153</v>
       </c>
       <c r="L3">
-        <v>0.001879021703289385</v>
+        <v>0.001719720738166406</v>
       </c>
       <c r="M3">
-        <v>0.001931220726157642</v>
+        <v>0.001753770571084252</v>
       </c>
       <c r="N3">
-        <v>0.002138333267538161</v>
+        <v>0.001943269382058857</v>
       </c>
       <c r="O3">
-        <v>0.002776875652625094</v>
+        <v>0.002565689276689832</v>
       </c>
       <c r="P3">
-        <v>0.003107037640766992</v>
+        <v>0.002878662855607251</v>
       </c>
       <c r="Q3">
-        <v>0.003533054524175972</v>
+        <v>0.003287822652836055</v>
       </c>
       <c r="R3">
-        <v>0.004250998363625894</v>
+        <v>0.003989918453453053</v>
       </c>
       <c r="S3">
-        <v>0.004687666527620146</v>
+        <v>0.004409766347485012</v>
       </c>
       <c r="T3">
-        <v>0.005198907255712046</v>
+        <v>0.004904444566148285</v>
       </c>
       <c r="U3">
-        <v>0.005534486374151608</v>
+        <v>0.005222853999708081</v>
       </c>
       <c r="V3">
-        <v>0.005639232513907249</v>
+        <v>0.0053096325789511</v>
       </c>
       <c r="W3">
-        <v>0.005705315413538404</v>
+        <v>0.005357614278338608</v>
       </c>
       <c r="X3">
-        <v>0.005744586365696283</v>
+        <v>0.005378691354588903</v>
       </c>
       <c r="Y3">
-        <v>0.005745387641040311</v>
+        <v>0.005378691354588903</v>
       </c>
       <c r="Z3">
-        <v>0.005875346698181363</v>
+        <v>0.005490769999823783</v>
       </c>
       <c r="AA3">
-        <v>0.006225595547427005</v>
+        <v>0.005823899870205833</v>
       </c>
       <c r="AB3">
-        <v>0.006423243258287446</v>
+        <v>0.006003901135414541</v>
       </c>
       <c r="AC3">
-        <v>0.006667361721701385</v>
+        <v>0.006230533779623253</v>
       </c>
       <c r="AD3">
-        <v>0.006761965000899691</v>
+        <v>0.006307134439448057</v>
       </c>
       <c r="AE3">
-        <v>0.006882263733509923</v>
+        <v>0.006409519369180027</v>
       </c>
       <c r="AF3">
-        <v>0.007063930563492239</v>
+        <v>0.006573484515496019</v>
       </c>
       <c r="AG3">
-        <v>0.007508161327902044</v>
+        <v>0.007000921150119112</v>
       </c>
       <c r="AH3">
-        <v>0.008071537558858711</v>
+        <v>0.007547915078338499</v>
       </c>
       <c r="AI3">
-        <v>0.008614598388699077</v>
+        <v>0.008074523385130716</v>
       </c>
       <c r="AJ3">
-        <v>0.008839702271068194</v>
+        <v>0.008282075724276439</v>
       </c>
       <c r="AK3">
-        <v>0.008921389745556795</v>
+        <v>0.008345715935831874</v>
       </c>
       <c r="AL3">
-        <v>0.009002346966005272</v>
+        <v>0.00840862336921953</v>
       </c>
       <c r="AM3">
-        <v>0.009002457868601366</v>
+        <v>0.00840862336921953</v>
       </c>
       <c r="AN3">
-        <v>0.009030066946118444</v>
+        <v>0.008417998261486474</v>
       </c>
       <c r="AO3">
-        <v>0.009030076719439981</v>
+        <v>0.008417998261486474</v>
       </c>
       <c r="AP3">
-        <v>0.009035739829751161</v>
+        <v>0.008417998261486474</v>
       </c>
       <c r="AQ3">
-        <v>0.009107193873677453</v>
+        <v>0.008471369670562929</v>
       </c>
       <c r="AR3">
-        <v>0.009274477302869424</v>
+        <v>0.00862090169977389</v>
       </c>
       <c r="AS3">
-        <v>0.009560145148566438</v>
+        <v>0.008889227341965103</v>
       </c>
       <c r="AT3">
-        <v>0.009980608941670284</v>
+        <v>0.009292814854597443</v>
       </c>
       <c r="AU3">
-        <v>0.0103759977633963</v>
+        <v>0.009671240724056739</v>
       </c>
       <c r="AV3">
-        <v>0.01078165020568628</v>
+        <v>0.0100599656903486</v>
       </c>
       <c r="AW3">
-        <v>0.01117972722756001</v>
+        <v>0.01044108905173621</v>
       </c>
       <c r="AX3">
-        <v>0.01172256788738828</v>
+        <v>0.01096747642749731</v>
       </c>
       <c r="AY3">
-        <v>0.01228956967854416</v>
+        <v>0.01151810844768739</v>
       </c>
       <c r="AZ3">
-        <v>0.0128106220471752</v>
+        <v>0.01202263222088662</v>
       </c>
       <c r="BA3">
-        <v>0.01315415934605205</v>
+        <v>0.0123490273423841</v>
       </c>
       <c r="BB3">
-        <v>0.01342630451100601</v>
+        <v>0.0126037835626018</v>
       </c>
       <c r="BC3">
-        <v>0.01356143749843137</v>
+        <v>0.01272105402184333</v>
       </c>
       <c r="BD3">
-        <v>0.01375517706907706</v>
+        <v>0.01289713363832622</v>
       </c>
       <c r="BE3">
-        <v>0.01404542530502576</v>
+        <v>0.01317005550291664</v>
       </c>
       <c r="BF3">
-        <v>0.01421834122452723</v>
+        <v>0.01332523949117504</v>
       </c>
       <c r="BG3">
-        <v>0.01421896086063128</v>
+        <v>0.01332523949117504</v>
       </c>
       <c r="BH3">
-        <v>0.01430992426562958</v>
+        <v>0.01339818769555193</v>
       </c>
       <c r="BI3">
-        <v>0.01473613623904928</v>
+        <v>0.01380754325712129</v>
       </c>
       <c r="BJ3">
-        <v>0.01530980997057177</v>
+        <v>0.01436487027928155</v>
       </c>
       <c r="BK3">
-        <v>0.01572825602356475</v>
+        <v>0.01476643307747172</v>
       </c>
       <c r="BL3">
-        <v>0.01619262197908095</v>
+        <v>0.01521407450061505</v>
       </c>
       <c r="BM3">
-        <v>0.01737117884384086</v>
+        <v>0.01637837543834151</v>
       </c>
       <c r="BN3">
-        <v>0.0178549381404227</v>
+        <v>0.01684547723575503</v>
       </c>
       <c r="BO3">
-        <v>0.01838735822967837</v>
+        <v>0.01736140802217625</v>
       </c>
       <c r="BP3">
-        <v>0.01919728661418271</v>
+        <v>0.01815580631300227</v>
       </c>
       <c r="BQ3">
-        <v>0.01968104591076454</v>
+        <v>0.01862290811041579</v>
       </c>
       <c r="BR3">
-        <v>0.02014715847637672</v>
+        <v>0.01907230218082381</v>
       </c>
       <c r="BS3">
-        <v>0.0204893713151808</v>
+        <v>0.019397368264244</v>
       </c>
       <c r="BT3">
-        <v>0.02049538329691115</v>
+        <v>0.019397368264244</v>
       </c>
       <c r="BU3">
-        <v>0.02051031625573169</v>
+        <v>0.019397368264244</v>
       </c>
       <c r="BV3">
-        <v>0.02051630509446077</v>
+        <v>0.019397368264244</v>
       </c>
       <c r="BW3">
-        <v>0.0206470808816467</v>
+        <v>0.01951026646255626</v>
       </c>
       <c r="BX3">
-        <v>0.02103074977272872</v>
+        <v>0.01987693189135807</v>
       </c>
       <c r="BY3">
-        <v>0.02141600645389799</v>
+        <v>0.02024519059845349</v>
       </c>
       <c r="BZ3">
-        <v>0.02216390979499414</v>
+        <v>0.02097734945592132</v>
       </c>
       <c r="CA3">
-        <v>0.02301872944196518</v>
+        <v>0.02181679417614321</v>
       </c>
       <c r="CB3">
-        <v>0.02379419508457584</v>
+        <v>0.02257661060439291</v>
       </c>
       <c r="CC3">
-        <v>0.02456141435673337</v>
+        <v>0.0233281521585585</v>
       </c>
       <c r="CD3">
-        <v>0.02547481540692337</v>
+        <v>0.02422638076898554</v>
       </c>
       <c r="CE3">
-        <v>0.0261563472443725</v>
+        <v>0.02489193870928937</v>
       </c>
       <c r="CF3">
-        <v>0.02684352812213205</v>
+        <v>0.02556316521584673</v>
       </c>
       <c r="CG3">
-        <v>0.02739838360262051</v>
+        <v>0.02610160894157069</v>
       </c>
       <c r="CH3">
-        <v>0.02765863871692114</v>
+        <v>0.02634443401310069</v>
       </c>
       <c r="CI3">
-        <v>0.02773710177123256</v>
+        <v>0.02640483865925046</v>
       </c>
       <c r="CJ3">
-        <v>0.02785260868757949</v>
+        <v>0.02650241520977628</v>
       </c>
       <c r="CK3">
-        <v>0.0278547599163977</v>
+        <v>0.02650241520977628</v>
       </c>
       <c r="CL3">
-        <v>0.02813513756180402</v>
+        <v>0.02676543236606645</v>
       </c>
       <c r="CM3">
-        <v>0.02858278838640175</v>
+        <v>0.02719630088233687</v>
       </c>
       <c r="CN3">
-        <v>0.0288971309636744</v>
+        <v>0.02749340037049254</v>
       </c>
       <c r="CO3">
-        <v>0.02955031899956609</v>
+        <v>0.02813051653871177</v>
       </c>
       <c r="CP3">
-        <v>0.03030736684116471</v>
+        <v>0.02887185150470519</v>
       </c>
       <c r="CQ3">
-        <v>0.0461168087098695</v>
+        <v>0.04471760919179323</v>
       </c>
       <c r="CR3">
-        <v>0.1118610723224168</v>
+        <v>0.1106707886460291</v>
       </c>
       <c r="CS3">
-        <v>0.2419632794713352</v>
+        <v>0.2412043652705198</v>
       </c>
       <c r="CT3">
-        <v>0.2844337298050219</v>
+        <v>0.2838032853649028</v>
       </c>
       <c r="CU3">
-        <v>0.2897839756990097</v>
+        <v>0.2891536948010477</v>
       </c>
       <c r="CV3">
-        <v>0.3068048356342801</v>
+        <v>0.3062150578288163</v>
       </c>
       <c r="CW3">
-        <v>0.3084079601223693</v>
+        <v>0.3078053939105145</v>
       </c>
       <c r="CX3">
-        <v>0.320312560776509</v>
+        <v>0.3197328132749854</v>
       </c>
       <c r="CY3">
-        <v>0.3233650491442386</v>
+        <v>0.3227775229716282</v>
       </c>
       <c r="CZ3">
-        <v>0.3381924229589802</v>
+        <v>0.3376378180803895</v>
       </c>
       <c r="DA3">
-        <v>0.3575892140248044</v>
+        <v>0.3570833246595072</v>
       </c>
       <c r="DB3">
-        <v>0.3615997598451778</v>
+        <v>0.3610894033403639</v>
       </c>
       <c r="DC3">
-        <v>0.4119460586116303</v>
+        <v>0.4115913947868219</v>
       </c>
       <c r="DD3">
-        <v>0.4121368041821115</v>
+        <v>0.41176447005436</v>
       </c>
       <c r="DE3">
-        <v>0.4451256659947992</v>
+        <v>0.444849028457789</v>
       </c>
       <c r="DF3">
-        <v>0.4451959837486631</v>
+        <v>0.4449012596492093</v>
       </c>
       <c r="DG3">
-        <v>0.4579334014485648</v>
+        <v>0.4576643746967636</v>
       </c>
       <c r="DH3">
-        <v>0.4580503634199917</v>
+        <v>0.4577634113317763</v>
       </c>
       <c r="DI3">
-        <v>0.4580925626123105</v>
+        <v>0.4577874267696679</v>
       </c>
       <c r="DJ3">
-        <v>0.4580958982843938</v>
+        <v>0.4577874267696679</v>
       </c>
       <c r="DK3">
-        <v>0.4595287206631252</v>
+        <v>0.4592068720917034</v>
       </c>
       <c r="DL3">
-        <v>0.4600350904409495</v>
+        <v>0.459696662523629</v>
       </c>
       <c r="DM3">
-        <v>0.4607393582796479</v>
+        <v>0.4603850350523124</v>
       </c>
       <c r="DN3">
-        <v>0.4612585639081775</v>
+        <v>0.4608877057021415</v>
       </c>
       <c r="DO3">
-        <v>0.4625496326791197</v>
+        <v>0.4621649074441569</v>
       </c>
       <c r="DP3">
-        <v>0.4635020695314547</v>
+        <v>0.4631023067842229</v>
       </c>
       <c r="DQ3">
-        <v>0.4673658621437642</v>
+        <v>0.4669611250036353</v>
       </c>
       <c r="DR3">
-        <v>0.4714353403673759</v>
+        <v>0.4710263397879502</v>
       </c>
       <c r="DS3">
-        <v>0.4751331708705661</v>
+        <v>0.4747186222491763</v>
       </c>
       <c r="DT3">
-        <v>0.4761969803290207</v>
+        <v>0.4757677791554709</v>
       </c>
       <c r="DU3">
-        <v>0.4766582394843663</v>
+        <v>0.4762123030397693</v>
       </c>
       <c r="DV3">
-        <v>0.4777361817435976</v>
+        <v>0.4772756415969546</v>
       </c>
       <c r="DW3">
-        <v>0.4804342303918512</v>
+        <v>0.4799646864510169</v>
       </c>
       <c r="DX3">
-        <v>0.4813577342725964</v>
+        <v>0.480873052812496</v>
       </c>
       <c r="DY3">
-        <v>0.4833888967842057</v>
+        <v>0.4828929064338165</v>
       </c>
       <c r="DZ3">
-        <v>0.4836150751166338</v>
+        <v>0.4831015369368646</v>
       </c>
       <c r="EA3">
-        <v>0.4836396520859843</v>
+        <v>0.4831078692404641</v>
       </c>
       <c r="EB3">
-        <v>0.4843794574266355</v>
+        <v>0.4838319021066979</v>
       </c>
       <c r="EC3">
-        <v>0.4879594856233526</v>
+        <v>0.4874059750770426</v>
       </c>
       <c r="ED3">
-        <v>0.4881559965441505</v>
+        <v>0.4875848356228669</v>
       </c>
       <c r="EE3">
-        <v>0.4967871330184184</v>
+        <v>0.4962274760580785</v>
       </c>
       <c r="EF3">
-        <v>0.5231903494692349</v>
+        <v>0.5227036257753018</v>
       </c>
       <c r="EG3">
-        <v>0.5342202970753138</v>
+        <v>0.5337533688479872</v>
       </c>
       <c r="EH3">
-        <v>0.5347200074027721</v>
+        <v>0.5342364768111151</v>
       </c>
       <c r="EI3">
-        <v>0.5581945386926619</v>
+        <v>0.557773818348857</v>
       </c>
       <c r="EJ3">
-        <v>0.5820135820014821</v>
+        <v>0.5816568627134749</v>
       </c>
       <c r="EK3">
-        <v>0.5960018897701184</v>
+        <v>0.5956751915391008</v>
       </c>
       <c r="EL3">
-        <v>0.5989826984339093</v>
+        <v>0.5986479737704604</v>
       </c>
       <c r="EM3">
-        <v>0.5995667629660028</v>
+        <v>0.5992157275090587</v>
       </c>
       <c r="EN3">
-        <v>0.5996885465426945</v>
+        <v>0.5993196024152451</v>
       </c>
       <c r="EO3">
-        <v>0.5998811606332783</v>
+        <v>0.5994945526614373</v>
       </c>
       <c r="EP3">
-        <v>0.6012113161063684</v>
+        <v>0.6008109762090306</v>
       </c>
       <c r="EQ3">
-        <v>0.6257226874532309</v>
+        <v>0.6253887416478795</v>
       </c>
       <c r="ER3">
-        <v>0.6680133777770401</v>
+        <v>0.6678072803907878</v>
       </c>
       <c r="ES3">
-        <v>0.6718681999888567</v>
+        <v>0.671657097203462</v>
       </c>
       <c r="ET3">
-        <v>0.6726871023738542</v>
+        <v>0.6724605005134699</v>
       </c>
       <c r="EU3">
-        <v>0.6758905437498784</v>
+        <v>0.6756566849884236</v>
       </c>
       <c r="EV3">
-        <v>0.730997956777947</v>
+        <v>0.7309362475176859</v>
       </c>
       <c r="EW3">
-        <v>0.7794863044423079</v>
+        <v>0.7795738658424611</v>
       </c>
       <c r="EX3">
-        <v>0.7981213794662769</v>
+        <v>0.7982550235034666</v>
       </c>
       <c r="EY3">
-        <v>0.8045324181185537</v>
+        <v>0.8046698923346963</v>
       </c>
       <c r="EZ3">
-        <v>0.8046076514076876</v>
+        <v>0.8047270560519652</v>
       </c>
       <c r="FA3">
-        <v>0.8066181858181635</v>
+        <v>0.8067262102709917</v>
       </c>
       <c r="FB3">
-        <v>0.8068432897005325</v>
+        <v>0.8069337626101374</v>
       </c>
       <c r="FC3">
-        <v>0.8068657722437679</v>
+        <v>0.8069379932482249</v>
       </c>
       <c r="FD3">
-        <v>0.8069334777614882</v>
+        <v>0.8069876031742912</v>
       </c>
       <c r="FE3">
-        <v>0.8161847432698311</v>
+        <v>0.8162525161234583</v>
       </c>
       <c r="FF3">
-        <v>0.8178610959619442</v>
+        <v>0.8179163335229249</v>
       </c>
       <c r="FG3">
-        <v>0.8184475439441686</v>
+        <v>0.8184864789500644</v>
       </c>
       <c r="FH3">
-        <v>0.82243930866351</v>
+        <v>0.8224737116128962</v>
       </c>
       <c r="FI3">
-        <v>0.8363765814293419</v>
+        <v>0.8364408290329116</v>
       </c>
       <c r="FJ3">
-        <v>0.855421605475837</v>
+        <v>0.8555333527078005</v>
       </c>
       <c r="FK3">
-        <v>0.8554444736190936</v>
+        <v>0.855537970278738</v>
       </c>
       <c r="FL3">
-        <v>0.8554499677868955</v>
+        <v>0.855537970278738</v>
       </c>
       <c r="FM3">
-        <v>0.8600524156397931</v>
+        <v>0.860137996905192</v>
       </c>
       <c r="FN3">
-        <v>0.8713217762590273</v>
+        <v>0.8714279805236084</v>
       </c>
       <c r="FO3">
-        <v>0.8768011263601092</v>
+        <v>0.8769079404163457</v>
       </c>
       <c r="FP3">
-        <v>0.876802215458469</v>
+        <v>0.8769079404163457</v>
       </c>
       <c r="FQ3">
-        <v>0.8785003547517792</v>
+        <v>0.8785936197225326</v>
       </c>
       <c r="FR3">
-        <v>0.9028724680909898</v>
+        <v>0.903031645807556</v>
       </c>
       <c r="FS3">
-        <v>0.9176472999028443</v>
+        <v>0.917839217301669</v>
       </c>
       <c r="FT3">
-        <v>0.9202669204467885</v>
+        <v>0.9204495629641892</v>
       </c>
       <c r="FU3">
-        <v>0.924835827697843</v>
+        <v>0.9250159330555003</v>
       </c>
       <c r="FV3">
-        <v>0.924877502490133</v>
+        <v>0.9250394222807712</v>
       </c>
       <c r="FW3">
-        <v>0.9249700170952165</v>
+        <v>0.925113927046966</v>
       </c>
       <c r="FX3">
-        <v>0.928420420984811</v>
+        <v>0.9285579276629609</v>
       </c>
       <c r="FY3">
-        <v>0.9286221307858947</v>
+        <v>0.928742005059033</v>
       </c>
       <c r="FZ3">
-        <v>0.9286519598765338</v>
+        <v>0.9287536076379111</v>
       </c>
       <c r="GA3">
-        <v>0.9288394943768385</v>
+        <v>0.9289234607361887</v>
       </c>
       <c r="GB3">
-        <v>0.9288580678508591</v>
+        <v>0.9289237687933393</v>
       </c>
       <c r="GC3">
-        <v>0.9295625865295714</v>
+        <v>0.9296123930290666</v>
       </c>
       <c r="GD3">
-        <v>0.929826336944064</v>
+        <v>0.9298587254823156</v>
       </c>
       <c r="GE3">
-        <v>0.9305187284821099</v>
+        <v>0.9305351806598391</v>
       </c>
       <c r="GF3">
-        <v>0.9396664359847625</v>
+        <v>0.9396961776544221</v>
       </c>
       <c r="GG3">
-        <v>0.94841331146539</v>
+        <v>0.948454957148592</v>
       </c>
       <c r="GH3">
-        <v>0.9612555851710534</v>
+        <v>0.9613232906373469</v>
       </c>
       <c r="GI3">
-        <v>0.9752705599411549</v>
+        <v>0.9753683786390952</v>
       </c>
       <c r="GJ3">
-        <v>0.9803019072176198</v>
+        <v>0.9803987871826535</v>
       </c>
       <c r="GK3">
-        <v>0.9874049913079235</v>
+        <v>0.9875080935112899</v>
       </c>
       <c r="GL3">
-        <v>0.9929444471123081</v>
+        <v>0.9930483668630689</v>
       </c>
       <c r="GM3">
-        <v>0.992987412504669</v>
+        <v>0.9930731511493778</v>
       </c>
       <c r="GN3">
-        <v>0.9934411661596021</v>
+        <v>0.9935101435904548</v>
       </c>
       <c r="GO3">
-        <v>0.9937402175760345</v>
+        <v>0.9937918990637772</v>
       </c>
       <c r="GP3">
-        <v>0.9951788186550834</v>
+        <v>0.9952171430602439</v>
       </c>
       <c r="GQ3">
-        <v>0.9964104551227599</v>
+        <v>0.9964347070708661</v>
       </c>
       <c r="GR3">
-        <v>0.9968579060273467</v>
+        <v>0.9968653749761008</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>6.534987938599184E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.396147260974784E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.452796936065195E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3.459456634308347E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002630061046826255</v>
+        <v>0.0001920335234776634</v>
       </c>
       <c r="G4">
-        <v>0.000814531324819383</v>
+        <v>0.00070927717961919</v>
       </c>
       <c r="H4">
-        <v>0.001384073745613967</v>
+        <v>0.001244654936995837</v>
       </c>
       <c r="I4">
-        <v>0.001935598965750725</v>
+        <v>0.001761898593137363</v>
       </c>
       <c r="J4">
-        <v>0.002804755397484527</v>
+        <v>0.00259883433996073</v>
       </c>
       <c r="K4">
-        <v>0.003424011770094219</v>
+        <v>0.003184248607011339</v>
       </c>
       <c r="L4">
-        <v>0.004078604293994071</v>
+        <v>0.003805228296067556</v>
       </c>
       <c r="M4">
-        <v>0.005122700532115106</v>
+        <v>0.004818238907090229</v>
       </c>
       <c r="N4">
-        <v>0.005970451723067381</v>
+        <v>0.005633630530014097</v>
       </c>
       <c r="O4">
-        <v>0.006365559257493166</v>
+        <v>0.005993441619270496</v>
       </c>
       <c r="P4">
-        <v>0.006447286345477107</v>
+        <v>0.006037838963139371</v>
       </c>
       <c r="Q4">
-        <v>0.006484902294850504</v>
+        <v>0.006037838963139371</v>
       </c>
       <c r="R4">
-        <v>0.006506588025642273</v>
+        <v>0.006037838963139371</v>
       </c>
       <c r="S4">
-        <v>0.006520946246166506</v>
+        <v>0.006037838963139371</v>
       </c>
       <c r="T4">
-        <v>0.006732249683881413</v>
+        <v>0.00621265338390737</v>
       </c>
       <c r="U4">
-        <v>0.00715511159932054</v>
+        <v>0.006600398932271622</v>
       </c>
       <c r="V4">
-        <v>0.007885035625970822</v>
+        <v>0.007297198895687533</v>
       </c>
       <c r="W4">
-        <v>0.008644028453682437</v>
+        <v>0.008023256266579827</v>
       </c>
       <c r="X4">
-        <v>0.008872481382023491</v>
+        <v>0.008215331448608771</v>
       </c>
       <c r="Y4">
-        <v>0.008988293226251901</v>
+        <v>0.008294034700040656</v>
       </c>
       <c r="Z4">
-        <v>0.009295759737477821</v>
+        <v>0.008565636126917261</v>
       </c>
       <c r="AA4">
-        <v>0.009839513057330818</v>
+        <v>0.009075057456538062</v>
       </c>
       <c r="AB4">
-        <v>0.01019804770042129</v>
+        <v>0.00939805835943249</v>
       </c>
       <c r="AC4">
-        <v>0.01089947052603096</v>
+        <v>0.01006617219813854</v>
       </c>
       <c r="AD4">
-        <v>0.01169237985498091</v>
+        <v>0.01082636612990272</v>
       </c>
       <c r="AE4">
-        <v>0.01225763691561903</v>
+        <v>0.01135743072252187</v>
       </c>
       <c r="AF4">
-        <v>0.01271889146245991</v>
+        <v>0.011783818004291</v>
       </c>
       <c r="AG4">
-        <v>0.01292535543999812</v>
+        <v>0.0119537615651272</v>
       </c>
       <c r="AH4">
-        <v>0.01292574401315231</v>
+        <v>0.0119537615651272</v>
       </c>
       <c r="AI4">
-        <v>0.01294300402178249</v>
+        <v>0.0119537615651272</v>
       </c>
       <c r="AJ4">
-        <v>0.01295283062814127</v>
+        <v>0.0119537615651272</v>
       </c>
       <c r="AK4">
-        <v>0.01298368648526785</v>
+        <v>0.0119537615651272</v>
       </c>
       <c r="AL4">
-        <v>0.01308094969881903</v>
+        <v>0.01201379583723972</v>
       </c>
       <c r="AM4">
-        <v>0.01337412618952321</v>
+        <v>0.0122710145259921</v>
       </c>
       <c r="AN4">
-        <v>0.01412634946698766</v>
+        <v>0.01299025842392432</v>
       </c>
       <c r="AO4">
-        <v>0.0148341638428307</v>
+        <v>0.01366480528300809</v>
       </c>
       <c r="AP4">
-        <v>0.01550363782727389</v>
+        <v>0.01430076298763644</v>
       </c>
       <c r="AQ4">
-        <v>0.01681472447514302</v>
+        <v>0.01558249631597398</v>
       </c>
       <c r="AR4">
-        <v>0.01740331189663296</v>
+        <v>0.01613704264327397</v>
       </c>
       <c r="AS4">
-        <v>0.0175632728224733</v>
+        <v>0.0162601814277608</v>
       </c>
       <c r="AT4">
-        <v>0.01788965573438987</v>
+        <v>0.01655082199016368</v>
       </c>
       <c r="AU4">
-        <v>0.01789375086993939</v>
+        <v>0.01655082199016368</v>
       </c>
       <c r="AV4">
-        <v>0.01789797576509365</v>
+        <v>0.01655082199016368</v>
       </c>
       <c r="AW4">
-        <v>0.01789813291262939</v>
+        <v>0.01655082199016368</v>
       </c>
       <c r="AX4">
-        <v>0.01794631374138852</v>
+        <v>0.01656145541740669</v>
       </c>
       <c r="AY4">
-        <v>0.01794649478280513</v>
+        <v>0.01656145541740669</v>
       </c>
       <c r="AZ4">
-        <v>0.01795459974710105</v>
+        <v>0.01656145541740669</v>
       </c>
       <c r="BA4">
-        <v>0.01803856832016683</v>
+        <v>0.0166081087897321</v>
       </c>
       <c r="BB4">
-        <v>0.01833597673102552</v>
+        <v>0.01686958685650652</v>
       </c>
       <c r="BC4">
-        <v>0.01860172740072835</v>
+        <v>0.0170992017779512</v>
       </c>
       <c r="BD4">
-        <v>0.0186725839133154</v>
+        <v>0.0171326580151257</v>
       </c>
       <c r="BE4">
-        <v>0.01872981741340505</v>
+        <v>0.01715240284993272</v>
       </c>
       <c r="BF4">
-        <v>0.01902147919405392</v>
+        <v>0.01740809700077233</v>
       </c>
       <c r="BG4">
-        <v>0.01934352653581221</v>
+        <v>0.0176943738626395</v>
       </c>
       <c r="BH4">
-        <v>0.01982060515323084</v>
+        <v>0.01813668788592961</v>
       </c>
       <c r="BI4">
-        <v>0.02017282740609084</v>
+        <v>0.01845333544206119</v>
       </c>
       <c r="BJ4">
-        <v>0.02030419878088735</v>
+        <v>0.0185476991785957</v>
       </c>
       <c r="BK4">
-        <v>0.02030497689041576</v>
+        <v>0.0185476991785957</v>
       </c>
       <c r="BL4">
-        <v>0.02030548765720441</v>
+        <v>0.0185476991785957</v>
       </c>
       <c r="BM4">
-        <v>0.02030555425418684</v>
+        <v>0.0185476991785957</v>
       </c>
       <c r="BN4">
-        <v>0.02037795656183032</v>
+        <v>0.01858271124037217</v>
       </c>
       <c r="BO4">
-        <v>0.02037807863313478</v>
+        <v>0.01858271124037217</v>
       </c>
       <c r="BP4">
-        <v>0.02037995698990336</v>
+        <v>0.01858271124037217</v>
       </c>
       <c r="BQ4">
-        <v>0.0204194803273464</v>
+        <v>0.01858463100410275</v>
       </c>
       <c r="BR4">
-        <v>0.02042055296068556</v>
+        <v>0.01858463100410275</v>
       </c>
       <c r="BS4">
-        <v>0.02052703114457319</v>
+        <v>0.01865394003582601</v>
       </c>
       <c r="BT4">
-        <v>0.02067900914012206</v>
+        <v>0.01876904409456339</v>
       </c>
       <c r="BU4">
-        <v>0.02084636878623253</v>
+        <v>0.01889962960426226</v>
       </c>
       <c r="BV4">
-        <v>0.02113126502663439</v>
+        <v>0.01914851431815993</v>
       </c>
       <c r="BW4">
-        <v>0.02133550863409154</v>
+        <v>0.01931622310254032</v>
       </c>
       <c r="BX4">
-        <v>0.02141209062288763</v>
+        <v>0.01935544196439586</v>
       </c>
       <c r="BY4">
-        <v>0.02143854982185368</v>
+        <v>0.01935544196439586</v>
       </c>
       <c r="BZ4">
-        <v>0.02148137556741729</v>
+        <v>0.01936068556318359</v>
       </c>
       <c r="CA4">
-        <v>0.02155042698993843</v>
+        <v>0.01939232499836896</v>
       </c>
       <c r="CB4">
-        <v>0.02155065026600658</v>
+        <v>0.01939232499836896</v>
       </c>
       <c r="CC4">
-        <v>0.02155296899329124</v>
+        <v>0.01939232499836896</v>
       </c>
       <c r="CD4">
-        <v>0.02155312614082698</v>
+        <v>0.01939232499836896</v>
       </c>
       <c r="CE4">
-        <v>0.02156842197238545</v>
+        <v>0.01939232499836896</v>
       </c>
       <c r="CF4">
-        <v>0.02157303062825371</v>
+        <v>0.01939232499836896</v>
       </c>
       <c r="CG4">
-        <v>0.0215893047688479</v>
+        <v>0.01939232499836896</v>
       </c>
       <c r="CH4">
-        <v>0.02178412775596109</v>
+        <v>0.01955055203881702</v>
       </c>
       <c r="CI4">
-        <v>0.02219889109110453</v>
+        <v>0.01993014646105842</v>
       </c>
       <c r="CJ4">
-        <v>0.02258263934511558</v>
+        <v>0.02027852456774937</v>
       </c>
       <c r="CK4">
-        <v>0.0227047591095743</v>
+        <v>0.02036357666694135</v>
       </c>
       <c r="CL4">
-        <v>0.02275881388154789</v>
+        <v>0.02038012214916578</v>
       </c>
       <c r="CM4">
-        <v>0.0227649655693725</v>
+        <v>0.02038012214916578</v>
       </c>
       <c r="CN4">
-        <v>0.02289735424420615</v>
+        <v>0.02047550978626122</v>
       </c>
       <c r="CO4">
-        <v>0.1060625932806552</v>
+        <v>0.1041424878659634</v>
       </c>
       <c r="CP4">
-        <v>0.1061978306655929</v>
+        <v>0.1042407426963813</v>
       </c>
       <c r="CQ4">
-        <v>0.2061068193133736</v>
+        <v>0.2047601084623749</v>
       </c>
       <c r="CR4">
-        <v>0.2081834030891919</v>
+        <v>0.2068123056755886</v>
       </c>
       <c r="CS4">
-        <v>0.2172674374208594</v>
+        <v>0.2159174197205119</v>
       </c>
       <c r="CT4">
-        <v>0.2446348964200737</v>
+        <v>0.2434245863452274</v>
       </c>
       <c r="CU4">
-        <v>0.2477840555350528</v>
+        <v>0.2465563180628308</v>
       </c>
       <c r="CV4">
-        <v>0.2493501594922328</v>
+        <v>0.2480947233232614</v>
       </c>
       <c r="CW4">
-        <v>0.2505789100370958</v>
+        <v>0.2492935863292012</v>
       </c>
       <c r="CX4">
-        <v>0.2644431755432944</v>
+        <v>0.2632099470096317</v>
       </c>
       <c r="CY4">
-        <v>0.2822328901928154</v>
+        <v>0.2810772262323053</v>
       </c>
       <c r="CZ4">
-        <v>0.2931255225905167</v>
+        <v>0.2920026730273582</v>
       </c>
       <c r="DA4">
-        <v>0.3266579978148221</v>
+        <v>0.325714856206263</v>
       </c>
       <c r="DB4">
-        <v>0.3274010652419522</v>
+        <v>0.3264248848481736</v>
       </c>
       <c r="DC4">
-        <v>0.3997902778849574</v>
+        <v>0.3992459186970135</v>
       </c>
       <c r="DD4">
-        <v>0.4130133693677462</v>
+        <v>0.4125169452397685</v>
       </c>
       <c r="DE4">
-        <v>0.4474549646252445</v>
+        <v>0.4471441470738956</v>
       </c>
       <c r="DF4">
-        <v>0.4582111290179632</v>
+        <v>0.4579322404218338</v>
       </c>
       <c r="DG4">
-        <v>0.4628980658890882</v>
+        <v>0.4626117274226617</v>
       </c>
       <c r="DH4">
-        <v>0.462913973704669</v>
+        <v>0.4626117274226617</v>
       </c>
       <c r="DI4">
-        <v>0.4630112369182202</v>
+        <v>0.4626717616947742</v>
       </c>
       <c r="DJ4">
-        <v>0.4689451241348725</v>
+        <v>0.4686062895995918</v>
       </c>
       <c r="DK4">
-        <v>0.4711199462142776</v>
+        <v>0.4707573625136561</v>
       </c>
       <c r="DL4">
-        <v>0.4715791827310448</v>
+        <v>0.4711817186718147</v>
       </c>
       <c r="DM4">
-        <v>0.4715908113834694</v>
+        <v>0.4711817186718147</v>
       </c>
       <c r="DN4">
-        <v>0.4732622308444946</v>
+        <v>0.4728261227521856</v>
       </c>
       <c r="DO4">
-        <v>0.4735022887932594</v>
+        <v>0.4730298782512181</v>
       </c>
       <c r="DP4">
-        <v>0.4791076629979174</v>
+        <v>0.4786337616608281</v>
       </c>
       <c r="DQ4">
-        <v>0.4838342801704911</v>
+        <v>0.483353186419867</v>
       </c>
       <c r="DR4">
-        <v>0.4840016398166015</v>
+        <v>0.4834837719295658</v>
       </c>
       <c r="DS4">
-        <v>0.4842464802855409</v>
+        <v>0.4836923409790855</v>
       </c>
       <c r="DT4">
-        <v>0.4844034103112706</v>
+        <v>0.4838124291981441</v>
       </c>
       <c r="DU4">
-        <v>0.4897230765054971</v>
+        <v>0.4891287508447896</v>
       </c>
       <c r="DV4">
-        <v>0.4909667150509037</v>
+        <v>0.4903425984487351</v>
       </c>
       <c r="DW4">
-        <v>0.4912768562222272</v>
+        <v>0.4906168918896433</v>
       </c>
       <c r="DX4">
-        <v>0.4946539333455278</v>
+        <v>0.4939780204105961</v>
       </c>
       <c r="DY4">
-        <v>0.4950200003588933</v>
+        <v>0.4943086025558656</v>
       </c>
       <c r="DZ4">
-        <v>0.4972751771412321</v>
+        <v>0.4965405515363841</v>
       </c>
       <c r="EA4">
-        <v>0.5008861404730721</v>
+        <v>0.5001370837842366</v>
       </c>
       <c r="EB4">
-        <v>0.5031296375549845</v>
+        <v>0.5023572772832043</v>
       </c>
       <c r="EC4">
-        <v>0.5128181829087234</v>
+        <v>0.5120708245847791</v>
       </c>
       <c r="ED4">
-        <v>0.527349478439276</v>
+        <v>0.5266585431647092</v>
       </c>
       <c r="EE4">
-        <v>0.5320991450126913</v>
+        <v>0.5314011668754725</v>
       </c>
       <c r="EF4">
-        <v>0.5321613168649613</v>
+        <v>0.5314258821038536</v>
       </c>
       <c r="EG4">
-        <v>0.5393230066264419</v>
+        <v>0.538596178875739</v>
       </c>
       <c r="EH4">
-        <v>0.5549497061969889</v>
+        <v>0.5542864087798124</v>
       </c>
       <c r="EI4">
-        <v>0.5710943497864466</v>
+        <v>0.5704979432667356</v>
       </c>
       <c r="EJ4">
-        <v>0.5714494343394111</v>
+        <v>0.5708174716943658</v>
       </c>
       <c r="EK4">
-        <v>0.5715742295039675</v>
+        <v>0.5709052165523907</v>
       </c>
       <c r="EL4">
-        <v>0.5720212130702873</v>
+        <v>0.5713172402595731</v>
       </c>
       <c r="EM4">
-        <v>0.5725383270391676</v>
+        <v>0.5717998493947498</v>
       </c>
       <c r="EN4">
-        <v>0.5779720302375577</v>
+        <v>0.5772309479491584</v>
       </c>
       <c r="EO4">
-        <v>0.5978583289636271</v>
+        <v>0.5972084144653035</v>
       </c>
       <c r="EP4">
-        <v>0.6151401395946039</v>
+        <v>0.6145644942477909</v>
       </c>
       <c r="EQ4">
-        <v>0.6201709631782845</v>
+        <v>0.6195900991932056</v>
       </c>
       <c r="ER4">
-        <v>0.6203590471651516</v>
+        <v>0.6197415435089115</v>
       </c>
       <c r="ES4">
-        <v>0.6302342555257057</v>
+        <v>0.629642964938478</v>
       </c>
       <c r="ET4">
-        <v>0.6654707908122282</v>
+        <v>0.6650702645922357</v>
       </c>
       <c r="EU4">
-        <v>0.7157558126481864</v>
+        <v>0.7156436895351224</v>
       </c>
       <c r="EV4">
-        <v>0.7415208465888945</v>
+        <v>0.7415380341246888</v>
       </c>
       <c r="EW4">
-        <v>0.7462537447616975</v>
+        <v>0.7462637806368223</v>
       </c>
       <c r="EX4">
-        <v>0.7468327704828384</v>
+        <v>0.7468087032248187</v>
       </c>
       <c r="EY4">
-        <v>0.7468428854482076</v>
+        <v>0.7468087032248187</v>
       </c>
       <c r="EZ4">
-        <v>0.7468549235266472</v>
+        <v>0.7468087032248187</v>
       </c>
       <c r="FA4">
-        <v>0.7468549244954709</v>
+        <v>0.7468087032248187</v>
       </c>
       <c r="FB4">
-        <v>0.7468796893003751</v>
+        <v>0.7468087032248187</v>
       </c>
       <c r="FC4">
-        <v>0.7534856215415645</v>
+        <v>0.7534196365680261</v>
       </c>
       <c r="FD4">
-        <v>0.7548445327911798</v>
+        <v>0.7547495047973433</v>
       </c>
       <c r="FE4">
-        <v>0.7575924048915075</v>
+        <v>0.7574773458392402</v>
       </c>
       <c r="FF4">
-        <v>0.7707316178712338</v>
+        <v>0.7706639496520232</v>
       </c>
       <c r="FG4">
-        <v>0.7894882655560584</v>
+        <v>0.7895044356387656</v>
       </c>
       <c r="FH4">
-        <v>0.7995399799230569</v>
+        <v>0.7995835082945274</v>
       </c>
       <c r="FI4">
-        <v>0.8007400885668742</v>
+        <v>0.8007535435628517</v>
       </c>
       <c r="FJ4">
-        <v>0.8007648670037789</v>
+        <v>0.8007535435628517</v>
       </c>
       <c r="FK4">
-        <v>0.8052131738661912</v>
+        <v>0.80519285225752</v>
       </c>
       <c r="FL4">
-        <v>0.8150370232248701</v>
+        <v>0.815042581453813</v>
       </c>
       <c r="FM4">
-        <v>0.8194145537846983</v>
+        <v>0.8194106546296855</v>
       </c>
       <c r="FN4">
-        <v>0.819414629219641</v>
+        <v>0.8194106546296855</v>
       </c>
       <c r="FO4">
-        <v>0.8282711605430022</v>
+        <v>0.8282867895639093</v>
       </c>
       <c r="FP4">
-        <v>0.8534342974617344</v>
+        <v>0.8535753318572746</v>
       </c>
       <c r="FQ4">
-        <v>0.8671626929629723</v>
+        <v>0.8673549409706017</v>
       </c>
       <c r="FR4">
-        <v>0.8693604161432135</v>
+        <v>0.8695290635741737</v>
       </c>
       <c r="FS4">
-        <v>0.8708048964959529</v>
+        <v>0.8709450561026049</v>
       </c>
       <c r="FT4">
-        <v>0.8708554296377979</v>
+        <v>0.8709580571053912</v>
       </c>
       <c r="FU4">
-        <v>0.8712852053334895</v>
+        <v>0.8713527612925249</v>
       </c>
       <c r="FV4">
-        <v>0.8717309026497624</v>
+        <v>0.8717634904041146</v>
       </c>
       <c r="FW4">
-        <v>0.8718798932652022</v>
+        <v>0.8718755876997951</v>
       </c>
       <c r="FX4">
-        <v>0.8725901393311341</v>
+        <v>0.872552582026445</v>
       </c>
       <c r="FY4">
-        <v>0.8728494338106012</v>
+        <v>0.8727756988681075</v>
       </c>
       <c r="FZ4">
-        <v>0.8728811409287589</v>
+        <v>0.8727756988681075</v>
       </c>
       <c r="GA4">
-        <v>0.874304767980737</v>
+        <v>0.8741707027937987</v>
       </c>
       <c r="GB4">
-        <v>0.8753518171189658</v>
+        <v>0.8751866854641612</v>
       </c>
       <c r="GC4">
-        <v>0.8777343816059557</v>
+        <v>0.8775468486759648</v>
       </c>
       <c r="GD4">
-        <v>0.8876975119697199</v>
+        <v>0.8875367625709973</v>
       </c>
       <c r="GE4">
-        <v>0.8983371803581852</v>
+        <v>0.8982076040564105</v>
       </c>
       <c r="GF4">
-        <v>0.9150944379700101</v>
+        <v>0.9150357273747867</v>
       </c>
       <c r="GG4">
-        <v>0.9290373474790802</v>
+        <v>0.9290312423221141</v>
       </c>
       <c r="GH4">
-        <v>0.9406726654038977</v>
+        <v>0.9407041933932396</v>
       </c>
       <c r="GI4">
-        <v>0.9467289022250172</v>
+        <v>0.9467618647405719</v>
       </c>
       <c r="GJ4">
-        <v>0.9489998783079329</v>
+        <v>0.9490097155318958</v>
       </c>
       <c r="GK4">
-        <v>0.9495789040290737</v>
+        <v>0.9495546381198923</v>
       </c>
       <c r="GL4">
-        <v>0.9502043039819077</v>
+        <v>0.9501462358284136</v>
       </c>
       <c r="GM4">
-        <v>0.9515689327317317</v>
+        <v>0.951481858654661</v>
       </c>
       <c r="GN4">
-        <v>0.9547765956488468</v>
+        <v>0.9546724737632374</v>
       </c>
       <c r="GO4">
-        <v>0.9590521902049531</v>
+        <v>0.9589379495464239</v>
       </c>
       <c r="GP4">
-        <v>0.9624540786291597</v>
+        <v>0.9623240503508599</v>
       </c>
       <c r="GQ4">
-        <v>0.9695617718886689</v>
+        <v>0.969440000276546</v>
       </c>
       <c r="GR4">
-        <v>0.979166870239361</v>
+        <v>0.979069559147856</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001846810922177881</v>
+        <v>0.0001341190805581669</v>
       </c>
       <c r="C5">
-        <v>0.0002365587260317347</v>
+        <v>0.0001341190805581669</v>
       </c>
       <c r="D5">
-        <v>0.0002396039802034118</v>
+        <v>0.0001341190805581669</v>
       </c>
       <c r="E5">
-        <v>0.000267871919012239</v>
+        <v>0.0001341190805581669</v>
       </c>
       <c r="F5">
-        <v>0.0004559179110882348</v>
+        <v>0.0002716363954739118</v>
       </c>
       <c r="G5">
-        <v>0.0006091473146313546</v>
+        <v>0.0003739922100919636</v>
       </c>
       <c r="H5">
-        <v>0.0009288815211581868</v>
+        <v>0.000644502313409234</v>
       </c>
       <c r="I5">
-        <v>0.001068684605267074</v>
+        <v>0.0007332988002850538</v>
       </c>
       <c r="J5">
-        <v>0.001367330792682526</v>
+        <v>0.0009825119752843079</v>
       </c>
       <c r="K5">
-        <v>0.00184625397250135</v>
+        <v>0.001413788063083673</v>
       </c>
       <c r="L5">
-        <v>0.002514090574359617</v>
+        <v>0.002035849050414647</v>
       </c>
       <c r="M5">
-        <v>0.003412032586521553</v>
+        <v>0.002890294995429035</v>
       </c>
       <c r="N5">
-        <v>0.004245577251397107</v>
+        <v>0.003679705638560164</v>
       </c>
       <c r="O5">
-        <v>0.00474573013032134</v>
+        <v>0.004132421738229444</v>
       </c>
       <c r="P5">
-        <v>0.005171115812396161</v>
+        <v>0.00450962995717124</v>
       </c>
       <c r="Q5">
-        <v>0.005871102382899672</v>
+        <v>0.005164159407948112</v>
       </c>
       <c r="R5">
-        <v>0.006257826846603626</v>
+        <v>0.005502323409792852</v>
       </c>
       <c r="S5">
-        <v>0.00630975199941557</v>
+        <v>0.005502371399539483</v>
       </c>
       <c r="T5">
-        <v>0.006329234217594615</v>
+        <v>0.005502371399539483</v>
       </c>
       <c r="U5">
-        <v>0.006495645580582265</v>
+        <v>0.00561803976114919</v>
       </c>
       <c r="V5">
-        <v>0.006584695166829835</v>
+        <v>0.005655579958843359</v>
       </c>
       <c r="W5">
-        <v>0.006855904955401421</v>
+        <v>0.00587708493534392</v>
       </c>
       <c r="X5">
-        <v>0.00800651230691638</v>
+        <v>0.006986699257825536</v>
       </c>
       <c r="Y5">
-        <v>0.009148996758773627</v>
+        <v>0.008088110210856895</v>
       </c>
       <c r="Z5">
-        <v>0.01064695409565173</v>
+        <v>0.009548515553607978</v>
       </c>
       <c r="AA5">
-        <v>0.01185106154491226</v>
+        <v>0.01071215997444433</v>
       </c>
       <c r="AB5">
-        <v>0.01225193608801995</v>
+        <v>0.01106461423395452</v>
       </c>
       <c r="AC5">
-        <v>0.01251627630688101</v>
+        <v>0.01127918158710943</v>
       </c>
       <c r="AD5">
-        <v>0.012803518894777</v>
+        <v>0.01151687819242755</v>
       </c>
       <c r="AE5">
-        <v>0.0132456283761471</v>
+        <v>0.01191097588557341</v>
       </c>
       <c r="AF5">
-        <v>0.01357714750217733</v>
+        <v>0.01219338765611565</v>
       </c>
       <c r="AG5">
-        <v>0.01374355886516498</v>
+        <v>0.01230905601772536</v>
       </c>
       <c r="AH5">
-        <v>0.01392946450733117</v>
+        <v>0.01244441177927927</v>
       </c>
       <c r="AI5">
-        <v>0.01396030425303162</v>
+        <v>0.01244441177927927</v>
       </c>
       <c r="AJ5">
-        <v>0.01396118546349449</v>
+        <v>0.01244441177927927</v>
       </c>
       <c r="AK5">
-        <v>0.0140472107398695</v>
+        <v>0.01247889770666824</v>
       </c>
       <c r="AL5">
-        <v>0.01439823828507767</v>
+        <v>0.01278101115723249</v>
       </c>
       <c r="AM5">
-        <v>0.01486477418541848</v>
+        <v>0.01319977725053189</v>
       </c>
       <c r="AN5">
-        <v>0.01537639256385957</v>
+        <v>0.01366407243309421</v>
       </c>
       <c r="AO5">
-        <v>0.0156596947919216</v>
+        <v>0.01389778964326441</v>
       </c>
       <c r="AP5">
-        <v>0.01606070137502372</v>
+        <v>0.01425037725082791</v>
       </c>
       <c r="AQ5">
-        <v>0.0166598810497751</v>
+        <v>0.01480310115877708</v>
       </c>
       <c r="AR5">
-        <v>0.01755782306193704</v>
+        <v>0.01565754710379147</v>
       </c>
       <c r="AS5">
-        <v>0.01850494339202667</v>
+        <v>0.0165616585534782</v>
       </c>
       <c r="AT5">
-        <v>0.01965374104361789</v>
+        <v>0.01766944524817982</v>
       </c>
       <c r="AU5">
-        <v>0.02078633449589193</v>
+        <v>0.01876086721609102</v>
       </c>
       <c r="AV5">
-        <v>0.02119518537866351</v>
+        <v>0.01912137683315589</v>
       </c>
       <c r="AW5">
-        <v>0.02162242849066006</v>
+        <v>0.01950046088271458</v>
       </c>
       <c r="AX5">
-        <v>0.02181752994243874</v>
+        <v>0.01964510355249392</v>
       </c>
       <c r="AY5">
-        <v>0.02182309854820409</v>
+        <v>0.01964510355249392</v>
       </c>
       <c r="AZ5">
-        <v>0.02194499974806734</v>
+        <v>0.01971582080947512</v>
       </c>
       <c r="BA5">
-        <v>0.02213543002004286</v>
+        <v>0.01985574602424349</v>
       </c>
       <c r="BB5">
-        <v>0.02239058817929084</v>
+        <v>0.02006104035538724</v>
       </c>
       <c r="BC5">
-        <v>0.02279146272239853</v>
+        <v>0.02041349461489743</v>
       </c>
       <c r="BD5">
-        <v>0.02328812110147001</v>
+        <v>0.02086268159632767</v>
       </c>
       <c r="BE5">
-        <v>0.02394344754385544</v>
+        <v>0.02147210849184884</v>
       </c>
       <c r="BF5">
-        <v>0.02510016589511289</v>
+        <v>0.02258789435290787</v>
       </c>
       <c r="BG5">
-        <v>0.02610040975296397</v>
+        <v>0.02354565560046135</v>
       </c>
       <c r="BH5">
-        <v>0.02674123222596057</v>
+        <v>0.02414043484250834</v>
       </c>
       <c r="BI5">
-        <v>0.02748617186456982</v>
+        <v>0.02484036269054891</v>
       </c>
       <c r="BJ5">
-        <v>0.0281149064380758</v>
+        <v>0.02542293428390174</v>
       </c>
       <c r="BK5">
-        <v>0.02900547750054833</v>
+        <v>0.02626993625865312</v>
       </c>
       <c r="BL5">
-        <v>0.02998027925947151</v>
+        <v>0.02720200336422647</v>
       </c>
       <c r="BM5">
-        <v>0.03041924184097421</v>
+        <v>0.02759292298263019</v>
       </c>
       <c r="BN5">
-        <v>0.03061846113257938</v>
+        <v>0.02774172428576179</v>
       </c>
       <c r="BO5">
-        <v>0.03061853084512644</v>
+        <v>0.02774172428576179</v>
       </c>
       <c r="BP5">
-        <v>0.03066601745312542</v>
+        <v>0.02774172428576179</v>
       </c>
       <c r="BQ5">
-        <v>0.03071859287290996</v>
+        <v>0.02774242898437376</v>
       </c>
       <c r="BR5">
-        <v>0.03077470470254549</v>
+        <v>0.02774670512640589</v>
       </c>
       <c r="BS5">
-        <v>0.03095866113479381</v>
+        <v>0.027880092368125</v>
       </c>
       <c r="BT5">
-        <v>0.03110528192861541</v>
+        <v>0.02797577410459575</v>
       </c>
       <c r="BU5">
-        <v>0.03130586638016305</v>
+        <v>0.02812595409167504</v>
       </c>
       <c r="BV5">
-        <v>0.03197370298202132</v>
+        <v>0.02874801507900602</v>
       </c>
       <c r="BW5">
-        <v>0.0328815564837656</v>
+        <v>0.0296124707021246</v>
       </c>
       <c r="BX5">
-        <v>0.03394167873909348</v>
+        <v>0.03063070353461576</v>
       </c>
       <c r="BY5">
-        <v>0.03488603249929968</v>
+        <v>0.03153202100729674</v>
       </c>
       <c r="BZ5">
-        <v>0.03627377444082211</v>
+        <v>0.03288111910198274</v>
       </c>
       <c r="CA5">
-        <v>0.03732318399660141</v>
+        <v>0.03388853310918862</v>
       </c>
       <c r="CB5">
-        <v>0.03778777883702401</v>
+        <v>0.03430533891339113</v>
       </c>
       <c r="CC5">
-        <v>0.03811941807304918</v>
+        <v>0.03458787198380222</v>
       </c>
       <c r="CD5">
-        <v>0.03838778102174073</v>
+        <v>0.03480650191810285</v>
       </c>
       <c r="CE5">
-        <v>0.03845131096906367</v>
+        <v>0.03481826966566744</v>
       </c>
       <c r="CF5">
-        <v>0.0384537139442624</v>
+        <v>0.03481826966566744</v>
       </c>
       <c r="CG5">
-        <v>0.03853967805063999</v>
+        <v>0.03485269381707625</v>
       </c>
       <c r="CH5">
-        <v>0.03868297020460185</v>
+        <v>0.03494501393839886</v>
       </c>
       <c r="CI5">
-        <v>0.03889727843557119</v>
+        <v>0.03510905366000572</v>
       </c>
       <c r="CJ5">
-        <v>0.03935144875643307</v>
+        <v>0.03551533167377605</v>
       </c>
       <c r="CK5">
-        <v>0.04009884582493876</v>
+        <v>0.03621774129632918</v>
       </c>
       <c r="CL5">
-        <v>0.04152797746471708</v>
+        <v>0.03760863911777967</v>
       </c>
       <c r="CM5">
-        <v>0.04335183578786216</v>
+        <v>0.03939817399643644</v>
       </c>
       <c r="CN5">
-        <v>0.04498744541893977</v>
+        <v>0.04099759529070455</v>
       </c>
       <c r="CO5">
-        <v>0.0665963785083685</v>
+        <v>0.06276820647807735</v>
       </c>
       <c r="CP5">
-        <v>0.2037809727275949</v>
+        <v>0.201259433166999</v>
       </c>
       <c r="CQ5">
-        <v>0.3087462983044978</v>
+        <v>0.3072122098900724</v>
       </c>
       <c r="CR5">
-        <v>0.3367218641256452</v>
+        <v>0.3354125250813354</v>
       </c>
       <c r="CS5">
-        <v>0.3373425193494916</v>
+        <v>0.3359869372866657</v>
       </c>
       <c r="CT5">
-        <v>0.3601318343891806</v>
+        <v>0.3589496239198071</v>
       </c>
       <c r="CU5">
-        <v>0.3706941149441004</v>
+        <v>0.3695641485189181</v>
       </c>
       <c r="CV5">
-        <v>0.3942216579526815</v>
+        <v>0.3932723764024164</v>
       </c>
       <c r="CW5">
-        <v>0.4010183566662778</v>
+        <v>0.4000840152906065</v>
       </c>
       <c r="CX5">
-        <v>0.4127152641733859</v>
+        <v>0.4118444070639086</v>
       </c>
       <c r="CY5">
-        <v>0.4348608582402004</v>
+        <v>0.4341569956796067</v>
       </c>
       <c r="CZ5">
-        <v>0.4351521809979245</v>
+        <v>0.4343988128750995</v>
       </c>
       <c r="DA5">
-        <v>0.4715778374629965</v>
+        <v>0.4711329298319011</v>
       </c>
       <c r="DB5">
-        <v>0.4720872742115295</v>
+        <v>0.4715950217721616</v>
       </c>
       <c r="DC5">
-        <v>0.5302819537592843</v>
+        <v>0.5303138174081929</v>
       </c>
       <c r="DD5">
-        <v>0.5349350339632098</v>
+        <v>0.5349606019541847</v>
       </c>
       <c r="DE5">
-        <v>0.5414353620892948</v>
+        <v>0.5414729342491638</v>
       </c>
       <c r="DF5">
-        <v>0.545129185933642</v>
+        <v>0.5451509595285483</v>
       </c>
       <c r="DG5">
-        <v>0.547360607039613</v>
+        <v>0.5473520947251435</v>
       </c>
       <c r="DH5">
-        <v>0.5476634132568531</v>
+        <v>0.5476055091414499</v>
       </c>
       <c r="DI5">
-        <v>0.5543150379765626</v>
+        <v>0.5542706368551055</v>
       </c>
       <c r="DJ5">
-        <v>0.5554852782272502</v>
+        <v>0.5554000785707693</v>
       </c>
       <c r="DK5">
-        <v>0.5556823869089443</v>
+        <v>0.5555467483551582</v>
       </c>
       <c r="DL5">
-        <v>0.555766141195415</v>
+        <v>0.555578940795001</v>
       </c>
       <c r="DM5">
-        <v>0.5575002083223438</v>
+        <v>0.5572777949577827</v>
       </c>
       <c r="DN5">
-        <v>0.5575014191043928</v>
+        <v>0.5572777949577827</v>
       </c>
       <c r="DO5">
-        <v>0.5581280651179867</v>
+        <v>0.5578582573008309</v>
       </c>
       <c r="DP5">
-        <v>0.5595574463577545</v>
+        <v>0.559249407194942</v>
       </c>
       <c r="DQ5">
-        <v>0.5595581113710265</v>
+        <v>0.559249407194942</v>
       </c>
       <c r="DR5">
-        <v>0.5599135234960499</v>
+        <v>0.5595559486613164</v>
       </c>
       <c r="DS5">
-        <v>0.5661033566352187</v>
+        <v>0.5657547100398177</v>
       </c>
       <c r="DT5">
-        <v>0.5664420115609482</v>
+        <v>0.5660443283011112</v>
       </c>
       <c r="DU5">
-        <v>0.5664450683384193</v>
+        <v>0.5660443283011112</v>
       </c>
       <c r="DV5">
-        <v>0.5664952325093054</v>
+        <v>0.5660443283011112</v>
       </c>
       <c r="DW5">
-        <v>0.5753930901343617</v>
+        <v>0.5749779413057786</v>
       </c>
       <c r="DX5">
-        <v>0.5771724018593839</v>
+        <v>0.5767224882838639</v>
       </c>
       <c r="DY5">
-        <v>0.5781369322187399</v>
+        <v>0.5776441822358872</v>
       </c>
       <c r="DZ5">
-        <v>0.5803751289244252</v>
+        <v>0.5798521601549148</v>
       </c>
       <c r="EA5">
-        <v>0.5861589856807013</v>
+        <v>0.5856409233311379</v>
       </c>
       <c r="EB5">
-        <v>0.586364268962051</v>
+        <v>0.5857958486971427</v>
       </c>
       <c r="EC5">
-        <v>0.6000360973859385</v>
+        <v>0.5995507260110856</v>
       </c>
       <c r="ED5">
-        <v>0.6295313991430463</v>
+        <v>0.6292858324560703</v>
       </c>
       <c r="EE5">
-        <v>0.6426136665917772</v>
+        <v>0.6424453082882193</v>
       </c>
       <c r="EF5">
-        <v>0.6427227532471804</v>
+        <v>0.6425030840530029</v>
       </c>
       <c r="EG5">
-        <v>0.650448521221627</v>
+        <v>0.6502529960595119</v>
       </c>
       <c r="EH5">
-        <v>0.659035175859797</v>
+        <v>0.6588723231339046</v>
       </c>
       <c r="EI5">
-        <v>0.6623731129191408</v>
+        <v>0.6621909360232722</v>
       </c>
       <c r="EJ5">
-        <v>0.6624538756857375</v>
+        <v>0.6622201073076438</v>
       </c>
       <c r="EK5">
-        <v>0.6668408682008756</v>
+        <v>0.6665981681577549</v>
       </c>
       <c r="EL5">
-        <v>0.6690525024076803</v>
+        <v>0.6687793204355679</v>
       </c>
       <c r="EM5">
-        <v>0.670818205233276</v>
+        <v>0.6705101236971833</v>
       </c>
       <c r="EN5">
-        <v>0.6708805457446491</v>
+        <v>0.6705206902256088</v>
       </c>
       <c r="EO5">
-        <v>0.6850468671476994</v>
+        <v>0.6847749592308893</v>
       </c>
       <c r="EP5">
-        <v>0.7210274926315243</v>
+        <v>0.7210596364912994</v>
       </c>
       <c r="EQ5">
-        <v>0.7250982104599898</v>
+        <v>0.7251182894683764</v>
       </c>
       <c r="ER5">
-        <v>0.7254446350253919</v>
+        <v>0.7254157543395525</v>
       </c>
       <c r="ES5">
-        <v>0.7264168359844246</v>
+        <v>0.7263451948803195</v>
       </c>
       <c r="ET5">
-        <v>0.7602531445586083</v>
+        <v>0.7604643124798367</v>
       </c>
       <c r="EU5">
-        <v>0.7934963561577842</v>
+        <v>0.7939844575682017</v>
       </c>
       <c r="EV5">
-        <v>0.8045985156899542</v>
+        <v>0.8051442094747319</v>
       </c>
       <c r="EW5">
-        <v>0.8079229878498655</v>
+        <v>0.8084492240741646</v>
       </c>
       <c r="EX5">
-        <v>0.8079455220139159</v>
+        <v>0.8084492240741646</v>
       </c>
       <c r="EY5">
-        <v>0.8140343247573419</v>
+        <v>0.8145459541957371</v>
       </c>
       <c r="EZ5">
-        <v>0.8151941047084704</v>
+        <v>0.8156648319865144</v>
       </c>
       <c r="FA5">
-        <v>0.8183661072748065</v>
+        <v>0.8188158665469546</v>
       </c>
       <c r="FB5">
-        <v>0.8215330453413561</v>
+        <v>0.8219617864359621</v>
       </c>
       <c r="FC5">
-        <v>0.825430062177141</v>
+        <v>0.8258450176453355</v>
       </c>
       <c r="FD5">
-        <v>0.826417280335541</v>
+        <v>0.8267896241538859</v>
       </c>
       <c r="FE5">
-        <v>0.8280882483651286</v>
+        <v>0.8284247541258886</v>
       </c>
       <c r="FF5">
-        <v>0.8349786665747757</v>
+        <v>0.8353310409456295</v>
       </c>
       <c r="FG5">
-        <v>0.849649062956585</v>
+        <v>0.8500943785662615</v>
       </c>
       <c r="FH5">
-        <v>0.8744962789095569</v>
+        <v>0.8751353527808151</v>
       </c>
       <c r="FI5">
-        <v>0.8745604750468519</v>
+        <v>0.8751477933179861</v>
       </c>
       <c r="FJ5">
-        <v>0.8750592876258325</v>
+        <v>0.875599155839983</v>
       </c>
       <c r="FK5">
-        <v>0.8823517247185391</v>
+        <v>0.8829114441570569</v>
       </c>
       <c r="FL5">
-        <v>0.9034054278313645</v>
+        <v>0.9041213249624397</v>
       </c>
       <c r="FM5">
-        <v>0.9174763302384357</v>
+        <v>0.9182792297000849</v>
       </c>
       <c r="FN5">
-        <v>0.9191013096699612</v>
+        <v>0.9198679154863534</v>
       </c>
       <c r="FO5">
-        <v>0.9193074531212746</v>
+        <v>0.9200237095436261</v>
       </c>
       <c r="FP5">
-        <v>0.931499196607531</v>
+        <v>0.9322838394061927</v>
       </c>
       <c r="FQ5">
-        <v>0.9423462201504521</v>
+        <v>0.9431859278097793</v>
       </c>
       <c r="FR5">
-        <v>0.9425023510338729</v>
+        <v>0.9432912138478881</v>
       </c>
       <c r="FS5">
-        <v>0.9431393837370292</v>
+        <v>0.9438821657766059</v>
       </c>
       <c r="FT5">
-        <v>0.9432509903123263</v>
+        <v>0.9439424864249588</v>
       </c>
       <c r="FU5">
-        <v>0.9438881894354756</v>
+        <v>0.9445336064223152</v>
       </c>
       <c r="FV5">
-        <v>0.9461065692419961</v>
+        <v>0.9467215711253659</v>
       </c>
       <c r="FW5">
-        <v>0.94654052012371</v>
+        <v>0.9471074293953997</v>
       </c>
       <c r="FX5">
-        <v>0.9465503029072978</v>
+        <v>0.9471074293953997</v>
       </c>
       <c r="FY5">
-        <v>0.9467508873588455</v>
+        <v>0.947257609382479</v>
       </c>
       <c r="FZ5">
-        <v>0.9472732648368332</v>
+        <v>0.9477327702499879</v>
       </c>
       <c r="GA5">
-        <v>0.9474317349701554</v>
+        <v>0.9478404187118599</v>
       </c>
       <c r="GB5">
-        <v>0.9484187458285641</v>
+        <v>0.9487848158667943</v>
       </c>
       <c r="GC5">
-        <v>0.948580166401762</v>
+        <v>0.9488954439971788</v>
       </c>
       <c r="GD5">
-        <v>0.952569447833659</v>
+        <v>0.9528718538251466</v>
       </c>
       <c r="GE5">
-        <v>0.956583388664517</v>
+        <v>0.9568731673412826</v>
       </c>
       <c r="GF5">
-        <v>0.9622995297236465</v>
+        <v>0.962593543992412</v>
       </c>
       <c r="GG5">
-        <v>0.9704127943817645</v>
+        <v>0.9707347914321844</v>
       </c>
       <c r="GH5">
-        <v>0.9740575747281784</v>
+        <v>0.97436328736249</v>
       </c>
       <c r="GI5">
-        <v>0.9781076935575119</v>
+        <v>0.978401137275722</v>
       </c>
       <c r="GJ5">
-        <v>0.9812800680238324</v>
+        <v>0.9815525474203868</v>
       </c>
       <c r="GK5">
-        <v>0.9813450401210946</v>
+        <v>0.9815657716045999</v>
       </c>
       <c r="GL5">
-        <v>0.9822626596424273</v>
+        <v>0.9824400899947252</v>
       </c>
       <c r="GM5">
-        <v>0.9828071988194812</v>
+        <v>0.9829376321069553</v>
       </c>
       <c r="GN5">
-        <v>0.9843366556550319</v>
+        <v>0.9844298489992759</v>
       </c>
       <c r="GO5">
-        <v>0.985754473595287</v>
+        <v>0.985809321041639</v>
       </c>
       <c r="GP5">
-        <v>0.9857928895986682</v>
+        <v>0.985809321041639</v>
       </c>
       <c r="GQ5">
-        <v>0.9875244602257022</v>
+        <v>0.9875056539728614</v>
       </c>
       <c r="GR5">
-        <v>0.9918142403449366</v>
+        <v>0.9917855393890331</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001153634933973446</v>
+        <v>7.533885741862704E-05</v>
       </c>
       <c r="C6">
-        <v>0.0002498023673564409</v>
+        <v>0.0001698792953847969</v>
       </c>
       <c r="D6">
-        <v>0.0003413495800524188</v>
+        <v>0.0002212443069999415</v>
       </c>
       <c r="E6">
-        <v>0.0003443380737404271</v>
+        <v>0.0002212443069999415</v>
       </c>
       <c r="F6">
-        <v>0.0003866626079868442</v>
+        <v>0.000223060989974651</v>
       </c>
       <c r="G6">
-        <v>0.0005146078517547093</v>
+        <v>0.0003110648368222722</v>
       </c>
       <c r="H6">
-        <v>0.0007084964974645446</v>
+        <v>0.0004654483577145958</v>
       </c>
       <c r="I6">
-        <v>0.0007554175668463252</v>
+        <v>0.0004718919858428016</v>
       </c>
       <c r="J6">
-        <v>0.0007959373580395943</v>
+        <v>0.0004718919858428016</v>
       </c>
       <c r="K6">
-        <v>0.0008351693041949377</v>
+        <v>0.0004718919858428016</v>
       </c>
       <c r="L6">
-        <v>0.0008363261724290063</v>
+        <v>0.0004718919858428016</v>
       </c>
       <c r="M6">
-        <v>0.0008904923680241489</v>
+        <v>0.0004856286729017389</v>
       </c>
       <c r="N6">
-        <v>0.001010770171566215</v>
+        <v>0.0005659143528371701</v>
       </c>
       <c r="O6">
-        <v>0.001013406547643854</v>
+        <v>0.0005659143528371701</v>
       </c>
       <c r="P6">
-        <v>0.001081502839649225</v>
+        <v>0.0005936732958290956</v>
       </c>
       <c r="Q6">
-        <v>0.001232302424090128</v>
+        <v>0.0007046826843944142</v>
       </c>
       <c r="R6">
-        <v>0.001263813270018092</v>
+        <v>0.0007046826843944142</v>
       </c>
       <c r="S6">
-        <v>0.001302567637159371</v>
+        <v>0.0007046826843944142</v>
       </c>
       <c r="T6">
-        <v>0.001302682775792762</v>
+        <v>0.0007046826843944142</v>
       </c>
       <c r="U6">
-        <v>0.001318971293272443</v>
+        <v>0.0007046826843944142</v>
       </c>
       <c r="V6">
-        <v>0.001333851196710642</v>
+        <v>0.0007046826843944142</v>
       </c>
       <c r="W6">
-        <v>0.001333966335344033</v>
+        <v>0.0007046826843944142</v>
       </c>
       <c r="X6">
-        <v>0.001390261993001887</v>
+        <v>0.0007205629217320841</v>
       </c>
       <c r="Y6">
-        <v>0.001527972067057317</v>
+        <v>0.0008183962015859187</v>
       </c>
       <c r="Z6">
-        <v>0.001701562862169399</v>
+        <v>0.0009523475842080248</v>
       </c>
       <c r="AA6">
-        <v>0.001808857965329138</v>
+        <v>0.001019564672074801</v>
       </c>
       <c r="AB6">
-        <v>0.001919613458590781</v>
+        <v>0.001090265043488794</v>
       </c>
       <c r="AC6">
-        <v>0.001946346206378035</v>
+        <v>0.001090265043488794</v>
       </c>
       <c r="AD6">
-        <v>0.002004765603098431</v>
+        <v>0.001108283070242478</v>
       </c>
       <c r="AE6">
-        <v>0.002069176874995281</v>
+        <v>0.00113233261356062</v>
       </c>
       <c r="AF6">
-        <v>0.002308886652054505</v>
+        <v>0.001332840411844766</v>
       </c>
       <c r="AG6">
-        <v>0.002447195696127574</v>
+        <v>0.001431276624416091</v>
       </c>
       <c r="AH6">
-        <v>0.002529708408557494</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AI6">
-        <v>0.002531345599105708</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AJ6">
-        <v>0.002537359063682798</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AK6">
-        <v>0.002541643265808964</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AL6">
-        <v>0.002566278241534441</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AM6">
-        <v>0.002575666857810927</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AN6">
-        <v>0.00257657158033757</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AO6">
-        <v>0.002579014603209515</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AP6">
-        <v>0.002580123714942177</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AQ6">
-        <v>0.002592466874305671</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AR6">
-        <v>0.002594491239965287</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AS6">
-        <v>0.002597738977160929</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AT6">
-        <v>0.002603262707923598</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AU6">
-        <v>0.002616869067324292</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AV6">
-        <v>0.002620753577038688</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AW6">
-        <v>0.002626277307801356</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AX6">
-        <v>0.002650912283526833</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AY6">
-        <v>0.002670973578117619</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="AZ6">
-        <v>0.002673609954195257</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="BA6">
-        <v>0.002674686023426947</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="BB6">
-        <v>0.00267700164729514</v>
+        <v>0.001473547364805353</v>
       </c>
       <c r="BC6">
-        <v>0.002767760259967894</v>
+        <v>0.001524118559132465</v>
       </c>
       <c r="BD6">
-        <v>0.003074229108993109</v>
+        <v>0.001791827097841392</v>
       </c>
       <c r="BE6">
-        <v>0.003398809848551701</v>
+        <v>0.002077767352757453</v>
       </c>
       <c r="BF6">
-        <v>0.003461344460393286</v>
+        <v>0.002099927820306181</v>
       </c>
       <c r="BG6">
-        <v>0.003470733076669772</v>
+        <v>0.002099927820306181</v>
       </c>
       <c r="BH6">
-        <v>0.003475630914014009</v>
+        <v>0.002099927820306181</v>
       </c>
       <c r="BI6">
-        <v>0.003493284461533889</v>
+        <v>0.002099927820306181</v>
       </c>
       <c r="BJ6">
-        <v>0.003497741336265139</v>
+        <v>0.002099927820306181</v>
       </c>
       <c r="BK6">
-        <v>0.003564839918241128</v>
+        <v>0.002126682452562064</v>
       </c>
       <c r="BL6">
-        <v>0.003803367035265524</v>
+        <v>0.002325999766501974</v>
       </c>
       <c r="BM6">
-        <v>0.003807823909996775</v>
+        <v>0.002325999766501974</v>
       </c>
       <c r="BN6">
-        <v>0.003850687521259067</v>
+        <v>0.002328359092948889</v>
       </c>
       <c r="BO6">
-        <v>0.003986608435261808</v>
+        <v>0.002424391375923372</v>
       </c>
       <c r="BP6">
-        <v>0.004064779867563882</v>
+        <v>0.002462292114897226</v>
       </c>
       <c r="BQ6">
-        <v>0.004195986881427803</v>
+        <v>0.002553579311244703</v>
       </c>
       <c r="BR6">
-        <v>0.004404791387576896</v>
+        <v>0.002722977373772678</v>
       </c>
       <c r="BS6">
-        <v>0.004457511377129449</v>
+        <v>0.002735258286896976</v>
       </c>
       <c r="BT6">
-        <v>0.004503951702497073</v>
+        <v>0.00274121799047748</v>
       </c>
       <c r="BU6">
-        <v>0.004720563968876097</v>
+        <v>0.002918475468258828</v>
       </c>
       <c r="BV6">
-        <v>0.004838681926354558</v>
+        <v>0.002996587012898433</v>
       </c>
       <c r="BW6">
-        <v>0.004885644912737574</v>
+        <v>0.00300307283534475</v>
       </c>
       <c r="BX6">
-        <v>0.004945633551504181</v>
+        <v>0.003022670486025276</v>
       </c>
       <c r="BY6">
-        <v>0.004962755588008409</v>
+        <v>0.003022670486025276</v>
       </c>
       <c r="BZ6">
-        <v>0.004975368908379859</v>
+        <v>0.003022670486025276</v>
       </c>
       <c r="CA6">
-        <v>0.005005358729263031</v>
+        <v>0.003022670486025276</v>
       </c>
       <c r="CB6">
-        <v>0.005008699003061398</v>
+        <v>0.003022670486025276</v>
       </c>
       <c r="CC6">
-        <v>0.005031594344735644</v>
+        <v>0.003022670486025276</v>
       </c>
       <c r="CD6">
-        <v>0.005031684994103313</v>
+        <v>0.003022670486025276</v>
       </c>
       <c r="CE6">
-        <v>0.005042365040417831</v>
+        <v>0.003022670486025276</v>
       </c>
       <c r="CF6">
-        <v>0.005075031144379816</v>
+        <v>0.003022670486025276</v>
       </c>
       <c r="CG6">
-        <v>0.005095092438970602</v>
+        <v>0.003022670486025276</v>
       </c>
       <c r="CH6">
-        <v>0.00514342093739383</v>
+        <v>0.003030530854543893</v>
       </c>
       <c r="CI6">
-        <v>0.005399081144922779</v>
+        <v>0.003247094609061307</v>
       </c>
       <c r="CJ6">
-        <v>0.005482234257371558</v>
+        <v>0.003290009986264234</v>
       </c>
       <c r="CK6">
-        <v>0.005516076418368177</v>
+        <v>0.003290009986264234</v>
       </c>
       <c r="CL6">
-        <v>0.00555889997962929</v>
+        <v>0.003292328997744897</v>
       </c>
       <c r="CM6">
-        <v>0.005747150475173087</v>
+        <v>0.003441037067277188</v>
       </c>
       <c r="CN6">
-        <v>0.1790666255792659</v>
+        <v>0.1778663811312474</v>
       </c>
       <c r="CO6">
-        <v>0.2082445694385285</v>
+        <v>0.2071965742238442</v>
       </c>
       <c r="CP6">
-        <v>0.2856937017193314</v>
+        <v>0.285117311007104</v>
       </c>
       <c r="CQ6">
-        <v>0.2892792918249236</v>
+        <v>0.2886858349989726</v>
       </c>
       <c r="CR6">
-        <v>0.3043962762701043</v>
+        <v>0.3038620433838363</v>
       </c>
       <c r="CS6">
-        <v>0.3219724087877047</v>
+        <v>0.3215136692125637</v>
       </c>
       <c r="CT6">
-        <v>0.3269959939356444</v>
+        <v>0.3265297018160282</v>
       </c>
       <c r="CU6">
-        <v>0.331092853056293</v>
+        <v>0.330612877305532</v>
       </c>
       <c r="CV6">
-        <v>0.3313377214835042</v>
+        <v>0.3308185778828587</v>
       </c>
       <c r="CW6">
-        <v>0.3676838225538621</v>
+        <v>0.3673643516880249</v>
       </c>
       <c r="CX6">
-        <v>0.3715506616677368</v>
+        <v>0.3712159853913338</v>
       </c>
       <c r="CY6">
-        <v>0.389712106202574</v>
+        <v>0.3894567955777749</v>
       </c>
       <c r="CZ6">
-        <v>0.4090214637712161</v>
+        <v>0.4088531132262466</v>
       </c>
       <c r="DA6">
-        <v>0.4658192004438552</v>
+        <v>0.4659858277257238</v>
       </c>
       <c r="DB6">
-        <v>0.4864587640516706</v>
+        <v>0.4867211518660099</v>
       </c>
       <c r="DC6">
-        <v>0.5072883356650816</v>
+        <v>0.5076477410776433</v>
       </c>
       <c r="DD6">
-        <v>0.5075721393734394</v>
+        <v>0.5078926345263602</v>
       </c>
       <c r="DE6">
-        <v>0.5128727205295364</v>
+        <v>0.5131874957039001</v>
       </c>
       <c r="DF6">
-        <v>0.5134036283451711</v>
+        <v>0.5136811280652771</v>
       </c>
       <c r="DG6">
-        <v>0.51635037423195</v>
+        <v>0.5166065813364769</v>
       </c>
       <c r="DH6">
-        <v>0.5163922026631818</v>
+        <v>0.5166078986342905</v>
       </c>
       <c r="DI6">
-        <v>0.5180825136129598</v>
+        <v>0.5182686045748948</v>
       </c>
       <c r="DJ6">
-        <v>0.5213780671100107</v>
+        <v>0.5215451731175594</v>
       </c>
       <c r="DK6">
-        <v>0.5220485493297558</v>
+        <v>0.5221793032873143</v>
       </c>
       <c r="DL6">
-        <v>0.5225356174440995</v>
+        <v>0.5226288059102153</v>
       </c>
       <c r="DM6">
-        <v>0.5225369154765377</v>
+        <v>0.5226288059102153</v>
       </c>
       <c r="DN6">
-        <v>0.5239077454169073</v>
+        <v>0.5239679172008096</v>
       </c>
       <c r="DO6">
-        <v>0.5259792799779121</v>
+        <v>0.526012368873453</v>
       </c>
       <c r="DP6">
-        <v>0.5274461242211093</v>
+        <v>0.527448129683751</v>
       </c>
       <c r="DQ6">
-        <v>0.5294154053791027</v>
+        <v>0.5293896514595138</v>
       </c>
       <c r="DR6">
-        <v>0.5313396934357711</v>
+        <v>0.5312858824660371</v>
       </c>
       <c r="DS6">
-        <v>0.5313402517729375</v>
+        <v>0.5312858824660371</v>
       </c>
       <c r="DT6">
-        <v>0.5338595089471273</v>
+        <v>0.5337810188205508</v>
       </c>
       <c r="DU6">
-        <v>0.5356942790011595</v>
+        <v>0.5355871395861534</v>
       </c>
       <c r="DV6">
-        <v>0.5378570224648502</v>
+        <v>0.53772340358652</v>
       </c>
       <c r="DW6">
-        <v>0.5402160956343227</v>
+        <v>0.5400572961818831</v>
       </c>
       <c r="DX6">
-        <v>0.540475027241948</v>
+        <v>0.5402771529796114</v>
       </c>
       <c r="DY6">
-        <v>0.5424138810990453</v>
+        <v>0.5421880461518133</v>
       </c>
       <c r="DZ6">
-        <v>0.5439277282436267</v>
+        <v>0.5436711208279591</v>
       </c>
       <c r="EA6">
-        <v>0.5492524660004351</v>
+        <v>0.5489902984228209</v>
       </c>
       <c r="EB6">
-        <v>0.5661956174993947</v>
+        <v>0.5660047555211448</v>
       </c>
       <c r="EC6">
-        <v>0.5914885272442467</v>
+        <v>0.5914242116700507</v>
       </c>
       <c r="ED6">
-        <v>0.5950863403501989</v>
+        <v>0.595005039527899</v>
       </c>
       <c r="EE6">
-        <v>0.5989357606635607</v>
+        <v>0.5988391391904055</v>
       </c>
       <c r="EF6">
-        <v>0.6132327880845945</v>
+        <v>0.6131899658328861</v>
       </c>
       <c r="EG6">
-        <v>0.6220687923448064</v>
+        <v>0.6220436399674488</v>
       </c>
       <c r="EH6">
-        <v>0.6242291651084273</v>
+        <v>0.6241775175835335</v>
       </c>
       <c r="EI6">
-        <v>0.6272623370977514</v>
+        <v>0.6271899687399948</v>
       </c>
       <c r="EJ6">
-        <v>0.6298863066750248</v>
+        <v>0.6297905102598539</v>
       </c>
       <c r="EK6">
-        <v>0.6303263181579827</v>
+        <v>0.6301926449314355</v>
       </c>
       <c r="EL6">
-        <v>0.6303442945105121</v>
+        <v>0.6301926449314355</v>
       </c>
       <c r="EM6">
-        <v>0.6357002556682401</v>
+        <v>0.6355432524967654</v>
       </c>
       <c r="EN6">
-        <v>0.6705029506931461</v>
+        <v>0.670535409303132</v>
       </c>
       <c r="EO6">
-        <v>0.6810645910041764</v>
+        <v>0.6811261360494771</v>
       </c>
       <c r="EP6">
-        <v>0.6811134526516153</v>
+        <v>0.681134533094249</v>
       </c>
       <c r="EQ6">
-        <v>0.6811135573133783</v>
+        <v>0.681134533094249</v>
       </c>
       <c r="ER6">
-        <v>0.7038089879817371</v>
+        <v>0.7039393256171065</v>
       </c>
       <c r="ES6">
-        <v>0.7549525994878675</v>
+        <v>0.755380508067766</v>
       </c>
       <c r="ET6">
-        <v>0.77849300718111</v>
+        <v>0.779035867862485</v>
       </c>
       <c r="EU6">
-        <v>0.7818754735807204</v>
+        <v>0.7823999243110247</v>
       </c>
       <c r="EV6">
-        <v>0.7820195378249629</v>
+        <v>0.7825041537993456</v>
       </c>
       <c r="EW6">
-        <v>0.786006187942366</v>
+        <v>0.7864763911586227</v>
       </c>
       <c r="EX6">
-        <v>0.7884087984131206</v>
+        <v>0.7888541090918176</v>
       </c>
       <c r="EY6">
-        <v>0.7897141304515614</v>
+        <v>0.7901272891557446</v>
       </c>
       <c r="EZ6">
-        <v>0.7933452945584957</v>
+        <v>0.7937416886600209</v>
       </c>
       <c r="FA6">
-        <v>0.7948386199024727</v>
+        <v>0.7952041057662689</v>
       </c>
       <c r="FB6">
-        <v>0.7986710400153338</v>
+        <v>0.7990210927573831</v>
       </c>
       <c r="FC6">
-        <v>0.7990285677458627</v>
+        <v>0.799340197975843</v>
       </c>
       <c r="FD6">
-        <v>0.8057827289447663</v>
+        <v>0.8060982558735686</v>
       </c>
       <c r="FE6">
-        <v>0.8179635953034812</v>
+        <v>0.8183189212352218</v>
       </c>
       <c r="FF6">
-        <v>0.8393226369324845</v>
+        <v>0.8397784833602392</v>
       </c>
       <c r="FG6">
-        <v>0.840412059564567</v>
+        <v>0.8408343255920983</v>
       </c>
       <c r="FH6">
-        <v>0.8410233367825686</v>
+        <v>0.8414088590682975</v>
       </c>
       <c r="FI6">
-        <v>0.845094519902461</v>
+        <v>0.8454661886883016</v>
       </c>
       <c r="FJ6">
-        <v>0.864203326465197</v>
+        <v>0.8646606285141355</v>
       </c>
       <c r="FK6">
-        <v>0.8841600760529043</v>
+        <v>0.88470862123455</v>
       </c>
       <c r="FL6">
-        <v>0.8918725802800301</v>
+        <v>0.8924313624207172</v>
       </c>
       <c r="FM6">
-        <v>0.892129562887598</v>
+        <v>0.8926492573240828</v>
       </c>
       <c r="FN6">
-        <v>0.89872542938184</v>
+        <v>0.8992479732620521</v>
       </c>
       <c r="FO6">
-        <v>0.9113721047542724</v>
+        <v>0.9119375293631438</v>
       </c>
       <c r="FP6">
-        <v>0.9126875881930122</v>
+        <v>0.9132209279875801</v>
       </c>
       <c r="FQ6">
-        <v>0.912847925917734</v>
+        <v>0.9133415386193964</v>
       </c>
       <c r="FR6">
-        <v>0.913095097595013</v>
+        <v>0.9135495576847634</v>
       </c>
       <c r="FS6">
-        <v>0.9133849458535487</v>
+        <v>0.9138005356735366</v>
       </c>
       <c r="FT6">
-        <v>0.9142232168082349</v>
+        <v>0.9146035646444721</v>
       </c>
       <c r="FU6">
-        <v>0.9149298194690437</v>
+        <v>0.9152740542229556</v>
       </c>
       <c r="FV6">
-        <v>0.9149298260827646</v>
+        <v>0.9152740542229556</v>
       </c>
       <c r="FW6">
-        <v>0.9151770939500464</v>
+        <v>0.9154821701147048</v>
       </c>
       <c r="FX6">
-        <v>0.9156857768250266</v>
+        <v>0.9159534304984031</v>
       </c>
       <c r="FY6">
-        <v>0.9156954202373107</v>
+        <v>0.9159534304984031</v>
       </c>
       <c r="FZ6">
-        <v>0.9162865452547188</v>
+        <v>0.916507678449936</v>
       </c>
       <c r="GA6">
-        <v>0.917162882780526</v>
+        <v>0.9173490258349751</v>
       </c>
       <c r="GB6">
-        <v>0.9187726738279328</v>
+        <v>0.9189286791650664</v>
       </c>
       <c r="GC6">
-        <v>0.9220755491251993</v>
+        <v>0.9222126179479282</v>
       </c>
       <c r="GD6">
-        <v>0.9276848958903892</v>
+        <v>0.9278182874836088</v>
       </c>
       <c r="GE6">
-        <v>0.9357026101265031</v>
+        <v>0.9358482579044711</v>
       </c>
       <c r="GF6">
-        <v>0.9433547836518523</v>
+        <v>0.9435102692495795</v>
       </c>
       <c r="GG6">
-        <v>0.9474292207718406</v>
+        <v>0.947570874397678</v>
       </c>
       <c r="GH6">
-        <v>0.9503387198575225</v>
+        <v>0.9504588344482794</v>
       </c>
       <c r="GI6">
-        <v>0.9509741832762363</v>
+        <v>0.9510577141376308</v>
       </c>
       <c r="GJ6">
-        <v>0.9512687205149101</v>
+        <v>0.9513134121281632</v>
       </c>
       <c r="GK6">
-        <v>0.9519195451640763</v>
+        <v>0.9519277546756677</v>
       </c>
       <c r="GL6">
-        <v>0.952162327651226</v>
+        <v>0.9521313555126523</v>
       </c>
       <c r="GM6">
-        <v>0.9539504420038842</v>
+        <v>0.9538905119094427</v>
       </c>
       <c r="GN6">
-        <v>0.9544971853599853</v>
+        <v>0.9544000845769538</v>
       </c>
       <c r="GO6">
-        <v>0.9551389365788843</v>
+        <v>0.9550052936656759</v>
       </c>
       <c r="GP6">
-        <v>0.9569356854317969</v>
+        <v>0.9567731416873376</v>
       </c>
       <c r="GQ6">
-        <v>0.9613146408607529</v>
+        <v>0.9611402797939224</v>
       </c>
       <c r="GR6">
-        <v>0.9724417091884344</v>
+        <v>0.9723001753476954</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>131</v>
       </c>
       <c r="E2">
-        <v>0.02210712904845834</v>
+        <v>0.01962868541747171</v>
       </c>
       <c r="F2">
-        <v>0.5264957013346799</v>
+        <v>0.5257759122875855</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>135</v>
       </c>
       <c r="E3">
-        <v>0.0288971309636744</v>
+        <v>0.02887185150470519</v>
       </c>
       <c r="F3">
-        <v>0.5231903494692349</v>
+        <v>0.5227036257753018</v>
       </c>
       <c r="G3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>130</v>
       </c>
       <c r="E4">
-        <v>0.0227047591095743</v>
+        <v>0.02038012214916578</v>
       </c>
       <c r="F4">
-        <v>0.5008861404730721</v>
+        <v>0.5001370837842366</v>
       </c>
       <c r="G4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>106</v>
       </c>
       <c r="E5">
-        <v>0.04152797746471708</v>
+        <v>0.04099759529070455</v>
       </c>
       <c r="F5">
-        <v>0.5302819537592843</v>
+        <v>0.5303138174081929</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>106</v>
       </c>
       <c r="E6">
-        <v>0.005482234257371558</v>
+        <v>0.003292328997744897</v>
       </c>
       <c r="F6">
-        <v>0.5072883356650816</v>
+        <v>0.5076477410776433</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>147</v>
       </c>
       <c r="E2">
-        <v>0.02210712904845834</v>
+        <v>0.01962868541747171</v>
       </c>
       <c r="F2">
-        <v>0.7011126795647953</v>
+        <v>0.7009727393078384</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>151</v>
       </c>
       <c r="E3">
-        <v>0.0288971309636744</v>
+        <v>0.02887185150470519</v>
       </c>
       <c r="F3">
-        <v>0.730997956777947</v>
+        <v>0.7309362475176859</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>150</v>
       </c>
       <c r="E4">
-        <v>0.0227047591095743</v>
+        <v>0.02038012214916578</v>
       </c>
       <c r="F4">
-        <v>0.7157558126481864</v>
+        <v>0.7156436895351224</v>
       </c>
       <c r="G4">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.04152797746471708</v>
+        <v>0.04099759529070455</v>
       </c>
       <c r="F5">
-        <v>0.7210274926315243</v>
+        <v>0.7210596364912994</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>147</v>
       </c>
       <c r="E6">
-        <v>0.005482234257371558</v>
+        <v>0.003292328997744897</v>
       </c>
       <c r="F6">
-        <v>0.7038089879817371</v>
+        <v>0.7039393256171065</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>160</v>
       </c>
       <c r="E2">
-        <v>0.02210712904845834</v>
+        <v>0.01962868541747171</v>
       </c>
       <c r="F2">
-        <v>0.810195182014701</v>
+        <v>0.8102930112760579</v>
       </c>
       <c r="G2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>154</v>
       </c>
       <c r="E3">
-        <v>0.0288971309636744</v>
+        <v>0.02887185150470519</v>
       </c>
       <c r="F3">
-        <v>0.8045324181185537</v>
+        <v>0.8046698923346963</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>164</v>
       </c>
       <c r="E4">
-        <v>0.0227047591095743</v>
+        <v>0.02038012214916578</v>
       </c>
       <c r="F4">
-        <v>0.8007400885668742</v>
+        <v>0.8007535435628517</v>
       </c>
       <c r="G4">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>151</v>
       </c>
       <c r="E5">
-        <v>0.04152797746471708</v>
+        <v>0.04099759529070455</v>
       </c>
       <c r="F5">
-        <v>0.8045985156899542</v>
+        <v>0.8051442094747319</v>
       </c>
       <c r="G5">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>159</v>
       </c>
       <c r="E6">
-        <v>0.005482234257371558</v>
+        <v>0.003292328997744897</v>
       </c>
       <c r="F6">
-        <v>0.8057827289447663</v>
+        <v>0.8060982558735686</v>
       </c>
       <c r="G6">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>174</v>
       </c>
       <c r="E2">
-        <v>0.02210712904845834</v>
+        <v>0.01962868541747171</v>
       </c>
       <c r="F2">
-        <v>0.9000497797538717</v>
+        <v>0.9002557262705796</v>
       </c>
       <c r="G2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>173</v>
       </c>
       <c r="E3">
-        <v>0.0288971309636744</v>
+        <v>0.02887185150470519</v>
       </c>
       <c r="F3">
-        <v>0.9028724680909898</v>
+        <v>0.903031645807556</v>
       </c>
       <c r="G3">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>187</v>
       </c>
       <c r="E4">
-        <v>0.0227047591095743</v>
+        <v>0.02038012214916578</v>
       </c>
       <c r="F4">
-        <v>0.9150944379700101</v>
+        <v>0.9150357273747867</v>
       </c>
       <c r="G4">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>167</v>
       </c>
       <c r="E5">
-        <v>0.04152797746471708</v>
+        <v>0.04099759529070455</v>
       </c>
       <c r="F5">
-        <v>0.9034054278313645</v>
+        <v>0.9041213249624397</v>
       </c>
       <c r="G5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>170</v>
       </c>
       <c r="E6">
-        <v>0.005482234257371558</v>
+        <v>0.003292328997744897</v>
       </c>
       <c r="F6">
-        <v>0.9113721047542724</v>
+        <v>0.9119375293631438</v>
       </c>
       <c r="G6">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H6">
         <v>20</v>

--- a/on_trucks/Processed_Stand_Alone/20_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/20_455-55R22.xlsx
@@ -1994,25 +1994,25 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0007783924887043356</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.000781159831162324</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0004937488116771138</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.000286812283948606</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0002013012812443919</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0001097723526989256</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>4.732376982506737E-06</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2024,40 +2024,40 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.488048916869217E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0002983977091626022</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0004781308912280827</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0006100982994778516</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0006526336944147199</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0005986597292721528</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0005539297304347351</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.000291942508798562</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0002219939609543879</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0001808340361479965</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>7.554076623349214E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>3.085166823660665E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -2066,46 +2066,46 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>2.256733511004367E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>8.636045035070807E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0003188592084586866</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0004465625989277917</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0005556401877672281</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.000769202086138337</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0008394041737104173</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0006502461483510147</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0006844994199297058</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0005034510131040838</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0002535401153200309</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0002607149696259931</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0001459468448106571</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.68656597279371E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -2117,40 +2117,40 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>9.829814041844341E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0001511140802622657</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0003043209248943508</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0005391257916546223</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0005283383383577144</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0005625866188384122</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0004528359663467904</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.000378818606992061</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0001682207164401962</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.000144137038465082</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.000136025568394949</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>7.72416036271107E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
         <v>0</v>
@@ -2162,46 +2162,46 @@
         <v>0</v>
       </c>
       <c r="BF2">
-        <v>4.809047190946534E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0001323242365368547</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0002052880717070759</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0003665440178097718</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0005261777765630353</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0004165605956919465</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0003594554209473567</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0002776095344526923</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0003524300681391523</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.000280471013446423</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0001556228228477667</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0001168424543232119</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.000105535101693791</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>3.896642277122567E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -2216,37 +2216,37 @@
         <v>0</v>
       </c>
       <c r="BX2">
-        <v>3.536406760640351E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>4.199163191707426E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>8.207344936880063E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>5.2196414774044E-05</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>3.753980394901412E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>5.707467973961197E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>5.069938725695391E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>1.274701371394946E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>2.955323208108665E-05</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>5.705398580206482E-07</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>1.822067239425961E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
         <v>0</v>
@@ -2261,337 +2261,337 @@
         <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.00140431089338209</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1564459004556772</v>
+        <v>0.5040982042165619</v>
       </c>
       <c r="CO2">
-        <v>0.0765389951552595</v>
+        <v>0.1851477787371201</v>
       </c>
       <c r="CP2">
-        <v>0.05930524396284937</v>
+        <v>0.1163588267089991</v>
       </c>
       <c r="CQ2">
-        <v>0.003759930432753526</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.01482733984996728</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.006803740575682268</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.001210235569853255</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.000106300802539781</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.01275265613513694</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.01606529617429843</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.0008014290826213849</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.02333220403760636</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.01141847023396952</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.01490231801581113</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.01118502370056577</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.000431664161354824</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.000153321826045838</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>6.470079571798049E-05</v>
+        <v>0</v>
       </c>
       <c r="DF2">
         <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.003495850129772561</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.00668926672439459</v>
+        <v>0</v>
       </c>
       <c r="DI2">
         <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.0004471441825963925</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.008076630259007194</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.0004317897136323714</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.005803320466300182</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.004478072051858102</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>6.99150300048471E-05</v>
+        <v>0</v>
       </c>
       <c r="DP2">
         <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.001272586358400806</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0001948940698850503</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.0006094255075185007</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>2.403978750713485E-05</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.006999804892012259</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.0007132288139296072</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.0002746588496450273</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.0002097223000170908</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.006421121795985259</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.003497425243822774</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.01082834232886433</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.03410090650386722</v>
+        <v>0.01575507880702939</v>
       </c>
       <c r="EC2">
-        <v>0.02420594806737669</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.000136946647354076</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.01481874932505406</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.01868693177778185</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.0055560690187308</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.002294572539328243</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.001194523472617692</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.001958463044652504</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.0008137927568652376</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.001051609016687598</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.00537386657143467</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.04480354635432886</v>
+        <v>0.05847493538543357</v>
       </c>
       <c r="EO2">
-        <v>0.008249326274657525</v>
+        <v>0</v>
       </c>
       <c r="EP2">
         <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.001014640980245707</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.04503784117313754</v>
+        <v>0.05941012905694052</v>
       </c>
       <c r="ES2">
-        <v>0.04537478456356069</v>
+        <v>0.06075504708791557</v>
       </c>
       <c r="ET2">
-        <v>0.01610708253221647</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.009011048330029428</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.001155177620740644</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.00428222730358903</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.002208021969401047</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.001628223222094757</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.001620323199488607</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.003261679887159768</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.001017784566965738</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.001163912947871858</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.006633236919950928</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.01585676890515038</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.02671299671485178</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.0009464897207513345</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>9.880814308789861E-07</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.003276545409648993</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.01603323239476992</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.01363066171732703</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.003153081644981648</v>
+        <v>0</v>
       </c>
       <c r="FM2">
         <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.009808324914715939</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.01324722765787312</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.0008268544401885448</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.0003664275420854301</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>5.749073706457915E-06</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.001954135682190654</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.0004226357480942642</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.0002684393478461065</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.0003875248730527008</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.000937579765566537</v>
+        <v>0</v>
       </c>
       <c r="FX2">
         <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.0005384910870055634</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.0003260772518626077</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>8.207344936880063E-05</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.004054180614953854</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.005176416923530587</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.005095056693008615</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.01057376714937848</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.003621811053468212</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.002223634043422791</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.002602399313086397</v>
+        <v>0</v>
       </c>
       <c r="GI2">
         <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.001732633772053262</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0007105793660363175</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.001455025983478597</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.002527929313469694</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.0006232964329801718</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.00195099380612921</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.003890111953689838</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.005844942600993933</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.01538752921727018</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.02931114396967357</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,22 +2767,22 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0002174107880984895</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0002767878014079423</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0004228813030787646</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0004540839554426624</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001657950798050322</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.960992606623095E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2794,94 +2794,94 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.335079788903098E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.000119801086378253</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.404983291784592E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0001894988109746056</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0006224198946309748</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0003129735789174182</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0004091597972288044</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0007020958006169983</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0004198478940319586</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0004946782186632732</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0003184094335597964</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>8.677857924301826E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>4.798169938750873E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>2.107707625029477E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.00011207864523488</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0003331298703820503</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0001800012652087072</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0002266326442087128</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>7.660065982480366E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0001023849297319701</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0001639651463159928</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0004274366346230926</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0005469939282193875</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0005266083067922162</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0002075523391457232</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>6.364021155543443E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>6.290743338765642E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>9.374892266943696E-06</v>
+        <v>0</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -2890,91 +2890,91 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>5.337140907645512E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0001495320292109604</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0002683256421912127</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0004035875126323401</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0003784258694592953</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0003887249662918628</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0003811233613876118</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.000526387375761096</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0005506320201900843</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0005045237731992258</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0003263951214974833</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0002547562202176961</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0001172704592415293</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.000176079616482894</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0002729218645904173</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0001551839882583987</v>
+        <v>0</v>
       </c>
       <c r="BG3">
         <v>0</v>
       </c>
       <c r="BH3">
-        <v>7.294820437688714E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0004093555615693651</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0005573270221602548</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0004015627981901701</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0004476414231433365</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.001164300937726462</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0004671017974135166</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.000515930786421219</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.000794398290826026</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0004671017974135166</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0004493940704080181</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0003250660834201907</v>
+        <v>0</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -2986,385 +2986,385 @@
         <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0001128981983122603</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0003666654288018164</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0003682587070954187</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0007321588574678273</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0008394447202218889</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0007598164282497033</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0007515415541655906</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.000898228610427038</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0006655579403038292</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0006712265065573583</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0005384437257239618</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0002428250715299944</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>6.040464614977178E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>9.757655052581798E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
         <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.000263017156290171</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0004308685162704248</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.0002970994881556706</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.0006371161682192304</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.0007413349659934173</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.01584575768708804</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.06595317945423583</v>
+        <v>0.1570910350431153</v>
       </c>
       <c r="CS3">
-        <v>0.1305335766244907</v>
+        <v>0.4399351879668865</v>
       </c>
       <c r="CT3">
-        <v>0.04259892009438303</v>
+        <v>0.05480588358477004</v>
       </c>
       <c r="CU3">
-        <v>0.005350409436144903</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.01706136302776855</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.00159033608169816</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.01192741936447088</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.003044709696642795</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.01486029510876129</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.01944550657911778</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.004006078680856737</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.05050199144645796</v>
+        <v>0.08941913497405279</v>
       </c>
       <c r="DD3">
-        <v>0.0001730752675381058</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.03308455840342892</v>
+        <v>0.01313562928153733</v>
       </c>
       <c r="DF3">
-        <v>5.223119142031839E-05</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.01276311504755428</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>9.903663501274477E-05</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>2.401543789160627E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
         <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.001419445322035429</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.0004897904319255924</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.00068837252868349</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.0005026706498290526</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.001277201742015412</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.0009373993400659705</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.003858818219412417</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.004065214784314932</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.003692282461226098</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.001049156906294534</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.000444523884298424</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.001063338557185283</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.002689044854062283</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.0009083663614791004</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.002019853621320491</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.0002086305030481038</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>6.332303599514204E-06</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.0007240328662337274</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.003574072970344794</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.0001788605458242898</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.008642640435211629</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.02647614971722325</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.01104974307268537</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.0004831079631278737</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.02353734153774193</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.02388304436461797</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.0140183288256258</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.00297278223135965</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.0005677537385982992</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.000103874906186404</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.0001749502461921859</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.001316423547593319</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.02457776543884888</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.04241853874290837</v>
+        <v>0.05401586350442601</v>
       </c>
       <c r="ES3">
-        <v>0.003849816812674163</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.0008034033100078996</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.003196184474953622</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.05527956252926237</v>
+        <v>0.1103435656861531</v>
       </c>
       <c r="EW3">
-        <v>0.0486376183247752</v>
+        <v>0.08125369995905897</v>
       </c>
       <c r="EX3">
-        <v>0.01868115766100546</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.006414868831229752</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>5.716371726878851E-05</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.001999154219026574</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.0002075523391457232</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>4.230638087477795E-06</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>4.960992606623095E-05</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.009264912949167065</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.00166381739946661</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.0005701454271395336</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.003987232662831699</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.01396711742001549</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.01909252367488888</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>4.617570937548047E-06</v>
+        <v>0</v>
       </c>
       <c r="FL3">
         <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.004600026626453943</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.01128998361841635</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.00547995989273733</v>
+        <v>0</v>
       </c>
       <c r="FP3">
         <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.001685679306186892</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.02443802608502346</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.01480757149411297</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.002610345662520285</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.004566370091311135</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>2.348922527081571E-05</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>7.450476619490833E-05</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.003444000615994791</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0001840773960721457</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>1.160257887815482E-05</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0001698530982775376</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>3.080571505191056E-07</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.000688624235727348</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0002463324532490051</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0006764551775235074</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.009160996994583103</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.008758779494169826</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.01286833348875492</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.01404508800174827</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.005030408543558251</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.007109306328636412</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.005540273351778999</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>2.478428630893985E-05</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0004369924410769451</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.000281755473322475</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.001425243996466707</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.00121756401062218</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0004306679052346726</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.00313462502389968</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3552,37 +3552,37 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001920335234776634</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0005172436561415265</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.000535377757376647</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0005172436561415265</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0008369357468233662</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.00058541426705061</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0006209796890562162</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001013010611022673</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0008153916229238673</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0003598110892564</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>4.439734386887389E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -3594,46 +3594,46 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0001748144207679989</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0003877455483642529</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0006967999634159106</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.000726057370892293</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0001920751820289434</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>7.870325143188499E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0002716014268766057</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0005094213296208</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0003230009028944276</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0006681138387060546</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0007601939317641803</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0005310645926191411</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0004263872817691399</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0001699435608361939</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -3648,31 +3648,31 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>6.003427211252375E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0002572186887523745</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0007192438979322209</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0006745468590837678</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0006359577046283583</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.001281733328337536</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0005545463272999911</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0001231387844868235</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0002906405624028826</v>
+        <v>0</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>1.063342724301223E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
         <v>0</v>
@@ -3693,34 +3693,34 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>4.665337232540457E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0002614780667744274</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0002296149214446799</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>3.345623717449455E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>1.974483480701999E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0002556941508396106</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0002862768618671749</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0004423140232901107</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0003166475561315808</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>9.436373653450342E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="BN4">
-        <v>3.501206177647176E-05</v>
+        <v>0</v>
       </c>
       <c r="BO4">
         <v>0</v>
@@ -3741,37 +3741,37 @@
         <v>0</v>
       </c>
       <c r="BQ4">
-        <v>1.919763730582683E-06</v>
+        <v>0</v>
       </c>
       <c r="BR4">
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>6.930903172326236E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0001151040587373796</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.0001305855096988605</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0002488847138976741</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0001677087843803948</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>3.921886185553564E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
         <v>0</v>
       </c>
       <c r="BZ4">
-        <v>5.243598787732081E-06</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>3.163943518536729E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
         <v>0</v>
@@ -3792,211 +3792,211 @@
         <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0001582270404480633</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0003795944222413968</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.0003483781066909581</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>8.505209919197215E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>1.654548222443709E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
         <v>0</v>
       </c>
       <c r="CN4">
-        <v>9.538763709543897E-05</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.08366697807970219</v>
+        <v>0.2672169687422754</v>
       </c>
       <c r="CP4">
-        <v>9.825483041790309E-05</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.1005193657659936</v>
+        <v>0.3513737241262258</v>
       </c>
       <c r="CR4">
-        <v>0.002052197213213724</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.009105114044923219</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.02750716662471553</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.003131731717603411</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.001538405260430599</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.001198863005939771</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.01391636068043051</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.01786727922267364</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.01092544679505291</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.03371218317890477</v>
+        <v>0.01775478374034847</v>
       </c>
       <c r="DB4">
-        <v>0.0007100286419105538</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.07282103384883991</v>
+        <v>0.2130549418214771</v>
       </c>
       <c r="DD4">
-        <v>0.01327102654275499</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.03462720183412715</v>
+        <v>0.0223241659888913</v>
       </c>
       <c r="DF4">
-        <v>0.01078809334793824</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.004679487000827826</v>
+        <v>0</v>
       </c>
       <c r="DH4">
         <v>0</v>
       </c>
       <c r="DI4">
-        <v>6.003427211252375E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.005934527904817571</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.002151072914064364</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.0004243561581586171</v>
+        <v>0</v>
       </c>
       <c r="DM4">
         <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.001644404080370841</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.0002037554990324511</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.005603883409610036</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.004719424759038866</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0001305855096988605</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.0002085690495197071</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0001200882190585924</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.005316321646645545</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.001213847603945481</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.0002742934409081715</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.003361128520952778</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.0003305821452695127</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.002231948980518516</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.0035965322478525</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.002220193498967785</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.009713547301574863</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.01458771857993001</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.004742623710763263</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>2.47152283810859E-05</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.007170296771885382</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.01569022990407339</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.01621153448692329</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0003195284276302202</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>8.774485802488967E-05</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0004120237071823905</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.0004826091351767238</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.005431098554408651</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.01997746651614511</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.01735607978248745</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.005025604945414752</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.000151444315705957</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.009901421429566524</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.03542729965375766</v>
+        <v>0.02631966133016272</v>
       </c>
       <c r="EU4">
-        <v>0.05057342494288668</v>
+        <v>0.1019557542506193</v>
       </c>
       <c r="EV4">
-        <v>0.02589434458956644</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.004725746512133565</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.0005449225879964447</v>
+        <v>0</v>
       </c>
       <c r="EY4">
         <v>0</v>
@@ -4011,133 +4011,133 @@
         <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.006610933343207366</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.001329868229317108</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.002727841041896983</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.01318660381278308</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.01884048598674236</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.01007907265576184</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.001170035268324259</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
         <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.004439308694668333</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.009849729196293065</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.004368073175872556</v>
+        <v>0</v>
       </c>
       <c r="FN4">
         <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.008876134934223798</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.02528854229336528</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.01377960911332708</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.002174122603571925</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.001415992528431186</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>1.300100278630921E-05</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.0003947041871337261</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0004107291115896416</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0001120972956805353</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.0006769943266498953</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0002231168416624066</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
         <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.00139500392569123</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.001015982670362481</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.002360163211803576</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.009989913895032537</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.01067084148541318</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.01682812331837614</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0139955149473274</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.01167295107112556</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.006057671347332308</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.002247850791323971</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0005449225879964447</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.0005915977085213192</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.001335622826247364</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.003190615108576439</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.004265475783186497</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.003386100804436058</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.007115949925686074</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.009629558871310055</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.02093044085214351</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,7 +4313,7 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001341190805581669</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4325,91 +4325,91 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001375173149157449</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0001023558146180519</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0002705101033172704</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8.879648687581971E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0002492131749992542</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.000431276087799365</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0006220609873309738</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0008544459450143881</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0007894106431311295</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0004527160996692791</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0003772082189417962</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0006545294507768719</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0003381640018447406</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>4.798974663073363E-08</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0001156683616097066</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3.754019769416913E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0002215049765005608</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.001109614322481616</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.001101410953031359</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001460405342751082</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.001163644420836355</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.000352454259510192</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.000214567353154908</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0002376966053181116</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0003940976931458627</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0002824117705422424</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0001156683616097066</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0001353557615539089</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -4418,94 +4418,94 @@
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>3.448592738896934E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0003021134505642526</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.000418766093299398</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0004642951825623252</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0002337172101701946</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0003525876075634996</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0005527239079491709</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0008544459450143881</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.000904111449686731</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.00110778669470162</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.001091421967911206</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0003605096170648664</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0003790840495586931</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0001446426697793419</v>
+        <v>0</v>
       </c>
       <c r="AY5">
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>7.071725698119862E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0001399252147683664</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0002052943311437507</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.000352454259510192</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.000449186981430236</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0006094268955211732</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.001115785861059036</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0009577612475534807</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0005947792420469895</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0006999278480405677</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0005825715933528329</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.0008470019747513818</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0009320671055733519</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0003909196184037121</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0001488013031315988</v>
+        <v>0</v>
       </c>
       <c r="BO5">
         <v>0</v>
@@ -4514,172 +4514,172 @@
         <v>0</v>
       </c>
       <c r="BQ5">
-        <v>7.04698611975671E-07</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>4.276142032131545E-06</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.000133387241719104</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>9.568173647075665E-05</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0001501799870792914</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0006220609873309738</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0008644556231185787</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.001018232832491161</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.000901317472680982</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.001349098094685997</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.001007414007205885</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0004168058042025095</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.000282533070411091</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0002186299343006359</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>1.176774756458956E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
         <v>0</v>
       </c>
       <c r="CG5">
-        <v>3.442415140880558E-05</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>9.23201213226071E-05</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.0001640397216068679</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.0004062780137703244</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0007024096225531366</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.001390897821450491</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.001789534878656765</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.001599421294268107</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.02177061118737279</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.1384912266889217</v>
+        <v>0.4663638645517363</v>
       </c>
       <c r="CQ5">
-        <v>0.1059527767230734</v>
+        <v>0.3261767159552519</v>
       </c>
       <c r="CR5">
-        <v>0.02820031519126296</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.0005744122053303364</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.02296268663314136</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.01061452459911094</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.02370822788349831</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.006811638888190154</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.01176039177330205</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.02231258861569821</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.0002418171954927853</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.03673411695680156</v>
+        <v>0.02795825279893907</v>
       </c>
       <c r="DB5">
-        <v>0.0004620919402604671</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.05871879563603141</v>
+        <v>0.1226760227014984</v>
       </c>
       <c r="DD5">
-        <v>0.004646784545991783</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.006512332294979059</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.003678025279384572</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.002201135196595099</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0002534144163064418</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.006665127713655614</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.001129441715663849</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.0001466697843888581</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>3.219243984291565E-05</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.001698854162781655</v>
+        <v>0</v>
       </c>
       <c r="DN5">
         <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.0005804623430482582</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.001391149894111091</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
         <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.0003065414663743954</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.006198761378501247</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0002896182612934699</v>
+        <v>0</v>
       </c>
       <c r="DU5">
         <v>0</v>
@@ -4688,229 +4688,229 @@
         <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.008933613004667397</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.001744546978085193</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.0009216939520233424</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.002207977919027625</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.005788763176223071</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.0001549253660047925</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.01375487731394289</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.02973510644498467</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.01315947583214906</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>5.777576478359107E-05</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.007749912006508962</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.008619327074392695</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.003318612889367485</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>2.917128437161432E-05</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.0043780608501111</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.002181152277812977</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.001730803261615508</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>1.056652842543529E-05</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.01425426900528047</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.03628467726041019</v>
+        <v>0.02602190765744326</v>
       </c>
       <c r="EQ5">
-        <v>0.004058652977076929</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.0002974648711760852</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0009294405407669122</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.03411911759951726</v>
+        <v>0.01669191085996871</v>
       </c>
       <c r="EU5">
-        <v>0.03352014508836494</v>
+        <v>0.01411132547516238</v>
       </c>
       <c r="EV5">
-        <v>0.01115975190653014</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.003305014599432761</v>
+        <v>0</v>
       </c>
       <c r="EX5">
         <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.006096730121572409</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.001118877790777352</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.003151034560440167</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.003145919889007449</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.003883231209373383</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.000944606508550389</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.001635129972002657</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.006906286819740879</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.01476333762063193</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.02504097421455364</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>1.244053717101914E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.0004513625219969972</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.007312288317073852</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.02120988080538282</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.01415790473764525</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.001588685786268485</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.0001557940572726928</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.01226012986256666</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.01090208840358651</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.0001052860381087427</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.0005909519287178211</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>6.032064835289416E-05</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0005911199973563507</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.002187964703050719</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.000385858270033813</v>
+        <v>0</v>
       </c>
       <c r="FX5">
         <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0001501799870792914</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0004751608675088668</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.000107648461871994</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0009443971549344342</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.0001106281303845716</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.003976409827967754</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.004001313516135978</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.005720376651129473</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.008141247439772389</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.003628495930305587</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.004037849913232016</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.003151410144664835</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>1.322418421316191E-05</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0008743183901252636</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.0004975421122300583</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.001492216892320617</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.00137947204236305</v>
+        <v>0</v>
       </c>
       <c r="GP5">
         <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.001696332931222413</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.00427988541617172</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.008214460610966963</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,28 +5086,28 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>7.533885741862704E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>9.454043796616985E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5.136501161514461E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.816682974709501E-06</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>8.800384684762122E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0001543835208923236</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>6.443628128205774E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5119,19 +5119,19 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.373668705893726E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>8.028567993543118E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>2.775894299192543E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0001110093885653186</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -5152,37 +5152,37 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>1.588023733766992E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>9.783327985383459E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0001339513826221061</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>6.721708786677597E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>7.070037141399296E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>1.80180267536846E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>2.40495433181414E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0002005077982841464</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>9.843621257132498E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>4.227074038926205E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -5245,16 +5245,16 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>5.057119432711197E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0002677085387089269</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0002859402549160607</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>2.216046754872807E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -5269,46 +5269,46 @@
         <v>0</v>
       </c>
       <c r="BK6">
-        <v>2.675463225588301E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0001993173139399102</v>
+        <v>0</v>
       </c>
       <c r="BM6">
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>2.359326446914397E-06</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>9.603228297448322E-05</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>3.790073897385451E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>9.1287196347477E-05</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.000169398062527975</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>1.228091312429796E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>5.95970358050356E-06</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0001772574777813478</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>7.811154463960545E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>6.485822446316938E-06</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>1.959765068052575E-05</v>
+        <v>0</v>
       </c>
       <c r="BY6">
         <v>0</v>
@@ -5338,352 +5338,352 @@
         <v>0</v>
       </c>
       <c r="CH6">
-        <v>7.860368518617268E-06</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0002165637545174138</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>4.291537720292692E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
         <v>0</v>
       </c>
       <c r="CL6">
-        <v>2.319011480663178E-06</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0001487080695322915</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1744253440639702</v>
+        <v>0.5736019817297882</v>
       </c>
       <c r="CO6">
-        <v>0.02933019309259676</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.07792073678325989</v>
+        <v>0.1899038235233542</v>
       </c>
       <c r="CQ6">
-        <v>0.003568523991868551</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.0151762083848637</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.01765162582872741</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.00501603260346443</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.00408317548950381</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.000205700577326639</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.03654577380516621</v>
+        <v>0.02539875440913394</v>
       </c>
       <c r="CX6">
-        <v>0.003851633703308945</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.01824081018644103</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.01939631764847175</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.05713271449947719</v>
+        <v>0.1072515431007172</v>
       </c>
       <c r="DB6">
-        <v>0.02073532414028606</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.02092658921163339</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.0002448934487169407</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.005294861177539872</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.0004936323613770331</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.002925453271199786</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>1.317297813607724E-06</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.001660705940604332</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.003276568542664631</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.0006341301697548981</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.000449502622901044</v>
+        <v>0</v>
       </c>
       <c r="DM6">
         <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.001339111290594239</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.002044451672643444</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.001435760810297959</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.001941521775762747</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.001896231006523358</v>
+        <v>0</v>
       </c>
       <c r="DS6">
         <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.002495136354513755</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.001806120765602605</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.00213626400036655</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.002333892595363081</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.0002198567977282558</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.001910893172201809</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.001483074676145879</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.005319177594861821</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.01701445709832392</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.02541945614890586</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.003580827857848291</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.003834099662506532</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.01435082664248051</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.00885367413456277</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.002133877616084609</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.003012451156461311</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.002600541519859165</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0004021346715815464</v>
+        <v>0</v>
       </c>
       <c r="EL6">
         <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.00535060756532994</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.03499215680636666</v>
+        <v>0.01922164019878735</v>
       </c>
       <c r="EO6">
-        <v>0.01059072674634506</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>8.397044771847446E-06</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
         <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.02280479252285748</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.05144118245065952</v>
+        <v>0.0846222570382191</v>
       </c>
       <c r="ET6">
-        <v>0.02365535979471896</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.003364056448539667</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.0001042294883208628</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.003972237359277091</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.002377717933195016</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.001273180063926938</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.003614399504276362</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.001462417106247897</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.003816986991114175</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.0003191052184598584</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.006758057897725643</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.01222066536165314</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.02145956212501742</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.001055842231859024</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.000574533476199264</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.004057329620004029</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.01919443982583387</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.02004799272041448</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.00772274118616728</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.0002178949033656187</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.006598715937969186</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.01268955610109164</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.001283398624436366</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.0001206106318162389</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0002080190653670413</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.0002509779887732148</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0008030289709355253</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0006704895784834628</v>
+        <v>0</v>
       </c>
       <c r="FV6">
         <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0002081158917491562</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.00047126038369825</v>
+        <v>0</v>
       </c>
       <c r="FY6">
         <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0005542479515329039</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0008413473850391332</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.001579653330091194</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.003283938782861838</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.005605669535680593</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.00802997042086224</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.0076620113451083</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.004060605148098448</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.00288796005060139</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0005988796893514519</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0002556979905323313</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0006143425475044392</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0002036008369845152</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.00175915639679045</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.0005095726675111093</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0006052090887220982</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.001767848021661764</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.004367138106584769</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.01115989555377306</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.02769982465230517</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0007783924887043356</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.00155955231986666</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.002053301131543774</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.00234011341549238</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.002541414696736772</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002651187049435697</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.002655919426418204</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.002655919426418204</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.002655919426418204</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.002655919426418204</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.002740799915586897</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.003039197624749499</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.003517328515977582</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004127426815455433</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.004780060509870153</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.005378720239142306</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.005932649969577041</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.006224592478375603</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.006446586439329991</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.006627420475477988</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.00670296124171148</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.006733812909948087</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.006733812909948087</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.006733812909948087</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.00675638024505813</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.006842740695408838</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.007161599903867524</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.007608162502795316</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.008163802690562544</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.008933004776700882</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0097724089504113</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.01042265509876231</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.01110715451869202</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0116106055317961</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.01186414564711613</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.01212486061674213</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.01227080746155278</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.01228767312128072</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.01228767312128072</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.01228767312128072</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.01228767312128072</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.01238597126169916</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.01253708534196143</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.01284140626685578</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0133805320585104</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.01390887039686812</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.01447145701570653</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.01492429298205332</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.01530311158904538</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.01547133230548558</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.01561546934395066</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.01575149491234561</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.01582873651597272</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.01582873651597272</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.01582873651597272</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.01582873651597272</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.01587682698788219</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.01600915122441904</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.01621443929612612</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.01658098331393589</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.01710716109049892</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.01752372168619087</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.01788317710713823</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.01816078664159092</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.01851321670973007</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.01879368772317649</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.01894931054602426</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.01906615300034747</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.01917168810204127</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.01921065452481249</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.01921065452481249</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.01921065452481249</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.01921065452481249</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.01921065452481249</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0192460185924189</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.01928801022433597</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.01937008367370477</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.01942228008847881</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.01945981989242783</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.01951689457216744</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0195675939594244</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.01958034097313835</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.01960989420521943</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.01961046474507745</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.01962868541747171</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.01962868541747171</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.01962868541747171</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.01962868541747171</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.01962868541747171</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0210329963108538</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.177478896766531</v>
+        <v>0.5040982042165619</v>
       </c>
       <c r="CO2">
-        <v>0.2540178919217905</v>
+        <v>0.689245982953682</v>
       </c>
       <c r="CP2">
-        <v>0.3133231358846399</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="CQ2">
-        <v>0.3170830663173934</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="CR2">
-        <v>0.3319104061673607</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="CS2">
-        <v>0.338714146743043</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="CT2">
-        <v>0.3399243823128962</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="CU2">
-        <v>0.340030683115436</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="CV2">
-        <v>0.3527833392505729</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="CW2">
-        <v>0.3688486354248713</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="CX2">
-        <v>0.3696500645074927</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="CY2">
-        <v>0.3929822685450991</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="CZ2">
-        <v>0.4044007387790686</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DA2">
-        <v>0.4193030567948798</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DB2">
-        <v>0.4304880804954456</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DC2">
-        <v>0.4309197446568004</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DD2">
-        <v>0.4310730664828462</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DE2">
-        <v>0.4311377672785642</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DF2">
-        <v>0.4311377672785642</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DG2">
-        <v>0.4346336174083367</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DH2">
-        <v>0.4413228841327313</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DI2">
-        <v>0.4413228841327313</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DJ2">
-        <v>0.4417700283153277</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DK2">
-        <v>0.4498466585743349</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DL2">
-        <v>0.4502784482879673</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DM2">
-        <v>0.4560817687542674</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DN2">
-        <v>0.4605598408061256</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DO2">
-        <v>0.4606297558361304</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DP2">
-        <v>0.4606297558361304</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DQ2">
-        <v>0.4619023421945312</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DR2">
-        <v>0.4620972362644163</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DS2">
-        <v>0.4627066617719348</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DT2">
-        <v>0.462730701559442</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DU2">
-        <v>0.4697305064514542</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DV2">
-        <v>0.4704437352653838</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DW2">
-        <v>0.4707183941150288</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DX2">
-        <v>0.4709281164150459</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DY2">
-        <v>0.4773492382110311</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="DZ2">
-        <v>0.4808466634548539</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="EA2">
-        <v>0.4916750057837183</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="EB2">
-        <v>0.5257759122875855</v>
+        <v>0.8213598884697105</v>
       </c>
       <c r="EC2">
-        <v>0.5499818603549621</v>
+        <v>0.8213598884697105</v>
       </c>
       <c r="ED2">
-        <v>0.5501188070023162</v>
+        <v>0.8213598884697105</v>
       </c>
       <c r="EE2">
-        <v>0.5649375563273702</v>
+        <v>0.8213598884697105</v>
       </c>
       <c r="EF2">
-        <v>0.583624488105152</v>
+        <v>0.8213598884697105</v>
       </c>
       <c r="EG2">
-        <v>0.5891805571238828</v>
+        <v>0.8213598884697105</v>
       </c>
       <c r="EH2">
-        <v>0.591475129663211</v>
+        <v>0.8213598884697105</v>
       </c>
       <c r="EI2">
-        <v>0.5926696531358288</v>
+        <v>0.8213598884697105</v>
       </c>
       <c r="EJ2">
-        <v>0.5946281161804813</v>
+        <v>0.8213598884697105</v>
       </c>
       <c r="EK2">
-        <v>0.5954419089373465</v>
+        <v>0.8213598884697105</v>
       </c>
       <c r="EL2">
-        <v>0.596493517954034</v>
+        <v>0.8213598884697105</v>
       </c>
       <c r="EM2">
-        <v>0.6018673845254687</v>
+        <v>0.8213598884697105</v>
       </c>
       <c r="EN2">
-        <v>0.6466709308797975</v>
+        <v>0.8798348238551441</v>
       </c>
       <c r="EO2">
-        <v>0.6549202571544551</v>
+        <v>0.8798348238551441</v>
       </c>
       <c r="EP2">
-        <v>0.6549202571544551</v>
+        <v>0.8798348238551441</v>
       </c>
       <c r="EQ2">
-        <v>0.6559348981347009</v>
+        <v>0.8798348238551441</v>
       </c>
       <c r="ER2">
-        <v>0.7009727393078384</v>
+        <v>0.9392449529120847</v>
       </c>
       <c r="ES2">
-        <v>0.7463475238713991</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.7624546064036156</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.771465654733645</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.7726208323543857</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.7769030596579748</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.7791110816273759</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.7807393048494706</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.7823596280489592</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.785621307936119</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.7866390925030847</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.7878030054509566</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.7944362423709075</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8102930112760579</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8370060079909097</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.837952497711661</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8379534857930919</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8412300312027409</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8572632635975108</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.8708939253148379</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.8740470069598195</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.8740470069598195</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.8838553318745355</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.8971025595324086</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.8979294139725972</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.8982958415146826</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.898301590588389</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9002557262705796</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9006783620186739</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9009468013665201</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9013343262395728</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9022719060051393</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9022719060051393</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9028103970921448</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9031364743440075</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9032185477933763</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9072727284083302</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9124491453318607</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9175442020248693</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9281179691742478</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9317397802277161</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9339634142711388</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9365658135842252</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9365658135842252</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9382984473562784</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9390090267223148</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9404640527057934</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.942991982019263</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9436152784522432</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9455662722583724</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9494563842120622</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9553013268130561</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9706888560303263</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0002174107880984895</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0004941985895064318</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0009170798925851964</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.001371163848027859</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.001536958927832891</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001586568853899122</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.001586568853899122</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001586568853899122</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001586568853899122</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001599919651788153</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.001719720738166406</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.001753770571084252</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001943269382058857</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.002565689276689832</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.002878662855607251</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.003287822652836055</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.003989918453453053</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.004409766347485012</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.004904444566148285</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.005222853999708081</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0053096325789511</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.005357614278338608</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.005378691354588903</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.005378691354588903</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.005490769999823783</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.005823899870205833</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.006003901135414541</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.006230533779623253</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.006307134439448057</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.006409519369180027</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.006573484515496019</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.007000921150119112</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.007547915078338499</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.008074523385130716</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.008282075724276439</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.008345715935831874</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.00840862336921953</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.00840862336921953</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.008417998261486474</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.008417998261486474</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.008417998261486474</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.008471369670562929</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.00862090169977389</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.008889227341965103</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.009292814854597443</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.009671240724056739</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0100599656903486</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.01044108905173621</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.01096747642749731</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.01151810844768739</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.01202263222088662</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0123490273423841</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0126037835626018</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.01272105402184333</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.01289713363832622</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.01317005550291664</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.01332523949117504</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.01332523949117504</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.01339818769555193</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.01380754325712129</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.01436487027928155</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.01476643307747172</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.01521407450061505</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.01637837543834151</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.01684547723575503</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.01736140802217625</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.01815580631300227</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.01862290811041579</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.01907230218082381</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.019397368264244</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.019397368264244</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.019397368264244</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.019397368264244</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.01951026646255626</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.01987693189135807</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.02024519059845349</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.02097734945592132</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.02181679417614321</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.02257661060439291</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0233281521585585</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.02422638076898554</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.02489193870928937</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.02556316521584673</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.02610160894157069</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.02634443401310069</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.02640483865925046</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.02650241520977628</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.02650241520977628</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.02676543236606645</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.02719630088233687</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.02749340037049254</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.02813051653871177</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.02887185150470519</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.04471760919179323</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.1106707886460291</v>
+        <v>0.1570910350431153</v>
       </c>
       <c r="CS3">
-        <v>0.2412043652705198</v>
+        <v>0.5970262230100019</v>
       </c>
       <c r="CT3">
-        <v>0.2838032853649028</v>
+        <v>0.6518321065947719</v>
       </c>
       <c r="CU3">
-        <v>0.2891536948010477</v>
+        <v>0.6518321065947719</v>
       </c>
       <c r="CV3">
-        <v>0.3062150578288163</v>
+        <v>0.6518321065947719</v>
       </c>
       <c r="CW3">
-        <v>0.3078053939105145</v>
+        <v>0.6518321065947719</v>
       </c>
       <c r="CX3">
-        <v>0.3197328132749854</v>
+        <v>0.6518321065947719</v>
       </c>
       <c r="CY3">
-        <v>0.3227775229716282</v>
+        <v>0.6518321065947719</v>
       </c>
       <c r="CZ3">
-        <v>0.3376378180803895</v>
+        <v>0.6518321065947719</v>
       </c>
       <c r="DA3">
-        <v>0.3570833246595072</v>
+        <v>0.6518321065947719</v>
       </c>
       <c r="DB3">
-        <v>0.3610894033403639</v>
+        <v>0.6518321065947719</v>
       </c>
       <c r="DC3">
-        <v>0.4115913947868219</v>
+        <v>0.7412512415688246</v>
       </c>
       <c r="DD3">
-        <v>0.41176447005436</v>
+        <v>0.7412512415688246</v>
       </c>
       <c r="DE3">
-        <v>0.444849028457789</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DF3">
-        <v>0.4449012596492093</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DG3">
-        <v>0.4576643746967636</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DH3">
-        <v>0.4577634113317763</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DI3">
-        <v>0.4577874267696679</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DJ3">
-        <v>0.4577874267696679</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DK3">
-        <v>0.4592068720917034</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DL3">
-        <v>0.459696662523629</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DM3">
-        <v>0.4603850350523124</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DN3">
-        <v>0.4608877057021415</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DO3">
-        <v>0.4621649074441569</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DP3">
-        <v>0.4631023067842229</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DQ3">
-        <v>0.4669611250036353</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DR3">
-        <v>0.4710263397879502</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DS3">
-        <v>0.4747186222491763</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DT3">
-        <v>0.4757677791554709</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DU3">
-        <v>0.4762123030397693</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DV3">
-        <v>0.4772756415969546</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DW3">
-        <v>0.4799646864510169</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DX3">
-        <v>0.480873052812496</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DY3">
-        <v>0.4828929064338165</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="DZ3">
-        <v>0.4831015369368646</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="EA3">
-        <v>0.4831078692404641</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="EB3">
-        <v>0.4838319021066979</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="EC3">
-        <v>0.4874059750770426</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="ED3">
-        <v>0.4875848356228669</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="EE3">
-        <v>0.4962274760580785</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="EF3">
-        <v>0.5227036257753018</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="EG3">
-        <v>0.5337533688479872</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="EH3">
-        <v>0.5342364768111151</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="EI3">
-        <v>0.557773818348857</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="EJ3">
-        <v>0.5816568627134749</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="EK3">
-        <v>0.5956751915391008</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="EL3">
-        <v>0.5986479737704604</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="EM3">
-        <v>0.5992157275090587</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="EN3">
-        <v>0.5993196024152451</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="EO3">
-        <v>0.5994945526614373</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="EP3">
-        <v>0.6008109762090306</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="EQ3">
-        <v>0.6253887416478795</v>
+        <v>0.7543868708503619</v>
       </c>
       <c r="ER3">
-        <v>0.6678072803907878</v>
+        <v>0.8084027343547879</v>
       </c>
       <c r="ES3">
-        <v>0.671657097203462</v>
+        <v>0.8084027343547879</v>
       </c>
       <c r="ET3">
-        <v>0.6724605005134699</v>
+        <v>0.8084027343547879</v>
       </c>
       <c r="EU3">
-        <v>0.6756566849884236</v>
+        <v>0.8084027343547879</v>
       </c>
       <c r="EV3">
-        <v>0.7309362475176859</v>
+        <v>0.918746300040941</v>
       </c>
       <c r="EW3">
-        <v>0.7795738658424611</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.7982550235034666</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8046698923346963</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8047270560519652</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8067262102709917</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8069337626101374</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8069379932482249</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8069876031742912</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8162525161234583</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8179163335229249</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8184864789500644</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.8224737116128962</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.8364408290329116</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.8555333527078005</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.855537970278738</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.855537970278738</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.860137996905192</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.8714279805236084</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.8769079404163457</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.8769079404163457</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.8785936197225326</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.903031645807556</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.917839217301669</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9204495629641892</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9250159330555003</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9250394222807712</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.925113927046966</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9285579276629609</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.928742005059033</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9287536076379111</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9289234607361887</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9289237687933393</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9296123930290666</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9298587254823156</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9305351806598391</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9396961776544221</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.948454957148592</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9613232906373469</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9753683786390952</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9803987871826535</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9875080935112899</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9930483668630689</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9930731511493778</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9935101435904548</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9937918990637772</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9952171430602439</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9964347070708661</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9968653749761008</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8203,760 +8203,760 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001920335234776634</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.00070927717961919</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.001244654936995837</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001761898593137363</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.00259883433996073</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.003184248607011339</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.003805228296067556</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.004818238907090229</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.005633630530014097</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.005993441619270496</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.006037838963139371</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.006037838963139371</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.006037838963139371</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.006037838963139371</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.00621265338390737</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.006600398932271622</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.007297198895687533</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.008023256266579827</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.008215331448608771</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.008294034700040656</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.008565636126917261</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.009075057456538062</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.00939805835943249</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.01006617219813854</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.01082636612990272</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01135743072252187</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.011783818004291</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0119537615651272</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0119537615651272</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0119537615651272</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0119537615651272</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0119537615651272</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.01201379583723972</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0122710145259921</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.01299025842392432</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.01366480528300809</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.01430076298763644</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.01558249631597398</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.01613704264327397</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0162601814277608</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.01655082199016368</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.01655082199016368</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.01655082199016368</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.01655082199016368</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.01656145541740669</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.01656145541740669</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.01656145541740669</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0166081087897321</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.01686958685650652</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0170992017779512</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0171326580151257</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.01715240284993272</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.01740809700077233</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0176943738626395</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.01813668788592961</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.01845333544206119</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0185476991785957</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0185476991785957</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0185476991785957</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0185476991785957</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.01858271124037217</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.01858271124037217</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.01858271124037217</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.01858463100410275</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.01858463100410275</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.01865394003582601</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.01876904409456339</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.01889962960426226</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.01914851431815993</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.01931622310254032</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.01935544196439586</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.01935544196439586</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.01936068556318359</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.01939232499836896</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.01939232499836896</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.01939232499836896</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.01939232499836896</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.01939232499836896</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.01939232499836896</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.01939232499836896</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.01955055203881702</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.01993014646105842</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.02027852456774937</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.02036357666694135</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.02038012214916578</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.02038012214916578</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.02047550978626122</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.1041424878659634</v>
+        <v>0.2672169687422754</v>
       </c>
       <c r="CP4">
-        <v>0.1042407426963813</v>
+        <v>0.2672169687422754</v>
       </c>
       <c r="CQ4">
-        <v>0.2047601084623749</v>
+        <v>0.6185906928685011</v>
       </c>
       <c r="CR4">
-        <v>0.2068123056755886</v>
+        <v>0.6185906928685011</v>
       </c>
       <c r="CS4">
-        <v>0.2159174197205119</v>
+        <v>0.6185906928685011</v>
       </c>
       <c r="CT4">
-        <v>0.2434245863452274</v>
+        <v>0.6185906928685011</v>
       </c>
       <c r="CU4">
-        <v>0.2465563180628308</v>
+        <v>0.6185906928685011</v>
       </c>
       <c r="CV4">
-        <v>0.2480947233232614</v>
+        <v>0.6185906928685011</v>
       </c>
       <c r="CW4">
-        <v>0.2492935863292012</v>
+        <v>0.6185906928685011</v>
       </c>
       <c r="CX4">
-        <v>0.2632099470096317</v>
+        <v>0.6185906928685011</v>
       </c>
       <c r="CY4">
-        <v>0.2810772262323053</v>
+        <v>0.6185906928685011</v>
       </c>
       <c r="CZ4">
-        <v>0.2920026730273582</v>
+        <v>0.6185906928685011</v>
       </c>
       <c r="DA4">
-        <v>0.325714856206263</v>
+        <v>0.6363454766088495</v>
       </c>
       <c r="DB4">
-        <v>0.3264248848481736</v>
+        <v>0.6363454766088495</v>
       </c>
       <c r="DC4">
-        <v>0.3992459186970135</v>
+        <v>0.8494004184303265</v>
       </c>
       <c r="DD4">
-        <v>0.4125169452397685</v>
+        <v>0.8494004184303265</v>
       </c>
       <c r="DE4">
-        <v>0.4471441470738956</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DF4">
-        <v>0.4579322404218338</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DG4">
-        <v>0.4626117274226617</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DH4">
-        <v>0.4626117274226617</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DI4">
-        <v>0.4626717616947742</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DJ4">
-        <v>0.4686062895995918</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DK4">
-        <v>0.4707573625136561</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DL4">
-        <v>0.4711817186718147</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DM4">
-        <v>0.4711817186718147</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DN4">
-        <v>0.4728261227521856</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DO4">
-        <v>0.4730298782512181</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DP4">
-        <v>0.4786337616608281</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DQ4">
-        <v>0.483353186419867</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DR4">
-        <v>0.4834837719295658</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DS4">
-        <v>0.4836923409790855</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DT4">
-        <v>0.4838124291981441</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DU4">
-        <v>0.4891287508447896</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DV4">
-        <v>0.4903425984487351</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DW4">
-        <v>0.4906168918896433</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DX4">
-        <v>0.4939780204105961</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DY4">
-        <v>0.4943086025558656</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="DZ4">
-        <v>0.4965405515363841</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="EA4">
-        <v>0.5001370837842366</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="EB4">
-        <v>0.5023572772832043</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="EC4">
-        <v>0.5120708245847791</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="ED4">
-        <v>0.5266585431647092</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="EE4">
-        <v>0.5314011668754725</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="EF4">
-        <v>0.5314258821038536</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="EG4">
-        <v>0.538596178875739</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="EH4">
-        <v>0.5542864087798124</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="EI4">
-        <v>0.5704979432667356</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="EJ4">
-        <v>0.5708174716943658</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="EK4">
-        <v>0.5709052165523907</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="EL4">
-        <v>0.5713172402595731</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="EM4">
-        <v>0.5717998493947498</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="EN4">
-        <v>0.5772309479491584</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="EO4">
-        <v>0.5972084144653035</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="EP4">
-        <v>0.6145644942477909</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="EQ4">
-        <v>0.6195900991932056</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="ER4">
-        <v>0.6197415435089115</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="ES4">
-        <v>0.629642964938478</v>
+        <v>0.8717245844192179</v>
       </c>
       <c r="ET4">
-        <v>0.6650702645922357</v>
+        <v>0.8980442457493806</v>
       </c>
       <c r="EU4">
-        <v>0.7156436895351224</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV4">
-        <v>0.7415380341246888</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW4">
-        <v>0.7462637806368223</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX4">
-        <v>0.7468087032248187</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY4">
-        <v>0.7468087032248187</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ4">
-        <v>0.7468087032248187</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA4">
-        <v>0.7468087032248187</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB4">
-        <v>0.7468087032248187</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC4">
-        <v>0.7534196365680261</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD4">
-        <v>0.7547495047973433</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE4">
-        <v>0.7574773458392402</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF4">
-        <v>0.7706639496520232</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG4">
-        <v>0.7895044356387656</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH4">
-        <v>0.7995835082945274</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI4">
-        <v>0.8007535435628517</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ4">
-        <v>0.8007535435628517</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK4">
-        <v>0.80519285225752</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL4">
-        <v>0.815042581453813</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM4">
-        <v>0.8194106546296855</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN4">
-        <v>0.8194106546296855</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO4">
-        <v>0.8282867895639093</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP4">
-        <v>0.8535753318572746</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ4">
-        <v>0.8673549409706017</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR4">
-        <v>0.8695290635741737</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS4">
-        <v>0.8709450561026049</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT4">
-        <v>0.8709580571053912</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU4">
-        <v>0.8713527612925249</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV4">
-        <v>0.8717634904041146</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW4">
-        <v>0.8718755876997951</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX4">
-        <v>0.872552582026445</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY4">
-        <v>0.8727756988681075</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ4">
-        <v>0.8727756988681075</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA4">
-        <v>0.8741707027937987</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB4">
-        <v>0.8751866854641612</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC4">
-        <v>0.8775468486759648</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD4">
-        <v>0.8875367625709973</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE4">
-        <v>0.8982076040564105</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF4">
-        <v>0.9150357273747867</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG4">
-        <v>0.9290312423221141</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH4">
-        <v>0.9407041933932396</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI4">
-        <v>0.9467618647405719</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ4">
-        <v>0.9490097155318958</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK4">
-        <v>0.9495546381198923</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL4">
-        <v>0.9501462358284136</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM4">
-        <v>0.951481858654661</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN4">
-        <v>0.9546724737632374</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO4">
-        <v>0.9589379495464239</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP4">
-        <v>0.9623240503508599</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ4">
-        <v>0.969440000276546</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR4">
-        <v>0.979069559147856</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001341190805581669</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0001341190805581669</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001341190805581669</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001341190805581669</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0002716363954739118</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0003739922100919636</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.000644502313409234</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0007332988002850538</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0009825119752843079</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.001413788063083673</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.002035849050414647</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.002890294995429035</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.003679705638560164</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.004132421738229444</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.00450962995717124</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.005164159407948112</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.005502323409792852</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.005502371399539483</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.005502371399539483</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.00561803976114919</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.005655579958843359</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.00587708493534392</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.006986699257825536</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.008088110210856895</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.009548515553607978</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.01071215997444433</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.01106461423395452</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.01127918158710943</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.01151687819242755</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.01191097588557341</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.01219338765611565</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.01230905601772536</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.01244441177927927</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.01244441177927927</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.01244441177927927</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.01247889770666824</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.01278101115723249</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.01319977725053189</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.01366407243309421</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.01389778964326441</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.01425037725082791</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.01480310115877708</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.01565754710379147</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0165616585534782</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.01766944524817982</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.01876086721609102</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.01912137683315589</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.01950046088271458</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.01964510355249392</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.01964510355249392</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.01971582080947512</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.01985574602424349</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.02006104035538724</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.02041349461489743</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.02086268159632767</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.02147210849184884</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.02258789435290787</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.02354565560046135</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.02414043484250834</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.02484036269054891</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.02542293428390174</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.02626993625865312</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.02720200336422647</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.02759292298263019</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.02774172428576179</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.02774172428576179</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.02774172428576179</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.02774242898437376</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.02774670512640589</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.027880092368125</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.02797577410459575</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.02812595409167504</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.02874801507900602</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0296124707021246</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.03063070353461576</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.03153202100729674</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.03288111910198274</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.03388853310918862</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.03430533891339113</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.03458787198380222</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.03480650191810285</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.03481826966566744</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.03481826966566744</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.03485269381707625</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.03494501393839886</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.03510905366000572</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.03551533167377605</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.03621774129632918</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.03760863911777967</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.03939817399643644</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.04099759529070455</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.06276820647807735</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.201259433166999</v>
+        <v>0.4663638645517363</v>
       </c>
       <c r="CQ5">
-        <v>0.3072122098900724</v>
+        <v>0.7925405805069882</v>
       </c>
       <c r="CR5">
-        <v>0.3354125250813354</v>
+        <v>0.7925405805069882</v>
       </c>
       <c r="CS5">
-        <v>0.3359869372866657</v>
+        <v>0.7925405805069882</v>
       </c>
       <c r="CT5">
-        <v>0.3589496239198071</v>
+        <v>0.7925405805069882</v>
       </c>
       <c r="CU5">
-        <v>0.3695641485189181</v>
+        <v>0.7925405805069882</v>
       </c>
       <c r="CV5">
-        <v>0.3932723764024164</v>
+        <v>0.7925405805069882</v>
       </c>
       <c r="CW5">
-        <v>0.4000840152906065</v>
+        <v>0.7925405805069882</v>
       </c>
       <c r="CX5">
-        <v>0.4118444070639086</v>
+        <v>0.7925405805069882</v>
       </c>
       <c r="CY5">
-        <v>0.4341569956796067</v>
+        <v>0.7925405805069882</v>
       </c>
       <c r="CZ5">
-        <v>0.4343988128750995</v>
+        <v>0.7925405805069882</v>
       </c>
       <c r="DA5">
-        <v>0.4711329298319011</v>
+        <v>0.8204988333059272</v>
       </c>
       <c r="DB5">
-        <v>0.4715950217721616</v>
+        <v>0.8204988333059272</v>
       </c>
       <c r="DC5">
-        <v>0.5303138174081929</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DD5">
-        <v>0.5349606019541847</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DE5">
-        <v>0.5414729342491638</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DF5">
-        <v>0.5451509595285483</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DG5">
-        <v>0.5473520947251435</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DH5">
-        <v>0.5476055091414499</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DI5">
-        <v>0.5542706368551055</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DJ5">
-        <v>0.5554000785707693</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DK5">
-        <v>0.5555467483551582</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DL5">
-        <v>0.555578940795001</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DM5">
-        <v>0.5572777949577827</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DN5">
-        <v>0.5572777949577827</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DO5">
-        <v>0.5578582573008309</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DP5">
-        <v>0.559249407194942</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DQ5">
-        <v>0.559249407194942</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DR5">
-        <v>0.5595559486613164</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DS5">
-        <v>0.5657547100398177</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DT5">
-        <v>0.5660443283011112</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DU5">
-        <v>0.5660443283011112</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DV5">
-        <v>0.5660443283011112</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DW5">
-        <v>0.5749779413057786</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DX5">
-        <v>0.5767224882838639</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DY5">
-        <v>0.5776441822358872</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="DZ5">
-        <v>0.5798521601549148</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="EA5">
-        <v>0.5856409233311379</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="EB5">
-        <v>0.5857958486971427</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="EC5">
-        <v>0.5995507260110856</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="ED5">
-        <v>0.6292858324560703</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="EE5">
-        <v>0.6424453082882193</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="EF5">
-        <v>0.6425030840530029</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="EG5">
-        <v>0.6502529960595119</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="EH5">
-        <v>0.6588723231339046</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="EI5">
-        <v>0.6621909360232722</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="EJ5">
-        <v>0.6622201073076438</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="EK5">
-        <v>0.6665981681577549</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="EL5">
-        <v>0.6687793204355679</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="EM5">
-        <v>0.6705101236971833</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="EN5">
-        <v>0.6705206902256088</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="EO5">
-        <v>0.6847749592308893</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="EP5">
-        <v>0.7210596364912994</v>
+        <v>0.969196763664869</v>
       </c>
       <c r="EQ5">
-        <v>0.7251182894683764</v>
+        <v>0.969196763664869</v>
       </c>
       <c r="ER5">
-        <v>0.7254157543395525</v>
+        <v>0.969196763664869</v>
       </c>
       <c r="ES5">
-        <v>0.7263451948803195</v>
+        <v>0.969196763664869</v>
       </c>
       <c r="ET5">
-        <v>0.7604643124798367</v>
+        <v>0.9858886745248376</v>
       </c>
       <c r="EU5">
-        <v>0.7939844575682017</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.8051442094747319</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.8084492240741646</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.8084492240741646</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.8145459541957371</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.8156648319865144</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.8188158665469546</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8219617864359621</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8258450176453355</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8267896241538859</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8284247541258886</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8353310409456295</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.8500943785662615</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8751353527808151</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.8751477933179861</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.875599155839983</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.8829114441570569</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9041213249624397</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9182792297000849</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9198679154863534</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9200237095436261</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9322838394061927</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9431859278097793</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9432912138478881</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9438821657766059</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9439424864249588</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9445336064223152</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9467215711253659</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9471074293953997</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9471074293953997</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.947257609382479</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9477327702499879</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9478404187118599</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9487848158667943</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9488954439971788</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9528718538251466</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9568731673412826</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.962593543992412</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9707347914321844</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.97436328736249</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.978401137275722</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9815525474203868</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9815657716045999</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9824400899947252</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9829376321069553</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9844298489992759</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.985809321041639</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.985809321041639</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9875056539728614</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9917855393890331</v>
+        <v>1</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>7.533885741862704E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001698792953847969</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0002212443069999415</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0002212443069999415</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.000223060989974651</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0003110648368222722</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0004654483577145958</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0004718919858428016</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0004718919858428016</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0004718919858428016</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0004718919858428016</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0004856286729017389</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0005659143528371701</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0005659143528371701</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0005936732958290956</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0007046826843944142</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0007046826843944142</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0007046826843944142</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0007046826843944142</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0007046826843944142</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0007046826843944142</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0007046826843944142</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0007205629217320841</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0008183962015859187</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0009523475842080248</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001019564672074801</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001090265043488794</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001090265043488794</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001108283070242478</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.00113233261356062</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001332840411844766</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001431276624416091</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.001473547364805353</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.001524118559132465</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.001791827097841392</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.002077767352757453</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.002099927820306181</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.002099927820306181</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.002099927820306181</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.002099927820306181</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.002099927820306181</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.002126682452562064</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.002325999766501974</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.002325999766501974</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.002328359092948889</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.002424391375923372</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.002462292114897226</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.002553579311244703</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.002722977373772678</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.002735258286896976</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.00274121799047748</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.002918475468258828</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.002996587012898433</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.00300307283534475</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.003022670486025276</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.003022670486025276</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.003022670486025276</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.003022670486025276</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.003022670486025276</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.003022670486025276</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.003022670486025276</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.003022670486025276</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.003022670486025276</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.003022670486025276</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.003030530854543893</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.003247094609061307</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.003290009986264234</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.003290009986264234</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.003292328997744897</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.003441037067277188</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1778663811312474</v>
+        <v>0.5736019817297882</v>
       </c>
       <c r="CO6">
-        <v>0.2071965742238442</v>
+        <v>0.5736019817297882</v>
       </c>
       <c r="CP6">
-        <v>0.285117311007104</v>
+        <v>0.7635058052531424</v>
       </c>
       <c r="CQ6">
-        <v>0.2886858349989726</v>
+        <v>0.7635058052531424</v>
       </c>
       <c r="CR6">
-        <v>0.3038620433838363</v>
+        <v>0.7635058052531424</v>
       </c>
       <c r="CS6">
-        <v>0.3215136692125637</v>
+        <v>0.7635058052531424</v>
       </c>
       <c r="CT6">
-        <v>0.3265297018160282</v>
+        <v>0.7635058052531424</v>
       </c>
       <c r="CU6">
-        <v>0.330612877305532</v>
+        <v>0.7635058052531424</v>
       </c>
       <c r="CV6">
-        <v>0.3308185778828587</v>
+        <v>0.7635058052531424</v>
       </c>
       <c r="CW6">
-        <v>0.3673643516880249</v>
+        <v>0.7889045596622764</v>
       </c>
       <c r="CX6">
-        <v>0.3712159853913338</v>
+        <v>0.7889045596622764</v>
       </c>
       <c r="CY6">
-        <v>0.3894567955777749</v>
+        <v>0.7889045596622764</v>
       </c>
       <c r="CZ6">
-        <v>0.4088531132262466</v>
+        <v>0.7889045596622764</v>
       </c>
       <c r="DA6">
-        <v>0.4659858277257238</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DB6">
-        <v>0.4867211518660099</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DC6">
-        <v>0.5076477410776433</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DD6">
-        <v>0.5078926345263602</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DE6">
-        <v>0.5131874957039001</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DF6">
-        <v>0.5136811280652771</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DG6">
-        <v>0.5166065813364769</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DH6">
-        <v>0.5166078986342905</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DI6">
-        <v>0.5182686045748948</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DJ6">
-        <v>0.5215451731175594</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DK6">
-        <v>0.5221793032873143</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DL6">
-        <v>0.5226288059102153</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DM6">
-        <v>0.5226288059102153</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DN6">
-        <v>0.5239679172008096</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DO6">
-        <v>0.526012368873453</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DP6">
-        <v>0.527448129683751</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DQ6">
-        <v>0.5293896514595138</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DR6">
-        <v>0.5312858824660371</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DS6">
-        <v>0.5312858824660371</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DT6">
-        <v>0.5337810188205508</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DU6">
-        <v>0.5355871395861534</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DV6">
-        <v>0.53772340358652</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DW6">
-        <v>0.5400572961818831</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DX6">
-        <v>0.5402771529796114</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DY6">
-        <v>0.5421880461518133</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="DZ6">
-        <v>0.5436711208279591</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="EA6">
-        <v>0.5489902984228209</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="EB6">
-        <v>0.5660047555211448</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="EC6">
-        <v>0.5914242116700507</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="ED6">
-        <v>0.595005039527899</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="EE6">
-        <v>0.5988391391904055</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="EF6">
-        <v>0.6131899658328861</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="EG6">
-        <v>0.6220436399674488</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="EH6">
-        <v>0.6241775175835335</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="EI6">
-        <v>0.6271899687399948</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="EJ6">
-        <v>0.6297905102598539</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="EK6">
-        <v>0.6301926449314355</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="EL6">
-        <v>0.6301926449314355</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="EM6">
-        <v>0.6355432524967654</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="EN6">
-        <v>0.670535409303132</v>
+        <v>0.9153777429617809</v>
       </c>
       <c r="EO6">
-        <v>0.6811261360494771</v>
+        <v>0.9153777429617809</v>
       </c>
       <c r="EP6">
-        <v>0.681134533094249</v>
+        <v>0.9153777429617809</v>
       </c>
       <c r="EQ6">
-        <v>0.681134533094249</v>
+        <v>0.9153777429617809</v>
       </c>
       <c r="ER6">
-        <v>0.7039393256171065</v>
+        <v>0.9153777429617809</v>
       </c>
       <c r="ES6">
-        <v>0.755380508067766</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.779035867862485</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.7823999243110247</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.7825041537993456</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.7864763911586227</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.7888541090918176</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.7901272891557446</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.7937416886600209</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.7952041057662689</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.7990210927573831</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.799340197975843</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8060982558735686</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8183189212352218</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8397784833602392</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8408343255920983</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8414088590682975</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8454661886883016</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.8646606285141355</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.88470862123455</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.8924313624207172</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.8926492573240828</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.8992479732620521</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9119375293631438</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9132209279875801</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9133415386193964</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9135495576847634</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9138005356735366</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9146035646444721</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9152740542229556</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9152740542229556</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9154821701147048</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9159534304984031</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9159534304984031</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.916507678449936</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9173490258349751</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9189286791650664</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9222126179479282</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9278182874836088</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9358482579044711</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9435102692495795</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.947570874397678</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9504588344482794</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9510577141376308</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9513134121281632</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9519277546756677</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9521313555126523</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9538905119094427</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9544000845769538</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9550052936656759</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9567731416873376</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9611402797939224</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9723001753476954</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>0.01962868541747171</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5257759122875855</v>
+        <v>0.5040982042165619</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -10611,16 +10611,16 @@
         <v>93</v>
       </c>
       <c r="D3">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="E3">
-        <v>0.02887185150470519</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5227036257753018</v>
+        <v>0.5970262230100019</v>
       </c>
       <c r="G3">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -10652,16 +10652,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.02038012214916578</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5001370837842366</v>
+        <v>0.6185906928685011</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -10693,16 +10693,16 @@
         <v>91</v>
       </c>
       <c r="D5">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.04099759529070455</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5303138174081929</v>
+        <v>0.7925405805069882</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E6">
-        <v>0.003292328997744897</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5076477410776433</v>
+        <v>0.5736019817297882</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.01962868541747171</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7009727393078384</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="G2">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -10870,16 +10870,16 @@
         <v>93</v>
       </c>
       <c r="D3">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.02887185150470519</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7309362475176859</v>
+        <v>0.7412512415688246</v>
       </c>
       <c r="G3">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -10911,16 +10911,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.02038012214916578</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7156436895351224</v>
+        <v>0.8494004184303265</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -10952,16 +10952,16 @@
         <v>91</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.04099759529070455</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7210596364912994</v>
+        <v>0.7925405805069882</v>
       </c>
       <c r="G5">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.003292328997744897</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7039393256171065</v>
+        <v>0.7635058052531424</v>
       </c>
       <c r="G6">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.01962868541747171</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8102930112760579</v>
+        <v>0.8056048096626811</v>
       </c>
       <c r="G2">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -11129,16 +11129,16 @@
         <v>93</v>
       </c>
       <c r="D3">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E3">
-        <v>0.02887185150470519</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8046698923346963</v>
+        <v>0.8084027343547879</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -11170,16 +11170,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.02038012214916578</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8007535435628517</v>
+        <v>0.8494004184303265</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -11211,16 +11211,16 @@
         <v>91</v>
       </c>
       <c r="D5">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="E5">
-        <v>0.04099759529070455</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8051442094747319</v>
+        <v>0.8204988333059272</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="E6">
-        <v>0.003292328997744897</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8060982558735686</v>
+        <v>0.8961561027629935</v>
       </c>
       <c r="G6">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="E2">
-        <v>0.01962868541747171</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9002557262705796</v>
+        <v>0.9392449529120847</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -11388,16 +11388,16 @@
         <v>93</v>
       </c>
       <c r="D3">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="E3">
-        <v>0.02887185150470519</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.903031645807556</v>
+        <v>0.918746300040941</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -11429,16 +11429,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="E4">
-        <v>0.02038012214916578</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9150357273747867</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G4">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -11470,16 +11470,16 @@
         <v>91</v>
       </c>
       <c r="D5">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>0.04099759529070455</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9041213249624397</v>
+        <v>0.9431748560074257</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="E6">
-        <v>0.003292328997744897</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9119375293631438</v>
+        <v>0.9153777429617809</v>
       </c>
       <c r="G6">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>20</v>

--- a/on_trucks/Processed_Stand_Alone/20_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/20_455-55R22.xlsx
@@ -686,22 +686,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.5329549545472948</v>
+        <v>0.4191875549243985</v>
       </c>
       <c r="E2">
-        <v>0.2355590556162314</v>
+        <v>0.1988962653115924</v>
       </c>
       <c r="F2">
-        <v>0.1714188300806255</v>
+        <v>0.1513854117655921</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.005881868957053255</v>
+        <v>0.02876653646983837</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.006646683062633787</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -710,25 +710,25 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.02304694628723282</v>
       </c>
       <c r="M2">
-        <v>0.01048926968828808</v>
+        <v>0.03217939539793669</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.03753509993703355</v>
+        <v>0.05221316467841435</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.01936879692521693</v>
       </c>
       <c r="Q2">
-        <v>0.00616092117347313</v>
+        <v>0.02897323996792089</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.01872522003150782</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.006331095914911082</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -755,16 +755,16 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.01015584799425352</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.003888675663626032</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.0002351656049246838</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -811,55 +811,55 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00890843813723557</v>
+        <v>0.03105458991453655</v>
       </c>
       <c r="H3">
-        <v>0.1953014151120829</v>
+        <v>0.1678595640736542</v>
       </c>
       <c r="I3">
-        <v>0.4355319450068363</v>
+        <v>0.34417914417735</v>
       </c>
       <c r="J3">
-        <v>0.1084266613609393</v>
+        <v>0.104096976904886</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.002399835875633097</v>
       </c>
       <c r="L3">
-        <v>0.01343032911236688</v>
+        <v>0.0343734766453744</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.0203566103724366</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.005242647777371954</v>
+        <v>0.02836404672136914</v>
       </c>
       <c r="Q3">
-        <v>0.0222990275685849</v>
+        <v>0.04088274584005891</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1378250407747387</v>
+        <v>0.1256742090586891</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.07303449514984345</v>
+        <v>0.07812054548280759</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.02263825493320439</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -921,22 +921,22 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2551369013163777</v>
+        <v>0.2102933323559729</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3167633418487299</v>
+        <v>0.2551194418598071</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01196426799722883</v>
       </c>
       <c r="J4">
-        <v>0.04976960587051385</v>
+        <v>0.06091237193315317</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -948,34 +948,34 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.023923456069686E-05</v>
+        <v>0.02476182953853135</v>
       </c>
       <c r="O4">
-        <v>0.01451810568079572</v>
+        <v>0.03527098174367467</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.016806218984216</v>
       </c>
       <c r="Q4">
-        <v>0.07246034209123715</v>
+        <v>0.07741725876040371</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2154750474828019</v>
+        <v>0.1814439198682341</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.02304528828274621</v>
       </c>
       <c r="U4">
-        <v>0.0758064164749831</v>
+        <v>0.07985114096158373</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.01644086893556386</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.0001924261553083983</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.003530742484204563</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -1002,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.002651252489972503</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.0002986576493988193</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1037,55 +1037,55 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01899627767744998</v>
+        <v>0.038575329251885</v>
       </c>
       <c r="F5">
-        <v>0.3870429450799713</v>
+        <v>0.3105201763017616</v>
       </c>
       <c r="G5">
-        <v>0.2844418062758737</v>
+        <v>0.2347095428401411</v>
       </c>
       <c r="H5">
-        <v>0.0392705978637158</v>
+        <v>0.0535557580681697</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0227551628857076</v>
+        <v>0.04135272014704477</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.01258300349277528</v>
       </c>
       <c r="L5">
-        <v>0.02510602414038753</v>
+        <v>0.04308974064189475</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.003722742016594229</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.01525273473164749</v>
       </c>
       <c r="O5">
-        <v>0.02070525586819564</v>
+        <v>0.03983807078402234</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0661796172051924</v>
+        <v>0.07343847892181843</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1355023130035061</v>
+        <v>0.1246601080673956</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.003025394034302868</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.003381388787957729</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.002294811912589189</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5050890434838783</v>
+        <v>0.3936349018295414</v>
       </c>
       <c r="E6">
-        <v>0.04299110083771455</v>
+        <v>0.05602963586919978</v>
       </c>
       <c r="F6">
-        <v>0.1977418979607965</v>
+        <v>0.169089399176386</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02309635216080352</v>
       </c>
       <c r="I6">
-        <v>0.005797287884216207</v>
+        <v>0.0288561171074857</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.06597122787816621</v>
+        <v>0.07281874308068702</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.007673717783603293</v>
+        <v>0.03022702261641498</v>
       </c>
       <c r="P6">
-        <v>0.01135376923495766</v>
+        <v>0.03291564040568214</v>
       </c>
       <c r="Q6">
-        <v>0.1315363613545882</v>
+        <v>0.1207201342842007</v>
       </c>
       <c r="R6">
-        <v>0.01561822701259438</v>
+        <v>0.03603122104201079</v>
       </c>
       <c r="S6">
-        <v>0.01622736656948497</v>
+        <v>0.03647625380050649</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.0001045786270813876</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1395,109 +1395,109 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.5329549545472948</v>
+        <v>0.4191875549243985</v>
       </c>
       <c r="E2">
-        <v>0.7685140101635262</v>
+        <v>0.618083820235991</v>
       </c>
       <c r="F2">
-        <v>0.9399328402441516</v>
+        <v>0.7694692320015831</v>
       </c>
       <c r="G2">
-        <v>0.9399328402441516</v>
+        <v>0.7694692320015831</v>
       </c>
       <c r="H2">
-        <v>0.9458147092012048</v>
+        <v>0.7982357684714215</v>
       </c>
       <c r="I2">
-        <v>0.9458147092012048</v>
+        <v>0.8048824515340554</v>
       </c>
       <c r="J2">
-        <v>0.9458147092012048</v>
+        <v>0.8048824515340554</v>
       </c>
       <c r="K2">
-        <v>0.9458147092012048</v>
+        <v>0.8048824515340554</v>
       </c>
       <c r="L2">
-        <v>0.9458147092012048</v>
+        <v>0.8279293978212882</v>
       </c>
       <c r="M2">
-        <v>0.9563039788894929</v>
+        <v>0.8601087932192248</v>
       </c>
       <c r="N2">
-        <v>0.9563039788894929</v>
+        <v>0.8601087932192248</v>
       </c>
       <c r="O2">
-        <v>0.9938390788265264</v>
+        <v>0.9123219578976391</v>
       </c>
       <c r="P2">
-        <v>0.9938390788265264</v>
+        <v>0.9316907548228561</v>
       </c>
       <c r="Q2">
-        <v>0.9999999999999996</v>
+        <v>0.960663994790777</v>
       </c>
       <c r="R2">
-        <v>0.9999999999999996</v>
+        <v>0.9793892148222848</v>
       </c>
       <c r="S2">
-        <v>0.9999999999999996</v>
+        <v>0.9793892148222848</v>
       </c>
       <c r="T2">
-        <v>0.9999999999999996</v>
+        <v>0.9793892148222848</v>
       </c>
       <c r="U2">
-        <v>0.9999999999999996</v>
+        <v>0.9793892148222848</v>
       </c>
       <c r="V2">
-        <v>0.9999999999999996</v>
+        <v>0.9793892148222848</v>
       </c>
       <c r="W2">
-        <v>0.9999999999999996</v>
+        <v>0.9793892148222848</v>
       </c>
       <c r="X2">
-        <v>0.9999999999999996</v>
+        <v>0.9857203107371959</v>
       </c>
       <c r="Y2">
-        <v>0.9999999999999996</v>
+        <v>0.9857203107371959</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999996</v>
+        <v>0.9857203107371959</v>
       </c>
       <c r="AA2">
-        <v>0.9999999999999996</v>
+        <v>0.9958761587314494</v>
       </c>
       <c r="AB2">
-        <v>0.9999999999999996</v>
+        <v>0.9958761587314494</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999996</v>
+        <v>0.9997648343950755</v>
       </c>
       <c r="AD2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -1520,52 +1520,52 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00890843813723557</v>
+        <v>0.03105458991453655</v>
       </c>
       <c r="H3">
-        <v>0.2042098532493185</v>
+        <v>0.1989141539881908</v>
       </c>
       <c r="I3">
-        <v>0.6397417982561548</v>
+        <v>0.5430932981655407</v>
       </c>
       <c r="J3">
-        <v>0.7481684596170942</v>
+        <v>0.6471902750704268</v>
       </c>
       <c r="K3">
-        <v>0.7481684596170942</v>
+        <v>0.6495901109460599</v>
       </c>
       <c r="L3">
-        <v>0.7615987887294611</v>
+        <v>0.6839635875914343</v>
       </c>
       <c r="M3">
-        <v>0.7615987887294611</v>
+        <v>0.6839635875914343</v>
       </c>
       <c r="N3">
-        <v>0.7615987887294611</v>
+        <v>0.7043201979638709</v>
       </c>
       <c r="O3">
-        <v>0.7615987887294611</v>
+        <v>0.7043201979638709</v>
       </c>
       <c r="P3">
-        <v>0.766841436506833</v>
+        <v>0.7326842446852401</v>
       </c>
       <c r="Q3">
-        <v>0.7891404640754179</v>
+        <v>0.773566990525299</v>
       </c>
       <c r="R3">
-        <v>0.7891404640754179</v>
+        <v>0.773566990525299</v>
       </c>
       <c r="S3">
-        <v>0.9269655048501566</v>
+        <v>0.8992411995839882</v>
       </c>
       <c r="T3">
-        <v>0.9269655048501566</v>
+        <v>0.8992411995839882</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.9773617450667957</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.9773617450667957</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -1630,106 +1630,106 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2551369013163777</v>
+        <v>0.2102933323559729</v>
       </c>
       <c r="F4">
-        <v>0.2551369013163777</v>
+        <v>0.2102933323559729</v>
       </c>
       <c r="G4">
-        <v>0.5719002431651077</v>
+        <v>0.46541277421578</v>
       </c>
       <c r="H4">
-        <v>0.5719002431651077</v>
+        <v>0.46541277421578</v>
       </c>
       <c r="I4">
-        <v>0.5719002431651077</v>
+        <v>0.4773770422130088</v>
       </c>
       <c r="J4">
-        <v>0.6216698490356215</v>
+        <v>0.5382894141461619</v>
       </c>
       <c r="K4">
-        <v>0.6216698490356215</v>
+        <v>0.5382894141461619</v>
       </c>
       <c r="L4">
-        <v>0.6216698490356215</v>
+        <v>0.5382894141461619</v>
       </c>
       <c r="M4">
-        <v>0.6216698490356215</v>
+        <v>0.5382894141461619</v>
       </c>
       <c r="N4">
-        <v>0.6217400882701822</v>
+        <v>0.5630512436846933</v>
       </c>
       <c r="O4">
-        <v>0.6362581939509779</v>
+        <v>0.598322225428368</v>
       </c>
       <c r="P4">
-        <v>0.6362581939509779</v>
+        <v>0.615128444412584</v>
       </c>
       <c r="Q4">
-        <v>0.7087185360422151</v>
+        <v>0.6925457031729877</v>
       </c>
       <c r="R4">
-        <v>0.7087185360422151</v>
+        <v>0.6925457031729877</v>
       </c>
       <c r="S4">
-        <v>0.924193583525017</v>
+        <v>0.8739896230412217</v>
       </c>
       <c r="T4">
-        <v>0.924193583525017</v>
+        <v>0.897034911323968</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.9768860522855517</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.9933269212211155</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.9935193473764239</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.9935193473764239</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.9935193473764239</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.9970500898606285</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.9970500898606285</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9970500898606285</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9970500898606285</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9970500898606285</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9970500898606285</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.999701342350601</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1746,94 +1746,94 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01899627767744998</v>
+        <v>0.038575329251885</v>
       </c>
       <c r="F5">
-        <v>0.4060392227574213</v>
+        <v>0.3490955055536466</v>
       </c>
       <c r="G5">
-        <v>0.690481029033295</v>
+        <v>0.5838050483937877</v>
       </c>
       <c r="H5">
-        <v>0.7297516268970108</v>
+        <v>0.6373608064619574</v>
       </c>
       <c r="I5">
-        <v>0.7297516268970108</v>
+        <v>0.6373608064619574</v>
       </c>
       <c r="J5">
-        <v>0.7525067897827183</v>
+        <v>0.6787135266090021</v>
       </c>
       <c r="K5">
-        <v>0.7525067897827183</v>
+        <v>0.6912965301017774</v>
       </c>
       <c r="L5">
-        <v>0.7776128139231059</v>
+        <v>0.7343862707436721</v>
       </c>
       <c r="M5">
-        <v>0.7776128139231059</v>
+        <v>0.7381090127602664</v>
       </c>
       <c r="N5">
-        <v>0.7776128139231059</v>
+        <v>0.7533617474919139</v>
       </c>
       <c r="O5">
-        <v>0.7983180697913015</v>
+        <v>0.7931998182759362</v>
       </c>
       <c r="P5">
-        <v>0.7983180697913015</v>
+        <v>0.7931998182759362</v>
       </c>
       <c r="Q5">
-        <v>0.8644976869964939</v>
+        <v>0.8666382971977546</v>
       </c>
       <c r="R5">
-        <v>0.8644976869964939</v>
+        <v>0.8666382971977546</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.9912984052651502</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.9912984052651502</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.9943237992994531</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.9943237992994531</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.9943237992994531</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.9943237992994531</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.9977051880874108</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.9977051880874108</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9977051880874108</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9977051880874108</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9977051880874108</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9977051880874108</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9977051880874108</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9977051880874108</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9977051880874108</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9977051880874108</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -1859,109 +1859,109 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5050890434838783</v>
+        <v>0.3936349018295414</v>
       </c>
       <c r="E6">
-        <v>0.5480801443215928</v>
+        <v>0.4496645376987412</v>
       </c>
       <c r="F6">
-        <v>0.7458220422823894</v>
+        <v>0.6187539368751271</v>
       </c>
       <c r="G6">
-        <v>0.7458220422823894</v>
+        <v>0.6187539368751271</v>
       </c>
       <c r="H6">
-        <v>0.7458220422823894</v>
+        <v>0.6418502890359307</v>
       </c>
       <c r="I6">
-        <v>0.7516193301666055</v>
+        <v>0.6707064061434164</v>
       </c>
       <c r="J6">
-        <v>0.7516193301666055</v>
+        <v>0.6707064061434164</v>
       </c>
       <c r="K6">
-        <v>0.7516193301666055</v>
+        <v>0.6707064061434164</v>
       </c>
       <c r="L6">
-        <v>0.7516193301666055</v>
+        <v>0.6707064061434164</v>
       </c>
       <c r="M6">
-        <v>0.8175905580447718</v>
+        <v>0.7435251492241034</v>
       </c>
       <c r="N6">
-        <v>0.8175905580447718</v>
+        <v>0.7435251492241034</v>
       </c>
       <c r="O6">
-        <v>0.825264275828375</v>
+        <v>0.7737521718405184</v>
       </c>
       <c r="P6">
-        <v>0.8366180450633327</v>
+        <v>0.8066678122462005</v>
       </c>
       <c r="Q6">
-        <v>0.9681544064179208</v>
+        <v>0.9273879465304012</v>
       </c>
       <c r="R6">
-        <v>0.9837726334305152</v>
+        <v>0.9634191675724121</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0.9998954213729185</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0.9998954213729185</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2029,16 +2029,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.618083820235991</v>
+      </c>
+      <c r="G2">
         <v>3</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5329549545472948</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6397417982561548</v>
+        <v>0.5430932981655407</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2111,16 +2111,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5719002431651077</v>
+        <v>0.5382894141461619</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.690481029033295</v>
+        <v>0.5838050483937877</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -2193,16 +2193,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5050890434838783</v>
+        <v>0.6187539368751271</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -2288,16 +2288,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.7694692320015831</v>
+      </c>
+      <c r="G2">
         <v>4</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7685140101635262</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -2329,16 +2329,16 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7481684596170942</v>
+        <v>0.7043201979638709</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -2370,16 +2370,16 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8739896230412217</v>
+      </c>
+      <c r="G4">
         <v>16</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7087185360422151</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -2411,16 +2411,16 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7297516268970108</v>
+        <v>0.7343862707436721</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -2452,16 +2452,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7458220422823894</v>
+        <v>0.7435251492241034</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -2547,16 +2547,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9399328402441516</v>
+        <v>0.8048824515340554</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9269655048501566</v>
+        <v>0.8992411995839882</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.924193583525017</v>
+        <v>0.8739896230412217</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8644976869964939</v>
+        <v>0.8666382971977546</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -2711,16 +2711,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8175905580447718</v>
+        <v>0.8066678122462005</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>20</v>
@@ -2806,16 +2806,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9399328402441516</v>
+        <v>0.9123219578976391</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -2847,16 +2847,16 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9269655048501566</v>
+        <v>0.9773617450667957</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -2888,16 +2888,16 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.9768860522855517</v>
+      </c>
+      <c r="G4">
         <v>18</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.924193583525017</v>
-      </c>
-      <c r="G4">
-        <v>16</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.9912984052651502</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9681544064179208</v>
+        <v>0.9273879465304012</v>
       </c>
       <c r="G6">
         <v>15</v>
